--- a/hes2020/kira/sözleşmeler/Doğuş/SNT 2021 adem duman.xlsx
+++ b/hes2020/kira/sözleşmeler/Doğuş/SNT 2021 adem duman.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="50">
   <si>
     <t xml:space="preserve">Alacaklı Adı Soyadı / Unvanı</t>
   </si>
@@ -48,7 +48,7 @@
     <t xml:space="preserve">Adı Soyadı / Unvanı</t>
   </si>
   <si>
-    <t xml:space="preserve">BURSA</t>
+    <t xml:space="preserve">Bursa Fabrika Satış Mağazası – Adem Duman</t>
   </si>
   <si>
     <t xml:space="preserve">Adresi</t>
@@ -66,6 +66,9 @@
     <t xml:space="preserve">Vergi No/TC Kimlik No</t>
   </si>
   <si>
+    <t xml:space="preserve">341 3267 6260</t>
+  </si>
+  <si>
     <t xml:space="preserve">KEFİL</t>
   </si>
   <si>
@@ -73,9 +76,6 @@
   </si>
   <si>
     <t xml:space="preserve">Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">341 3267 6260</t>
   </si>
   <si>
     <t xml:space="preserve">Senet No</t>
@@ -90,9 +90,6 @@
     <t xml:space="preserve">Tutarı Rakamla</t>
   </si>
   <si>
-    <t xml:space="preserve">Kuruş</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tutarı Yazıyla</t>
   </si>
   <si>
@@ -102,7 +99,7 @@
     <t xml:space="preserve">Senet Açıklası Mühteviyatı</t>
   </si>
   <si>
-    <t xml:space="preserve">Nakden</t>
+    <t xml:space="preserve">NAKDEN</t>
   </si>
   <si>
     <t xml:space="preserve">1. Taksit</t>
@@ -150,10 +147,10 @@
     <t xml:space="preserve">Türk Lirası</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
+    <t xml:space="preserve">Kuruş</t>
   </si>
   <si>
-    <t xml:space="preserve">:</t>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">No:</t>
@@ -191,7 +188,7 @@
     <numFmt numFmtId="170" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="171" formatCode="0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -223,7 +220,7 @@
       <charset val="162"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -231,7 +228,14 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="16"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -240,7 +244,7 @@
     <font>
       <b val="true"/>
       <u val="double"/>
-      <sz val="16"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -248,20 +252,20 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="16"/>
+      <sz val="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="16"/>
+      <sz val="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -269,7 +273,7 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="16"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -497,10 +501,6 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
@@ -545,13 +545,17 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -573,23 +577,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
@@ -609,19 +613,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="10" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="10" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
@@ -630,7 +634,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -638,15 +642,7 @@
       <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -657,9 +653,9 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -677,6 +673,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -687,6 +687,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
   </cellXfs>
@@ -708,7 +712,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1343160</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -723,8 +727,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1856160" y="322200"/>
-          <a:ext cx="1689840" cy="5442840"/>
+          <a:off x="1856160" y="322560"/>
+          <a:ext cx="1689840" cy="5442480"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -770,13 +774,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1343160</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>264240</xdr:rowOff>
+      <xdr:rowOff>264600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>67680</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -785,8 +789,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1856160" y="6611400"/>
-          <a:ext cx="1689840" cy="5493960"/>
+          <a:off x="1856160" y="6611760"/>
+          <a:ext cx="1689840" cy="5493240"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -838,7 +842,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>67680</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -848,7 +852,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1856160" y="13055040"/>
-          <a:ext cx="1689840" cy="5402880"/>
+          <a:ext cx="1689840" cy="5402520"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -893,13 +897,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1343160</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>67680</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -909,8 +913,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1856160" y="19402560"/>
-          <a:ext cx="1689840" cy="5402880"/>
+          <a:off x="1856160" y="19100520"/>
+          <a:ext cx="1689840" cy="5402520"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -955,14 +959,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1343160</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>58320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>67680</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -971,8 +975,442 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1856160" y="25750080"/>
-          <a:ext cx="1689840" cy="5402880"/>
+          <a:off x="1856160" y="25448040"/>
+          <a:ext cx="1689840" cy="5402520"/>
+        </a:xfrm>
+        <a:prstGeom prst="bracePair">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63360">
+            <a:srgbClr val="a8e034">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:glow>
+          <a:outerShdw algn="tl" blurRad="50800" dir="2700000" dist="37674" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1343160</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68040</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>15120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1856160" y="31746600"/>
+          <a:ext cx="1690200" cy="5446440"/>
+        </a:xfrm>
+        <a:prstGeom prst="bracePair">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63360">
+            <a:srgbClr val="a8e034">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:glow>
+          <a:outerShdw algn="tl" blurRad="50800" dir="2700000" dist="37674" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1343160</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68040</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>15120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1856160" y="37791720"/>
+          <a:ext cx="1690200" cy="5446440"/>
+        </a:xfrm>
+        <a:prstGeom prst="bracePair">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63360">
+            <a:srgbClr val="a8e034">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:glow>
+          <a:outerShdw algn="tl" blurRad="50800" dir="2700000" dist="37674" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1343160</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68040</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>15120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1856160" y="44139240"/>
+          <a:ext cx="1690200" cy="5446440"/>
+        </a:xfrm>
+        <a:prstGeom prst="bracePair">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63360">
+            <a:srgbClr val="a8e034">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:glow>
+          <a:outerShdw algn="tl" blurRad="50800" dir="2700000" dist="37674" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1343160</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68040</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>15120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1856160" y="50486760"/>
+          <a:ext cx="1690200" cy="5446440"/>
+        </a:xfrm>
+        <a:prstGeom prst="bracePair">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63360">
+            <a:srgbClr val="a8e034">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:glow>
+          <a:outerShdw algn="tl" blurRad="50800" dir="2700000" dist="37674" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1343160</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68040</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>15120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1856160" y="56531880"/>
+          <a:ext cx="1690200" cy="5446440"/>
+        </a:xfrm>
+        <a:prstGeom prst="bracePair">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63360">
+            <a:srgbClr val="a8e034">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:glow>
+          <a:outerShdw algn="tl" blurRad="50800" dir="2700000" dist="37674" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1343160</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68040</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>15120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1856160" y="62879400"/>
+          <a:ext cx="1690200" cy="5446440"/>
+        </a:xfrm>
+        <a:prstGeom prst="bracePair">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63360">
+            <a:srgbClr val="a8e034">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:glow>
+          <a:outerShdw algn="tl" blurRad="50800" dir="2700000" dist="37674" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1343160</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68040</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>15480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1856160" y="69226920"/>
+          <a:ext cx="1690200" cy="5446440"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -1024,7 +1462,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1097,17 +1535,19 @@
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1116,7 +1556,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1134,7 +1574,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1186,23 +1626,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="15.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="10.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="20.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="10" width="14.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="10" width="23.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="20.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="10" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="10" width="23.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1211,7 +1650,6 @@
       <c r="C1" s="14"/>
       <c r="D1" s="12"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12"/>
@@ -1227,17 +1665,14 @@
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1256,18 +1691,15 @@
       <c r="E3" s="18" t="n">
         <v>2000</v>
       </c>
-      <c r="F3" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="G3" s="20" t="str">
+      <c r="F3" s="19" t="str">
         <f aca="false">PROPER(IF(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1&gt;=10^6,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1,7),1)+1,"","birmilyon","ikimilyon","üçmilyon","dörtmilyon","beşmilyon","altımilyon","yedimilyon","sekizmilyon","dokuzmilyon"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1,6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1,5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1,4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(AND(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1&gt;=10^3,VALUE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1,6),3))&gt;0),IF(AND(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1&gt;1999,LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1,4),1)="1",LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1,6),2)&lt;&gt;"00"),"birbin","bin"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1&gt;=100,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1,3),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1,2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1,10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " TL " &amp; IF(OR(LEN(SUBSTITUTE(E3, ",", ""))=LEN(E3),LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2))),"", PROPER(IF(IF(LEN(TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2)))))&lt;2,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*10,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*1)&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2)))))&lt;2,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*10,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*1),6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2)))))&lt;2,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*10,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*1)&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2)))))&lt;2,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*10,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*1),5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2)))))&lt;2,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*10,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*1)&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2)))))&lt;2,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*10,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*1),4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2)))))&lt;2,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*10,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*1)&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2)))))&lt;2,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*10,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*1),2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2)))))&lt;2,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*10,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*1),10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " Kr")</f>
-        <v>İkibin TL </v>
+        <v>İkibin TL</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1281,22 +1713,19 @@
       <c r="D4" s="17" t="n">
         <v>44316</v>
       </c>
-      <c r="E4" s="21" t="n">
+      <c r="E4" s="20" t="n">
         <v>2000</v>
       </c>
-      <c r="F4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="20" t="str">
+      <c r="F4" s="19" t="str">
         <f aca="false">PROPER(IF(IF(LEN(SUBSTITUTE(ROUND(E4,2), ",", ""))=LEN(ROUND(E4,2)),ROUND(E4,2),TRIM(LEFT(ROUND(E4,2),FIND(",",ROUND(E4,2))-1)))*1&gt;=10^6,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E4,2), ",", ""))=LEN(ROUND(E4,2)),ROUND(E4,2),TRIM(LEFT(ROUND(E4,2),FIND(",",ROUND(E4,2))-1)))*1,7),1)+1,"","birmilyon","ikimilyon","üçmilyon","dörtmilyon","beşmilyon","altımilyon","yedimilyon","sekizmilyon","dokuzmilyon"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E4,2), ",", ""))=LEN(ROUND(E4,2)),ROUND(E4,2),TRIM(LEFT(ROUND(E4,2),FIND(",",ROUND(E4,2))-1)))*1&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E4,2), ",", ""))=LEN(ROUND(E4,2)),ROUND(E4,2),TRIM(LEFT(ROUND(E4,2),FIND(",",ROUND(E4,2))-1)))*1,6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E4,2), ",", ""))=LEN(ROUND(E4,2)),ROUND(E4,2),TRIM(LEFT(ROUND(E4,2),FIND(",",ROUND(E4,2))-1)))*1&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E4,2), ",", ""))=LEN(ROUND(E4,2)),ROUND(E4,2),TRIM(LEFT(ROUND(E4,2),FIND(",",ROUND(E4,2))-1)))*1,5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E4,2), ",", ""))=LEN(ROUND(E4,2)),ROUND(E4,2),TRIM(LEFT(ROUND(E4,2),FIND(",",ROUND(E4,2))-1)))*1&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E4,2), ",", ""))=LEN(ROUND(E4,2)),ROUND(E4,2),TRIM(LEFT(ROUND(E4,2),FIND(",",ROUND(E4,2))-1)))*1,4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(AND(IF(LEN(SUBSTITUTE(ROUND(E4,2), ",", ""))=LEN(ROUND(E4,2)),ROUND(E4,2),TRIM(LEFT(ROUND(E4,2),FIND(",",ROUND(E4,2))-1)))*1&gt;=10^3,VALUE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E4,2), ",", ""))=LEN(ROUND(E4,2)),ROUND(E4,2),TRIM(LEFT(ROUND(E4,2),FIND(",",ROUND(E4,2))-1)))*1,6),3))&gt;0),IF(AND(IF(LEN(SUBSTITUTE(ROUND(E4,2), ",", ""))=LEN(ROUND(E4,2)),ROUND(E4,2),TRIM(LEFT(ROUND(E4,2),FIND(",",ROUND(E4,2))-1)))*1&gt;1999,LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E4,2), ",", ""))=LEN(ROUND(E4,2)),ROUND(E4,2),TRIM(LEFT(ROUND(E4,2),FIND(",",ROUND(E4,2))-1)))*1,4),1)="1",LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E4,2), ",", ""))=LEN(ROUND(E4,2)),ROUND(E4,2),TRIM(LEFT(ROUND(E4,2),FIND(",",ROUND(E4,2))-1)))*1,6),2)&lt;&gt;"00"),"birbin","bin"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E4,2), ",", ""))=LEN(ROUND(E4,2)),ROUND(E4,2),TRIM(LEFT(ROUND(E4,2),FIND(",",ROUND(E4,2))-1)))*1&gt;=100,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E4,2), ",", ""))=LEN(ROUND(E4,2)),ROUND(E4,2),TRIM(LEFT(ROUND(E4,2),FIND(",",ROUND(E4,2))-1)))*1,3),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E4,2), ",", ""))=LEN(ROUND(E4,2)),ROUND(E4,2),TRIM(LEFT(ROUND(E4,2),FIND(",",ROUND(E4,2))-1)))*1&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E4,2), ",", ""))=LEN(ROUND(E4,2)),ROUND(E4,2),TRIM(LEFT(ROUND(E4,2),FIND(",",ROUND(E4,2))-1)))*1,2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(SUBSTITUTE(ROUND(E4,2), ",", ""))=LEN(ROUND(E4,2)),ROUND(E4,2),TRIM(LEFT(ROUND(E4,2),FIND(",",ROUND(E4,2))-1)))*1,10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " TL " &amp; IF(OR(LEN(SUBSTITUTE(E4, ",", ""))=LEN(E4),LEN(SUBSTITUTE(ROUND(E4,2), ",", ""))=LEN(ROUND(E4,2))),"", PROPER(IF(IF(LEN(TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2)))))&lt;2,TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2))))*10,TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2))))*1)&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2)))))&lt;2,TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2))))*10,TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2))))*1),6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2)))))&lt;2,TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2))))*10,TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2))))*1)&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2)))))&lt;2,TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2))))*10,TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2))))*1),5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2)))))&lt;2,TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2))))*10,TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2))))*1)&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2)))))&lt;2,TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2))))*10,TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2))))*1),4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2)))))&lt;2,TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2))))*10,TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2))))*1)&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2)))))&lt;2,TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2))))*10,TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2))))*1),2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2)))))&lt;2,TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2))))*10,TRIM(RIGHT(ROUND(E4,2),LEN(ROUND(E4,2))-FIND(",",ROUND(E4,2))))*1),10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " Kr")</f>
         <v>İkibin TL</v>
       </c>
-      <c r="H4" s="10" t="str">
-        <f aca="false">H3</f>
-        <v>Nakden</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>28</v>
+      <c r="G4" s="10" t="str">
+        <f aca="false">G3</f>
+        <v>NAKDEN</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1310,22 +1739,19 @@
       <c r="D5" s="17" t="n">
         <v>44346</v>
       </c>
-      <c r="E5" s="21" t="n">
+      <c r="E5" s="20" t="n">
         <v>2000</v>
       </c>
-      <c r="F5" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="20" t="str">
+      <c r="F5" s="19" t="str">
         <f aca="false">PROPER(IF(IF(LEN(SUBSTITUTE(ROUND(E5,2), ",", ""))=LEN(ROUND(E5,2)),ROUND(E5,2),TRIM(LEFT(ROUND(E5,2),FIND(",",ROUND(E5,2))-1)))*1&gt;=10^6,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E5,2), ",", ""))=LEN(ROUND(E5,2)),ROUND(E5,2),TRIM(LEFT(ROUND(E5,2),FIND(",",ROUND(E5,2))-1)))*1,7),1)+1,"","birmilyon","ikimilyon","üçmilyon","dörtmilyon","beşmilyon","altımilyon","yedimilyon","sekizmilyon","dokuzmilyon"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E5,2), ",", ""))=LEN(ROUND(E5,2)),ROUND(E5,2),TRIM(LEFT(ROUND(E5,2),FIND(",",ROUND(E5,2))-1)))*1&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E5,2), ",", ""))=LEN(ROUND(E5,2)),ROUND(E5,2),TRIM(LEFT(ROUND(E5,2),FIND(",",ROUND(E5,2))-1)))*1,6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E5,2), ",", ""))=LEN(ROUND(E5,2)),ROUND(E5,2),TRIM(LEFT(ROUND(E5,2),FIND(",",ROUND(E5,2))-1)))*1&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E5,2), ",", ""))=LEN(ROUND(E5,2)),ROUND(E5,2),TRIM(LEFT(ROUND(E5,2),FIND(",",ROUND(E5,2))-1)))*1,5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E5,2), ",", ""))=LEN(ROUND(E5,2)),ROUND(E5,2),TRIM(LEFT(ROUND(E5,2),FIND(",",ROUND(E5,2))-1)))*1&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E5,2), ",", ""))=LEN(ROUND(E5,2)),ROUND(E5,2),TRIM(LEFT(ROUND(E5,2),FIND(",",ROUND(E5,2))-1)))*1,4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(AND(IF(LEN(SUBSTITUTE(ROUND(E5,2), ",", ""))=LEN(ROUND(E5,2)),ROUND(E5,2),TRIM(LEFT(ROUND(E5,2),FIND(",",ROUND(E5,2))-1)))*1&gt;=10^3,VALUE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E5,2), ",", ""))=LEN(ROUND(E5,2)),ROUND(E5,2),TRIM(LEFT(ROUND(E5,2),FIND(",",ROUND(E5,2))-1)))*1,6),3))&gt;0),IF(AND(IF(LEN(SUBSTITUTE(ROUND(E5,2), ",", ""))=LEN(ROUND(E5,2)),ROUND(E5,2),TRIM(LEFT(ROUND(E5,2),FIND(",",ROUND(E5,2))-1)))*1&gt;1999,LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E5,2), ",", ""))=LEN(ROUND(E5,2)),ROUND(E5,2),TRIM(LEFT(ROUND(E5,2),FIND(",",ROUND(E5,2))-1)))*1,4),1)="1",LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E5,2), ",", ""))=LEN(ROUND(E5,2)),ROUND(E5,2),TRIM(LEFT(ROUND(E5,2),FIND(",",ROUND(E5,2))-1)))*1,6),2)&lt;&gt;"00"),"birbin","bin"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E5,2), ",", ""))=LEN(ROUND(E5,2)),ROUND(E5,2),TRIM(LEFT(ROUND(E5,2),FIND(",",ROUND(E5,2))-1)))*1&gt;=100,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E5,2), ",", ""))=LEN(ROUND(E5,2)),ROUND(E5,2),TRIM(LEFT(ROUND(E5,2),FIND(",",ROUND(E5,2))-1)))*1,3),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E5,2), ",", ""))=LEN(ROUND(E5,2)),ROUND(E5,2),TRIM(LEFT(ROUND(E5,2),FIND(",",ROUND(E5,2))-1)))*1&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E5,2), ",", ""))=LEN(ROUND(E5,2)),ROUND(E5,2),TRIM(LEFT(ROUND(E5,2),FIND(",",ROUND(E5,2))-1)))*1,2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(SUBSTITUTE(ROUND(E5,2), ",", ""))=LEN(ROUND(E5,2)),ROUND(E5,2),TRIM(LEFT(ROUND(E5,2),FIND(",",ROUND(E5,2))-1)))*1,10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " TL " &amp; IF(OR(LEN(SUBSTITUTE(E5, ",", ""))=LEN(E5),LEN(SUBSTITUTE(ROUND(E5,2), ",", ""))=LEN(ROUND(E5,2))),"", PROPER(IF(IF(LEN(TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2)))))&lt;2,TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2))))*10,TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2))))*1)&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2)))))&lt;2,TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2))))*10,TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2))))*1),6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2)))))&lt;2,TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2))))*10,TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2))))*1)&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2)))))&lt;2,TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2))))*10,TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2))))*1),5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2)))))&lt;2,TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2))))*10,TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2))))*1)&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2)))))&lt;2,TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2))))*10,TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2))))*1),4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2)))))&lt;2,TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2))))*10,TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2))))*1)&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2)))))&lt;2,TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2))))*10,TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2))))*1),2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2)))))&lt;2,TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2))))*10,TRIM(RIGHT(ROUND(E5,2),LEN(ROUND(E5,2))-FIND(",",ROUND(E5,2))))*1),10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " Kr")</f>
         <v>İkibin TL</v>
       </c>
-      <c r="H5" s="10" t="str">
-        <f aca="false">H4</f>
-        <v>Nakden</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>29</v>
+      <c r="G5" s="10" t="str">
+        <f aca="false">G4</f>
+        <v>NAKDEN</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1339,22 +1765,19 @@
       <c r="D6" s="17" t="n">
         <v>44377</v>
       </c>
-      <c r="E6" s="21" t="n">
+      <c r="E6" s="20" t="n">
         <v>2000</v>
       </c>
-      <c r="F6" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="20" t="str">
+      <c r="F6" s="19" t="str">
         <f aca="false">PROPER(IF(IF(LEN(SUBSTITUTE(ROUND(E6,2), ",", ""))=LEN(ROUND(E6,2)),ROUND(E6,2),TRIM(LEFT(ROUND(E6,2),FIND(",",ROUND(E6,2))-1)))*1&gt;=10^6,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E6,2), ",", ""))=LEN(ROUND(E6,2)),ROUND(E6,2),TRIM(LEFT(ROUND(E6,2),FIND(",",ROUND(E6,2))-1)))*1,7),1)+1,"","birmilyon","ikimilyon","üçmilyon","dörtmilyon","beşmilyon","altımilyon","yedimilyon","sekizmilyon","dokuzmilyon"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E6,2), ",", ""))=LEN(ROUND(E6,2)),ROUND(E6,2),TRIM(LEFT(ROUND(E6,2),FIND(",",ROUND(E6,2))-1)))*1&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E6,2), ",", ""))=LEN(ROUND(E6,2)),ROUND(E6,2),TRIM(LEFT(ROUND(E6,2),FIND(",",ROUND(E6,2))-1)))*1,6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E6,2), ",", ""))=LEN(ROUND(E6,2)),ROUND(E6,2),TRIM(LEFT(ROUND(E6,2),FIND(",",ROUND(E6,2))-1)))*1&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E6,2), ",", ""))=LEN(ROUND(E6,2)),ROUND(E6,2),TRIM(LEFT(ROUND(E6,2),FIND(",",ROUND(E6,2))-1)))*1,5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E6,2), ",", ""))=LEN(ROUND(E6,2)),ROUND(E6,2),TRIM(LEFT(ROUND(E6,2),FIND(",",ROUND(E6,2))-1)))*1&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E6,2), ",", ""))=LEN(ROUND(E6,2)),ROUND(E6,2),TRIM(LEFT(ROUND(E6,2),FIND(",",ROUND(E6,2))-1)))*1,4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(AND(IF(LEN(SUBSTITUTE(ROUND(E6,2), ",", ""))=LEN(ROUND(E6,2)),ROUND(E6,2),TRIM(LEFT(ROUND(E6,2),FIND(",",ROUND(E6,2))-1)))*1&gt;=10^3,VALUE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E6,2), ",", ""))=LEN(ROUND(E6,2)),ROUND(E6,2),TRIM(LEFT(ROUND(E6,2),FIND(",",ROUND(E6,2))-1)))*1,6),3))&gt;0),IF(AND(IF(LEN(SUBSTITUTE(ROUND(E6,2), ",", ""))=LEN(ROUND(E6,2)),ROUND(E6,2),TRIM(LEFT(ROUND(E6,2),FIND(",",ROUND(E6,2))-1)))*1&gt;1999,LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E6,2), ",", ""))=LEN(ROUND(E6,2)),ROUND(E6,2),TRIM(LEFT(ROUND(E6,2),FIND(",",ROUND(E6,2))-1)))*1,4),1)="1",LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E6,2), ",", ""))=LEN(ROUND(E6,2)),ROUND(E6,2),TRIM(LEFT(ROUND(E6,2),FIND(",",ROUND(E6,2))-1)))*1,6),2)&lt;&gt;"00"),"birbin","bin"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E6,2), ",", ""))=LEN(ROUND(E6,2)),ROUND(E6,2),TRIM(LEFT(ROUND(E6,2),FIND(",",ROUND(E6,2))-1)))*1&gt;=100,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E6,2), ",", ""))=LEN(ROUND(E6,2)),ROUND(E6,2),TRIM(LEFT(ROUND(E6,2),FIND(",",ROUND(E6,2))-1)))*1,3),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E6,2), ",", ""))=LEN(ROUND(E6,2)),ROUND(E6,2),TRIM(LEFT(ROUND(E6,2),FIND(",",ROUND(E6,2))-1)))*1&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E6,2), ",", ""))=LEN(ROUND(E6,2)),ROUND(E6,2),TRIM(LEFT(ROUND(E6,2),FIND(",",ROUND(E6,2))-1)))*1,2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(SUBSTITUTE(ROUND(E6,2), ",", ""))=LEN(ROUND(E6,2)),ROUND(E6,2),TRIM(LEFT(ROUND(E6,2),FIND(",",ROUND(E6,2))-1)))*1,10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " TL " &amp; IF(OR(LEN(SUBSTITUTE(E6, ",", ""))=LEN(E6),LEN(SUBSTITUTE(ROUND(E6,2), ",", ""))=LEN(ROUND(E6,2))),"", PROPER(IF(IF(LEN(TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2)))))&lt;2,TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2))))*10,TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2))))*1)&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2)))))&lt;2,TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2))))*10,TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2))))*1),6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2)))))&lt;2,TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2))))*10,TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2))))*1)&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2)))))&lt;2,TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2))))*10,TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2))))*1),5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2)))))&lt;2,TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2))))*10,TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2))))*1)&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2)))))&lt;2,TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2))))*10,TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2))))*1),4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2)))))&lt;2,TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2))))*10,TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2))))*1)&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2)))))&lt;2,TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2))))*10,TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2))))*1),2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2)))))&lt;2,TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2))))*10,TRIM(RIGHT(ROUND(E6,2),LEN(ROUND(E6,2))-FIND(",",ROUND(E6,2))))*1),10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " Kr")</f>
         <v>İkibin TL</v>
       </c>
-      <c r="H6" s="10" t="str">
-        <f aca="false">H5</f>
-        <v>Nakden</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>30</v>
+      <c r="G6" s="10" t="str">
+        <f aca="false">G5</f>
+        <v>NAKDEN</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1368,22 +1791,19 @@
       <c r="D7" s="17" t="n">
         <v>44407</v>
       </c>
-      <c r="E7" s="21" t="n">
+      <c r="E7" s="20" t="n">
         <v>14000</v>
       </c>
-      <c r="F7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="20" t="str">
+      <c r="F7" s="19" t="str">
         <f aca="false">PROPER(IF(IF(LEN(SUBSTITUTE(ROUND(E7,2), ",", ""))=LEN(ROUND(E7,2)),ROUND(E7,2),TRIM(LEFT(ROUND(E7,2),FIND(",",ROUND(E7,2))-1)))*1&gt;=10^6,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E7,2), ",", ""))=LEN(ROUND(E7,2)),ROUND(E7,2),TRIM(LEFT(ROUND(E7,2),FIND(",",ROUND(E7,2))-1)))*1,7),1)+1,"","birmilyon","ikimilyon","üçmilyon","dörtmilyon","beşmilyon","altımilyon","yedimilyon","sekizmilyon","dokuzmilyon"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E7,2), ",", ""))=LEN(ROUND(E7,2)),ROUND(E7,2),TRIM(LEFT(ROUND(E7,2),FIND(",",ROUND(E7,2))-1)))*1&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E7,2), ",", ""))=LEN(ROUND(E7,2)),ROUND(E7,2),TRIM(LEFT(ROUND(E7,2),FIND(",",ROUND(E7,2))-1)))*1,6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E7,2), ",", ""))=LEN(ROUND(E7,2)),ROUND(E7,2),TRIM(LEFT(ROUND(E7,2),FIND(",",ROUND(E7,2))-1)))*1&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E7,2), ",", ""))=LEN(ROUND(E7,2)),ROUND(E7,2),TRIM(LEFT(ROUND(E7,2),FIND(",",ROUND(E7,2))-1)))*1,5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E7,2), ",", ""))=LEN(ROUND(E7,2)),ROUND(E7,2),TRIM(LEFT(ROUND(E7,2),FIND(",",ROUND(E7,2))-1)))*1&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E7,2), ",", ""))=LEN(ROUND(E7,2)),ROUND(E7,2),TRIM(LEFT(ROUND(E7,2),FIND(",",ROUND(E7,2))-1)))*1,4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(AND(IF(LEN(SUBSTITUTE(ROUND(E7,2), ",", ""))=LEN(ROUND(E7,2)),ROUND(E7,2),TRIM(LEFT(ROUND(E7,2),FIND(",",ROUND(E7,2))-1)))*1&gt;=10^3,VALUE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E7,2), ",", ""))=LEN(ROUND(E7,2)),ROUND(E7,2),TRIM(LEFT(ROUND(E7,2),FIND(",",ROUND(E7,2))-1)))*1,6),3))&gt;0),IF(AND(IF(LEN(SUBSTITUTE(ROUND(E7,2), ",", ""))=LEN(ROUND(E7,2)),ROUND(E7,2),TRIM(LEFT(ROUND(E7,2),FIND(",",ROUND(E7,2))-1)))*1&gt;1999,LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E7,2), ",", ""))=LEN(ROUND(E7,2)),ROUND(E7,2),TRIM(LEFT(ROUND(E7,2),FIND(",",ROUND(E7,2))-1)))*1,4),1)="1",LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E7,2), ",", ""))=LEN(ROUND(E7,2)),ROUND(E7,2),TRIM(LEFT(ROUND(E7,2),FIND(",",ROUND(E7,2))-1)))*1,6),2)&lt;&gt;"00"),"birbin","bin"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E7,2), ",", ""))=LEN(ROUND(E7,2)),ROUND(E7,2),TRIM(LEFT(ROUND(E7,2),FIND(",",ROUND(E7,2))-1)))*1&gt;=100,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E7,2), ",", ""))=LEN(ROUND(E7,2)),ROUND(E7,2),TRIM(LEFT(ROUND(E7,2),FIND(",",ROUND(E7,2))-1)))*1,3),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E7,2), ",", ""))=LEN(ROUND(E7,2)),ROUND(E7,2),TRIM(LEFT(ROUND(E7,2),FIND(",",ROUND(E7,2))-1)))*1&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E7,2), ",", ""))=LEN(ROUND(E7,2)),ROUND(E7,2),TRIM(LEFT(ROUND(E7,2),FIND(",",ROUND(E7,2))-1)))*1,2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(SUBSTITUTE(ROUND(E7,2), ",", ""))=LEN(ROUND(E7,2)),ROUND(E7,2),TRIM(LEFT(ROUND(E7,2),FIND(",",ROUND(E7,2))-1)))*1,10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " TL " &amp; IF(OR(LEN(SUBSTITUTE(E7, ",", ""))=LEN(E7),LEN(SUBSTITUTE(ROUND(E7,2), ",", ""))=LEN(ROUND(E7,2))),"", PROPER(IF(IF(LEN(TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2)))))&lt;2,TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2))))*10,TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2))))*1)&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2)))))&lt;2,TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2))))*10,TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2))))*1),6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2)))))&lt;2,TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2))))*10,TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2))))*1)&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2)))))&lt;2,TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2))))*10,TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2))))*1),5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2)))))&lt;2,TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2))))*10,TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2))))*1)&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2)))))&lt;2,TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2))))*10,TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2))))*1),4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2)))))&lt;2,TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2))))*10,TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2))))*1)&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2)))))&lt;2,TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2))))*10,TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2))))*1),2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2)))))&lt;2,TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2))))*10,TRIM(RIGHT(ROUND(E7,2),LEN(ROUND(E7,2))-FIND(",",ROUND(E7,2))))*1),10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " Kr")</f>
         <v>Ondörtbin TL</v>
       </c>
-      <c r="H7" s="10" t="str">
-        <f aca="false">H6</f>
-        <v>Nakden</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>31</v>
+      <c r="G7" s="10" t="str">
+        <f aca="false">G6</f>
+        <v>NAKDEN</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1391,20 +1811,25 @@
       <c r="B8" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="20" t="str">
+      <c r="C8" s="17" t="n">
+        <v>44252</v>
+      </c>
+      <c r="D8" s="17" t="n">
+        <v>44438</v>
+      </c>
+      <c r="E8" s="20" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="19" t="str">
         <f aca="false">PROPER(IF(IF(LEN(SUBSTITUTE(ROUND(E8,2), ",", ""))=LEN(ROUND(E8,2)),ROUND(E8,2),TRIM(LEFT(ROUND(E8,2),FIND(",",ROUND(E8,2))-1)))*1&gt;=10^6,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E8,2), ",", ""))=LEN(ROUND(E8,2)),ROUND(E8,2),TRIM(LEFT(ROUND(E8,2),FIND(",",ROUND(E8,2))-1)))*1,7),1)+1,"","birmilyon","ikimilyon","üçmilyon","dörtmilyon","beşmilyon","altımilyon","yedimilyon","sekizmilyon","dokuzmilyon"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E8,2), ",", ""))=LEN(ROUND(E8,2)),ROUND(E8,2),TRIM(LEFT(ROUND(E8,2),FIND(",",ROUND(E8,2))-1)))*1&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E8,2), ",", ""))=LEN(ROUND(E8,2)),ROUND(E8,2),TRIM(LEFT(ROUND(E8,2),FIND(",",ROUND(E8,2))-1)))*1,6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E8,2), ",", ""))=LEN(ROUND(E8,2)),ROUND(E8,2),TRIM(LEFT(ROUND(E8,2),FIND(",",ROUND(E8,2))-1)))*1&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E8,2), ",", ""))=LEN(ROUND(E8,2)),ROUND(E8,2),TRIM(LEFT(ROUND(E8,2),FIND(",",ROUND(E8,2))-1)))*1,5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E8,2), ",", ""))=LEN(ROUND(E8,2)),ROUND(E8,2),TRIM(LEFT(ROUND(E8,2),FIND(",",ROUND(E8,2))-1)))*1&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E8,2), ",", ""))=LEN(ROUND(E8,2)),ROUND(E8,2),TRIM(LEFT(ROUND(E8,2),FIND(",",ROUND(E8,2))-1)))*1,4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(AND(IF(LEN(SUBSTITUTE(ROUND(E8,2), ",", ""))=LEN(ROUND(E8,2)),ROUND(E8,2),TRIM(LEFT(ROUND(E8,2),FIND(",",ROUND(E8,2))-1)))*1&gt;=10^3,VALUE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E8,2), ",", ""))=LEN(ROUND(E8,2)),ROUND(E8,2),TRIM(LEFT(ROUND(E8,2),FIND(",",ROUND(E8,2))-1)))*1,6),3))&gt;0),IF(AND(IF(LEN(SUBSTITUTE(ROUND(E8,2), ",", ""))=LEN(ROUND(E8,2)),ROUND(E8,2),TRIM(LEFT(ROUND(E8,2),FIND(",",ROUND(E8,2))-1)))*1&gt;1999,LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E8,2), ",", ""))=LEN(ROUND(E8,2)),ROUND(E8,2),TRIM(LEFT(ROUND(E8,2),FIND(",",ROUND(E8,2))-1)))*1,4),1)="1",LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E8,2), ",", ""))=LEN(ROUND(E8,2)),ROUND(E8,2),TRIM(LEFT(ROUND(E8,2),FIND(",",ROUND(E8,2))-1)))*1,6),2)&lt;&gt;"00"),"birbin","bin"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E8,2), ",", ""))=LEN(ROUND(E8,2)),ROUND(E8,2),TRIM(LEFT(ROUND(E8,2),FIND(",",ROUND(E8,2))-1)))*1&gt;=100,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E8,2), ",", ""))=LEN(ROUND(E8,2)),ROUND(E8,2),TRIM(LEFT(ROUND(E8,2),FIND(",",ROUND(E8,2))-1)))*1,3),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E8,2), ",", ""))=LEN(ROUND(E8,2)),ROUND(E8,2),TRIM(LEFT(ROUND(E8,2),FIND(",",ROUND(E8,2))-1)))*1&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E8,2), ",", ""))=LEN(ROUND(E8,2)),ROUND(E8,2),TRIM(LEFT(ROUND(E8,2),FIND(",",ROUND(E8,2))-1)))*1,2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(SUBSTITUTE(ROUND(E8,2), ",", ""))=LEN(ROUND(E8,2)),ROUND(E8,2),TRIM(LEFT(ROUND(E8,2),FIND(",",ROUND(E8,2))-1)))*1,10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " TL " &amp; IF(OR(LEN(SUBSTITUTE(E8, ",", ""))=LEN(E8),LEN(SUBSTITUTE(ROUND(E8,2), ",", ""))=LEN(ROUND(E8,2))),"", PROPER(IF(IF(LEN(TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2)))))&lt;2,TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2))))*10,TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2))))*1)&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2)))))&lt;2,TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2))))*10,TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2))))*1),6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2)))))&lt;2,TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2))))*10,TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2))))*1)&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2)))))&lt;2,TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2))))*10,TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2))))*1),5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2)))))&lt;2,TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2))))*10,TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2))))*1)&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2)))))&lt;2,TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2))))*10,TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2))))*1),4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2)))))&lt;2,TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2))))*10,TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2))))*1)&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2)))))&lt;2,TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2))))*10,TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2))))*1),2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2)))))&lt;2,TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2))))*10,TRIM(RIGHT(ROUND(E8,2),LEN(ROUND(E8,2))-FIND(",",ROUND(E8,2))))*1),10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " Kr")</f>
-        <v>TL</v>
-      </c>
-      <c r="H8" s="10" t="str">
-        <f aca="false">H7</f>
-        <v>Nakden</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>32</v>
+        <v>İkibin TL </v>
+      </c>
+      <c r="G8" s="10" t="str">
+        <f aca="false">G7</f>
+        <v>NAKDEN</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1412,20 +1837,25 @@
       <c r="B9" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="20" t="str">
+      <c r="C9" s="17" t="n">
+        <v>44252</v>
+      </c>
+      <c r="D9" s="17" t="n">
+        <v>44469</v>
+      </c>
+      <c r="E9" s="20" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="19" t="str">
         <f aca="false">PROPER(IF(IF(LEN(SUBSTITUTE(ROUND(E9,2), ",", ""))=LEN(ROUND(E9,2)),ROUND(E9,2),TRIM(LEFT(ROUND(E9,2),FIND(",",ROUND(E9,2))-1)))*1&gt;=10^6,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E9,2), ",", ""))=LEN(ROUND(E9,2)),ROUND(E9,2),TRIM(LEFT(ROUND(E9,2),FIND(",",ROUND(E9,2))-1)))*1,7),1)+1,"","birmilyon","ikimilyon","üçmilyon","dörtmilyon","beşmilyon","altımilyon","yedimilyon","sekizmilyon","dokuzmilyon"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E9,2), ",", ""))=LEN(ROUND(E9,2)),ROUND(E9,2),TRIM(LEFT(ROUND(E9,2),FIND(",",ROUND(E9,2))-1)))*1&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E9,2), ",", ""))=LEN(ROUND(E9,2)),ROUND(E9,2),TRIM(LEFT(ROUND(E9,2),FIND(",",ROUND(E9,2))-1)))*1,6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E9,2), ",", ""))=LEN(ROUND(E9,2)),ROUND(E9,2),TRIM(LEFT(ROUND(E9,2),FIND(",",ROUND(E9,2))-1)))*1&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E9,2), ",", ""))=LEN(ROUND(E9,2)),ROUND(E9,2),TRIM(LEFT(ROUND(E9,2),FIND(",",ROUND(E9,2))-1)))*1,5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E9,2), ",", ""))=LEN(ROUND(E9,2)),ROUND(E9,2),TRIM(LEFT(ROUND(E9,2),FIND(",",ROUND(E9,2))-1)))*1&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E9,2), ",", ""))=LEN(ROUND(E9,2)),ROUND(E9,2),TRIM(LEFT(ROUND(E9,2),FIND(",",ROUND(E9,2))-1)))*1,4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(AND(IF(LEN(SUBSTITUTE(ROUND(E9,2), ",", ""))=LEN(ROUND(E9,2)),ROUND(E9,2),TRIM(LEFT(ROUND(E9,2),FIND(",",ROUND(E9,2))-1)))*1&gt;=10^3,VALUE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E9,2), ",", ""))=LEN(ROUND(E9,2)),ROUND(E9,2),TRIM(LEFT(ROUND(E9,2),FIND(",",ROUND(E9,2))-1)))*1,6),3))&gt;0),IF(AND(IF(LEN(SUBSTITUTE(ROUND(E9,2), ",", ""))=LEN(ROUND(E9,2)),ROUND(E9,2),TRIM(LEFT(ROUND(E9,2),FIND(",",ROUND(E9,2))-1)))*1&gt;1999,LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E9,2), ",", ""))=LEN(ROUND(E9,2)),ROUND(E9,2),TRIM(LEFT(ROUND(E9,2),FIND(",",ROUND(E9,2))-1)))*1,4),1)="1",LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E9,2), ",", ""))=LEN(ROUND(E9,2)),ROUND(E9,2),TRIM(LEFT(ROUND(E9,2),FIND(",",ROUND(E9,2))-1)))*1,6),2)&lt;&gt;"00"),"birbin","bin"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E9,2), ",", ""))=LEN(ROUND(E9,2)),ROUND(E9,2),TRIM(LEFT(ROUND(E9,2),FIND(",",ROUND(E9,2))-1)))*1&gt;=100,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E9,2), ",", ""))=LEN(ROUND(E9,2)),ROUND(E9,2),TRIM(LEFT(ROUND(E9,2),FIND(",",ROUND(E9,2))-1)))*1,3),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E9,2), ",", ""))=LEN(ROUND(E9,2)),ROUND(E9,2),TRIM(LEFT(ROUND(E9,2),FIND(",",ROUND(E9,2))-1)))*1&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E9,2), ",", ""))=LEN(ROUND(E9,2)),ROUND(E9,2),TRIM(LEFT(ROUND(E9,2),FIND(",",ROUND(E9,2))-1)))*1,2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(SUBSTITUTE(ROUND(E9,2), ",", ""))=LEN(ROUND(E9,2)),ROUND(E9,2),TRIM(LEFT(ROUND(E9,2),FIND(",",ROUND(E9,2))-1)))*1,10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " TL " &amp; IF(OR(LEN(SUBSTITUTE(E9, ",", ""))=LEN(E9),LEN(SUBSTITUTE(ROUND(E9,2), ",", ""))=LEN(ROUND(E9,2))),"", PROPER(IF(IF(LEN(TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2)))))&lt;2,TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2))))*10,TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2))))*1)&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2)))))&lt;2,TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2))))*10,TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2))))*1),6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2)))))&lt;2,TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2))))*10,TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2))))*1)&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2)))))&lt;2,TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2))))*10,TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2))))*1),5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2)))))&lt;2,TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2))))*10,TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2))))*1)&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2)))))&lt;2,TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2))))*10,TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2))))*1),4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2)))))&lt;2,TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2))))*10,TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2))))*1)&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2)))))&lt;2,TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2))))*10,TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2))))*1),2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2)))))&lt;2,TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2))))*10,TRIM(RIGHT(ROUND(E9,2),LEN(ROUND(E9,2))-FIND(",",ROUND(E9,2))))*1),10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " Kr")</f>
-        <v>TL</v>
-      </c>
-      <c r="H9" s="10" t="str">
-        <f aca="false">H8</f>
-        <v>Nakden</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>33</v>
+        <v>İkibin TL </v>
+      </c>
+      <c r="G9" s="10" t="str">
+        <f aca="false">G8</f>
+        <v>NAKDEN</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1433,20 +1863,25 @@
       <c r="B10" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="20" t="str">
+      <c r="C10" s="17" t="n">
+        <v>44252</v>
+      </c>
+      <c r="D10" s="17" t="n">
+        <v>44499</v>
+      </c>
+      <c r="E10" s="20" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="19" t="str">
         <f aca="false">PROPER(IF(IF(LEN(SUBSTITUTE(ROUND(E10,2), ",", ""))=LEN(ROUND(E10,2)),ROUND(E10,2),TRIM(LEFT(ROUND(E10,2),FIND(",",ROUND(E10,2))-1)))*1&gt;=10^6,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E10,2), ",", ""))=LEN(ROUND(E10,2)),ROUND(E10,2),TRIM(LEFT(ROUND(E10,2),FIND(",",ROUND(E10,2))-1)))*1,7),1)+1,"","birmilyon","ikimilyon","üçmilyon","dörtmilyon","beşmilyon","altımilyon","yedimilyon","sekizmilyon","dokuzmilyon"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E10,2), ",", ""))=LEN(ROUND(E10,2)),ROUND(E10,2),TRIM(LEFT(ROUND(E10,2),FIND(",",ROUND(E10,2))-1)))*1&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E10,2), ",", ""))=LEN(ROUND(E10,2)),ROUND(E10,2),TRIM(LEFT(ROUND(E10,2),FIND(",",ROUND(E10,2))-1)))*1,6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E10,2), ",", ""))=LEN(ROUND(E10,2)),ROUND(E10,2),TRIM(LEFT(ROUND(E10,2),FIND(",",ROUND(E10,2))-1)))*1&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E10,2), ",", ""))=LEN(ROUND(E10,2)),ROUND(E10,2),TRIM(LEFT(ROUND(E10,2),FIND(",",ROUND(E10,2))-1)))*1,5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E10,2), ",", ""))=LEN(ROUND(E10,2)),ROUND(E10,2),TRIM(LEFT(ROUND(E10,2),FIND(",",ROUND(E10,2))-1)))*1&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E10,2), ",", ""))=LEN(ROUND(E10,2)),ROUND(E10,2),TRIM(LEFT(ROUND(E10,2),FIND(",",ROUND(E10,2))-1)))*1,4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(AND(IF(LEN(SUBSTITUTE(ROUND(E10,2), ",", ""))=LEN(ROUND(E10,2)),ROUND(E10,2),TRIM(LEFT(ROUND(E10,2),FIND(",",ROUND(E10,2))-1)))*1&gt;=10^3,VALUE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E10,2), ",", ""))=LEN(ROUND(E10,2)),ROUND(E10,2),TRIM(LEFT(ROUND(E10,2),FIND(",",ROUND(E10,2))-1)))*1,6),3))&gt;0),IF(AND(IF(LEN(SUBSTITUTE(ROUND(E10,2), ",", ""))=LEN(ROUND(E10,2)),ROUND(E10,2),TRIM(LEFT(ROUND(E10,2),FIND(",",ROUND(E10,2))-1)))*1&gt;1999,LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E10,2), ",", ""))=LEN(ROUND(E10,2)),ROUND(E10,2),TRIM(LEFT(ROUND(E10,2),FIND(",",ROUND(E10,2))-1)))*1,4),1)="1",LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E10,2), ",", ""))=LEN(ROUND(E10,2)),ROUND(E10,2),TRIM(LEFT(ROUND(E10,2),FIND(",",ROUND(E10,2))-1)))*1,6),2)&lt;&gt;"00"),"birbin","bin"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E10,2), ",", ""))=LEN(ROUND(E10,2)),ROUND(E10,2),TRIM(LEFT(ROUND(E10,2),FIND(",",ROUND(E10,2))-1)))*1&gt;=100,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E10,2), ",", ""))=LEN(ROUND(E10,2)),ROUND(E10,2),TRIM(LEFT(ROUND(E10,2),FIND(",",ROUND(E10,2))-1)))*1,3),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E10,2), ",", ""))=LEN(ROUND(E10,2)),ROUND(E10,2),TRIM(LEFT(ROUND(E10,2),FIND(",",ROUND(E10,2))-1)))*1&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E10,2), ",", ""))=LEN(ROUND(E10,2)),ROUND(E10,2),TRIM(LEFT(ROUND(E10,2),FIND(",",ROUND(E10,2))-1)))*1,2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(SUBSTITUTE(ROUND(E10,2), ",", ""))=LEN(ROUND(E10,2)),ROUND(E10,2),TRIM(LEFT(ROUND(E10,2),FIND(",",ROUND(E10,2))-1)))*1,10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " TL " &amp; IF(OR(LEN(SUBSTITUTE(E10, ",", ""))=LEN(E10),LEN(SUBSTITUTE(ROUND(E10,2), ",", ""))=LEN(ROUND(E10,2))),"", PROPER(IF(IF(LEN(TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2)))))&lt;2,TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2))))*10,TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2))))*1)&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2)))))&lt;2,TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2))))*10,TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2))))*1),6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2)))))&lt;2,TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2))))*10,TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2))))*1)&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2)))))&lt;2,TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2))))*10,TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2))))*1),5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2)))))&lt;2,TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2))))*10,TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2))))*1)&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2)))))&lt;2,TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2))))*10,TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2))))*1),4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2)))))&lt;2,TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2))))*10,TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2))))*1)&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2)))))&lt;2,TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2))))*10,TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2))))*1),2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2)))))&lt;2,TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2))))*10,TRIM(RIGHT(ROUND(E10,2),LEN(ROUND(E10,2))-FIND(",",ROUND(E10,2))))*1),10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " Kr")</f>
-        <v>TL</v>
-      </c>
-      <c r="H10" s="10" t="str">
-        <f aca="false">H9</f>
-        <v>Nakden</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>34</v>
+        <v>İkibin TL </v>
+      </c>
+      <c r="G10" s="10" t="str">
+        <f aca="false">G9</f>
+        <v>NAKDEN</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1454,20 +1889,25 @@
       <c r="B11" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20" t="str">
+      <c r="C11" s="17" t="n">
+        <v>44252</v>
+      </c>
+      <c r="D11" s="17" t="n">
+        <v>44530</v>
+      </c>
+      <c r="E11" s="20" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="19" t="str">
         <f aca="false">PROPER(IF(IF(LEN(SUBSTITUTE(ROUND(E11,2), ",", ""))=LEN(ROUND(E11,2)),ROUND(E11,2),TRIM(LEFT(ROUND(E11,2),FIND(",",ROUND(E11,2))-1)))*1&gt;=10^6,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E11,2), ",", ""))=LEN(ROUND(E11,2)),ROUND(E11,2),TRIM(LEFT(ROUND(E11,2),FIND(",",ROUND(E11,2))-1)))*1,7),1)+1,"","birmilyon","ikimilyon","üçmilyon","dörtmilyon","beşmilyon","altımilyon","yedimilyon","sekizmilyon","dokuzmilyon"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E11,2), ",", ""))=LEN(ROUND(E11,2)),ROUND(E11,2),TRIM(LEFT(ROUND(E11,2),FIND(",",ROUND(E11,2))-1)))*1&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E11,2), ",", ""))=LEN(ROUND(E11,2)),ROUND(E11,2),TRIM(LEFT(ROUND(E11,2),FIND(",",ROUND(E11,2))-1)))*1,6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E11,2), ",", ""))=LEN(ROUND(E11,2)),ROUND(E11,2),TRIM(LEFT(ROUND(E11,2),FIND(",",ROUND(E11,2))-1)))*1&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E11,2), ",", ""))=LEN(ROUND(E11,2)),ROUND(E11,2),TRIM(LEFT(ROUND(E11,2),FIND(",",ROUND(E11,2))-1)))*1,5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E11,2), ",", ""))=LEN(ROUND(E11,2)),ROUND(E11,2),TRIM(LEFT(ROUND(E11,2),FIND(",",ROUND(E11,2))-1)))*1&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E11,2), ",", ""))=LEN(ROUND(E11,2)),ROUND(E11,2),TRIM(LEFT(ROUND(E11,2),FIND(",",ROUND(E11,2))-1)))*1,4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(AND(IF(LEN(SUBSTITUTE(ROUND(E11,2), ",", ""))=LEN(ROUND(E11,2)),ROUND(E11,2),TRIM(LEFT(ROUND(E11,2),FIND(",",ROUND(E11,2))-1)))*1&gt;=10^3,VALUE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E11,2), ",", ""))=LEN(ROUND(E11,2)),ROUND(E11,2),TRIM(LEFT(ROUND(E11,2),FIND(",",ROUND(E11,2))-1)))*1,6),3))&gt;0),IF(AND(IF(LEN(SUBSTITUTE(ROUND(E11,2), ",", ""))=LEN(ROUND(E11,2)),ROUND(E11,2),TRIM(LEFT(ROUND(E11,2),FIND(",",ROUND(E11,2))-1)))*1&gt;1999,LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E11,2), ",", ""))=LEN(ROUND(E11,2)),ROUND(E11,2),TRIM(LEFT(ROUND(E11,2),FIND(",",ROUND(E11,2))-1)))*1,4),1)="1",LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E11,2), ",", ""))=LEN(ROUND(E11,2)),ROUND(E11,2),TRIM(LEFT(ROUND(E11,2),FIND(",",ROUND(E11,2))-1)))*1,6),2)&lt;&gt;"00"),"birbin","bin"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E11,2), ",", ""))=LEN(ROUND(E11,2)),ROUND(E11,2),TRIM(LEFT(ROUND(E11,2),FIND(",",ROUND(E11,2))-1)))*1&gt;=100,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E11,2), ",", ""))=LEN(ROUND(E11,2)),ROUND(E11,2),TRIM(LEFT(ROUND(E11,2),FIND(",",ROUND(E11,2))-1)))*1,3),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E11,2), ",", ""))=LEN(ROUND(E11,2)),ROUND(E11,2),TRIM(LEFT(ROUND(E11,2),FIND(",",ROUND(E11,2))-1)))*1&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E11,2), ",", ""))=LEN(ROUND(E11,2)),ROUND(E11,2),TRIM(LEFT(ROUND(E11,2),FIND(",",ROUND(E11,2))-1)))*1,2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(SUBSTITUTE(ROUND(E11,2), ",", ""))=LEN(ROUND(E11,2)),ROUND(E11,2),TRIM(LEFT(ROUND(E11,2),FIND(",",ROUND(E11,2))-1)))*1,10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " TL " &amp; IF(OR(LEN(SUBSTITUTE(E11, ",", ""))=LEN(E11),LEN(SUBSTITUTE(ROUND(E11,2), ",", ""))=LEN(ROUND(E11,2))),"", PROPER(IF(IF(LEN(TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2)))))&lt;2,TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2))))*10,TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2))))*1)&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2)))))&lt;2,TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2))))*10,TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2))))*1),6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2)))))&lt;2,TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2))))*10,TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2))))*1)&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2)))))&lt;2,TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2))))*10,TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2))))*1),5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2)))))&lt;2,TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2))))*10,TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2))))*1)&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2)))))&lt;2,TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2))))*10,TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2))))*1),4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2)))))&lt;2,TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2))))*10,TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2))))*1)&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2)))))&lt;2,TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2))))*10,TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2))))*1),2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2)))))&lt;2,TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2))))*10,TRIM(RIGHT(ROUND(E11,2),LEN(ROUND(E11,2))-FIND(",",ROUND(E11,2))))*1),10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " Kr")</f>
-        <v>TL</v>
-      </c>
-      <c r="H11" s="10" t="str">
-        <f aca="false">H10</f>
-        <v>Nakden</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>35</v>
+        <v>İkibin TL </v>
+      </c>
+      <c r="G11" s="10" t="str">
+        <f aca="false">G10</f>
+        <v>NAKDEN</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1475,20 +1915,25 @@
       <c r="B12" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20" t="str">
+      <c r="C12" s="17" t="n">
+        <v>44252</v>
+      </c>
+      <c r="D12" s="17" t="n">
+        <v>44560</v>
+      </c>
+      <c r="E12" s="20" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="19" t="str">
         <f aca="false">PROPER(IF(IF(LEN(SUBSTITUTE(ROUND(E12,2), ",", ""))=LEN(ROUND(E12,2)),ROUND(E12,2),TRIM(LEFT(ROUND(E12,2),FIND(",",ROUND(E12,2))-1)))*1&gt;=10^6,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E12,2), ",", ""))=LEN(ROUND(E12,2)),ROUND(E12,2),TRIM(LEFT(ROUND(E12,2),FIND(",",ROUND(E12,2))-1)))*1,7),1)+1,"","birmilyon","ikimilyon","üçmilyon","dörtmilyon","beşmilyon","altımilyon","yedimilyon","sekizmilyon","dokuzmilyon"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E12,2), ",", ""))=LEN(ROUND(E12,2)),ROUND(E12,2),TRIM(LEFT(ROUND(E12,2),FIND(",",ROUND(E12,2))-1)))*1&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E12,2), ",", ""))=LEN(ROUND(E12,2)),ROUND(E12,2),TRIM(LEFT(ROUND(E12,2),FIND(",",ROUND(E12,2))-1)))*1,6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E12,2), ",", ""))=LEN(ROUND(E12,2)),ROUND(E12,2),TRIM(LEFT(ROUND(E12,2),FIND(",",ROUND(E12,2))-1)))*1&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E12,2), ",", ""))=LEN(ROUND(E12,2)),ROUND(E12,2),TRIM(LEFT(ROUND(E12,2),FIND(",",ROUND(E12,2))-1)))*1,5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E12,2), ",", ""))=LEN(ROUND(E12,2)),ROUND(E12,2),TRIM(LEFT(ROUND(E12,2),FIND(",",ROUND(E12,2))-1)))*1&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E12,2), ",", ""))=LEN(ROUND(E12,2)),ROUND(E12,2),TRIM(LEFT(ROUND(E12,2),FIND(",",ROUND(E12,2))-1)))*1,4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(AND(IF(LEN(SUBSTITUTE(ROUND(E12,2), ",", ""))=LEN(ROUND(E12,2)),ROUND(E12,2),TRIM(LEFT(ROUND(E12,2),FIND(",",ROUND(E12,2))-1)))*1&gt;=10^3,VALUE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E12,2), ",", ""))=LEN(ROUND(E12,2)),ROUND(E12,2),TRIM(LEFT(ROUND(E12,2),FIND(",",ROUND(E12,2))-1)))*1,6),3))&gt;0),IF(AND(IF(LEN(SUBSTITUTE(ROUND(E12,2), ",", ""))=LEN(ROUND(E12,2)),ROUND(E12,2),TRIM(LEFT(ROUND(E12,2),FIND(",",ROUND(E12,2))-1)))*1&gt;1999,LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E12,2), ",", ""))=LEN(ROUND(E12,2)),ROUND(E12,2),TRIM(LEFT(ROUND(E12,2),FIND(",",ROUND(E12,2))-1)))*1,4),1)="1",LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E12,2), ",", ""))=LEN(ROUND(E12,2)),ROUND(E12,2),TRIM(LEFT(ROUND(E12,2),FIND(",",ROUND(E12,2))-1)))*1,6),2)&lt;&gt;"00"),"birbin","bin"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E12,2), ",", ""))=LEN(ROUND(E12,2)),ROUND(E12,2),TRIM(LEFT(ROUND(E12,2),FIND(",",ROUND(E12,2))-1)))*1&gt;=100,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E12,2), ",", ""))=LEN(ROUND(E12,2)),ROUND(E12,2),TRIM(LEFT(ROUND(E12,2),FIND(",",ROUND(E12,2))-1)))*1,3),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E12,2), ",", ""))=LEN(ROUND(E12,2)),ROUND(E12,2),TRIM(LEFT(ROUND(E12,2),FIND(",",ROUND(E12,2))-1)))*1&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E12,2), ",", ""))=LEN(ROUND(E12,2)),ROUND(E12,2),TRIM(LEFT(ROUND(E12,2),FIND(",",ROUND(E12,2))-1)))*1,2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(SUBSTITUTE(ROUND(E12,2), ",", ""))=LEN(ROUND(E12,2)),ROUND(E12,2),TRIM(LEFT(ROUND(E12,2),FIND(",",ROUND(E12,2))-1)))*1,10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " TL " &amp; IF(OR(LEN(SUBSTITUTE(E12, ",", ""))=LEN(E12),LEN(SUBSTITUTE(ROUND(E12,2), ",", ""))=LEN(ROUND(E12,2))),"", PROPER(IF(IF(LEN(TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2)))))&lt;2,TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2))))*10,TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2))))*1)&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2)))))&lt;2,TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2))))*10,TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2))))*1),6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2)))))&lt;2,TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2))))*10,TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2))))*1)&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2)))))&lt;2,TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2))))*10,TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2))))*1),5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2)))))&lt;2,TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2))))*10,TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2))))*1)&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2)))))&lt;2,TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2))))*10,TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2))))*1),4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2)))))&lt;2,TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2))))*10,TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2))))*1)&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2)))))&lt;2,TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2))))*10,TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2))))*1),2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2)))))&lt;2,TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2))))*10,TRIM(RIGHT(ROUND(E12,2),LEN(ROUND(E12,2))-FIND(",",ROUND(E12,2))))*1),10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " Kr")</f>
-        <v>TL</v>
-      </c>
-      <c r="H12" s="10" t="str">
-        <f aca="false">H11</f>
-        <v>Nakden</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>36</v>
+        <v>İkibin TL </v>
+      </c>
+      <c r="G12" s="10" t="str">
+        <f aca="false">G11</f>
+        <v>NAKDEN</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1496,20 +1941,25 @@
       <c r="B13" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20" t="str">
+      <c r="C13" s="17" t="n">
+        <v>44252</v>
+      </c>
+      <c r="D13" s="17" t="n">
+        <v>44591</v>
+      </c>
+      <c r="E13" s="20" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F13" s="19" t="str">
         <f aca="false">PROPER(IF(IF(LEN(SUBSTITUTE(ROUND(E13,2), ",", ""))=LEN(ROUND(E13,2)),ROUND(E13,2),TRIM(LEFT(ROUND(E13,2),FIND(",",ROUND(E13,2))-1)))*1&gt;=10^6,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E13,2), ",", ""))=LEN(ROUND(E13,2)),ROUND(E13,2),TRIM(LEFT(ROUND(E13,2),FIND(",",ROUND(E13,2))-1)))*1,7),1)+1,"","birmilyon","ikimilyon","üçmilyon","dörtmilyon","beşmilyon","altımilyon","yedimilyon","sekizmilyon","dokuzmilyon"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E13,2), ",", ""))=LEN(ROUND(E13,2)),ROUND(E13,2),TRIM(LEFT(ROUND(E13,2),FIND(",",ROUND(E13,2))-1)))*1&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E13,2), ",", ""))=LEN(ROUND(E13,2)),ROUND(E13,2),TRIM(LEFT(ROUND(E13,2),FIND(",",ROUND(E13,2))-1)))*1,6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E13,2), ",", ""))=LEN(ROUND(E13,2)),ROUND(E13,2),TRIM(LEFT(ROUND(E13,2),FIND(",",ROUND(E13,2))-1)))*1&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E13,2), ",", ""))=LEN(ROUND(E13,2)),ROUND(E13,2),TRIM(LEFT(ROUND(E13,2),FIND(",",ROUND(E13,2))-1)))*1,5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E13,2), ",", ""))=LEN(ROUND(E13,2)),ROUND(E13,2),TRIM(LEFT(ROUND(E13,2),FIND(",",ROUND(E13,2))-1)))*1&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E13,2), ",", ""))=LEN(ROUND(E13,2)),ROUND(E13,2),TRIM(LEFT(ROUND(E13,2),FIND(",",ROUND(E13,2))-1)))*1,4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(AND(IF(LEN(SUBSTITUTE(ROUND(E13,2), ",", ""))=LEN(ROUND(E13,2)),ROUND(E13,2),TRIM(LEFT(ROUND(E13,2),FIND(",",ROUND(E13,2))-1)))*1&gt;=10^3,VALUE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E13,2), ",", ""))=LEN(ROUND(E13,2)),ROUND(E13,2),TRIM(LEFT(ROUND(E13,2),FIND(",",ROUND(E13,2))-1)))*1,6),3))&gt;0),IF(AND(IF(LEN(SUBSTITUTE(ROUND(E13,2), ",", ""))=LEN(ROUND(E13,2)),ROUND(E13,2),TRIM(LEFT(ROUND(E13,2),FIND(",",ROUND(E13,2))-1)))*1&gt;1999,LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E13,2), ",", ""))=LEN(ROUND(E13,2)),ROUND(E13,2),TRIM(LEFT(ROUND(E13,2),FIND(",",ROUND(E13,2))-1)))*1,4),1)="1",LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E13,2), ",", ""))=LEN(ROUND(E13,2)),ROUND(E13,2),TRIM(LEFT(ROUND(E13,2),FIND(",",ROUND(E13,2))-1)))*1,6),2)&lt;&gt;"00"),"birbin","bin"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E13,2), ",", ""))=LEN(ROUND(E13,2)),ROUND(E13,2),TRIM(LEFT(ROUND(E13,2),FIND(",",ROUND(E13,2))-1)))*1&gt;=100,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E13,2), ",", ""))=LEN(ROUND(E13,2)),ROUND(E13,2),TRIM(LEFT(ROUND(E13,2),FIND(",",ROUND(E13,2))-1)))*1,3),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E13,2), ",", ""))=LEN(ROUND(E13,2)),ROUND(E13,2),TRIM(LEFT(ROUND(E13,2),FIND(",",ROUND(E13,2))-1)))*1&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E13,2), ",", ""))=LEN(ROUND(E13,2)),ROUND(E13,2),TRIM(LEFT(ROUND(E13,2),FIND(",",ROUND(E13,2))-1)))*1,2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(SUBSTITUTE(ROUND(E13,2), ",", ""))=LEN(ROUND(E13,2)),ROUND(E13,2),TRIM(LEFT(ROUND(E13,2),FIND(",",ROUND(E13,2))-1)))*1,10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " TL " &amp; IF(OR(LEN(SUBSTITUTE(E13, ",", ""))=LEN(E13),LEN(SUBSTITUTE(ROUND(E13,2), ",", ""))=LEN(ROUND(E13,2))),"", PROPER(IF(IF(LEN(TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2)))))&lt;2,TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2))))*10,TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2))))*1)&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2)))))&lt;2,TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2))))*10,TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2))))*1),6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2)))))&lt;2,TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2))))*10,TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2))))*1)&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2)))))&lt;2,TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2))))*10,TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2))))*1),5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2)))))&lt;2,TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2))))*10,TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2))))*1)&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2)))))&lt;2,TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2))))*10,TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2))))*1),4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2)))))&lt;2,TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2))))*10,TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2))))*1)&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2)))))&lt;2,TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2))))*10,TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2))))*1),2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2)))))&lt;2,TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2))))*10,TRIM(RIGHT(ROUND(E13,2),LEN(ROUND(E13,2))-FIND(",",ROUND(E13,2))))*1),10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " Kr")</f>
-        <v>TL</v>
-      </c>
-      <c r="H13" s="10" t="str">
-        <f aca="false">H12</f>
-        <v>Nakden</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>37</v>
+        <v>İkibin TL </v>
+      </c>
+      <c r="G13" s="10" t="str">
+        <f aca="false">G12</f>
+        <v>NAKDEN</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1517,45 +1967,47 @@
       <c r="B14" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20" t="str">
+      <c r="C14" s="17" t="n">
+        <v>44252</v>
+      </c>
+      <c r="D14" s="17" t="n">
+        <v>44620</v>
+      </c>
+      <c r="E14" s="20" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F14" s="19" t="str">
         <f aca="false">PROPER(IF(IF(LEN(SUBSTITUTE(ROUND(E14,2), ",", ""))=LEN(ROUND(E14,2)),ROUND(E14,2),TRIM(LEFT(ROUND(E14,2),FIND(",",ROUND(E14,2))-1)))*1&gt;=10^6,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E14,2), ",", ""))=LEN(ROUND(E14,2)),ROUND(E14,2),TRIM(LEFT(ROUND(E14,2),FIND(",",ROUND(E14,2))-1)))*1,7),1)+1,"","birmilyon","ikimilyon","üçmilyon","dörtmilyon","beşmilyon","altımilyon","yedimilyon","sekizmilyon","dokuzmilyon"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E14,2), ",", ""))=LEN(ROUND(E14,2)),ROUND(E14,2),TRIM(LEFT(ROUND(E14,2),FIND(",",ROUND(E14,2))-1)))*1&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E14,2), ",", ""))=LEN(ROUND(E14,2)),ROUND(E14,2),TRIM(LEFT(ROUND(E14,2),FIND(",",ROUND(E14,2))-1)))*1,6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E14,2), ",", ""))=LEN(ROUND(E14,2)),ROUND(E14,2),TRIM(LEFT(ROUND(E14,2),FIND(",",ROUND(E14,2))-1)))*1&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E14,2), ",", ""))=LEN(ROUND(E14,2)),ROUND(E14,2),TRIM(LEFT(ROUND(E14,2),FIND(",",ROUND(E14,2))-1)))*1,5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E14,2), ",", ""))=LEN(ROUND(E14,2)),ROUND(E14,2),TRIM(LEFT(ROUND(E14,2),FIND(",",ROUND(E14,2))-1)))*1&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E14,2), ",", ""))=LEN(ROUND(E14,2)),ROUND(E14,2),TRIM(LEFT(ROUND(E14,2),FIND(",",ROUND(E14,2))-1)))*1,4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(AND(IF(LEN(SUBSTITUTE(ROUND(E14,2), ",", ""))=LEN(ROUND(E14,2)),ROUND(E14,2),TRIM(LEFT(ROUND(E14,2),FIND(",",ROUND(E14,2))-1)))*1&gt;=10^3,VALUE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E14,2), ",", ""))=LEN(ROUND(E14,2)),ROUND(E14,2),TRIM(LEFT(ROUND(E14,2),FIND(",",ROUND(E14,2))-1)))*1,6),3))&gt;0),IF(AND(IF(LEN(SUBSTITUTE(ROUND(E14,2), ",", ""))=LEN(ROUND(E14,2)),ROUND(E14,2),TRIM(LEFT(ROUND(E14,2),FIND(",",ROUND(E14,2))-1)))*1&gt;1999,LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E14,2), ",", ""))=LEN(ROUND(E14,2)),ROUND(E14,2),TRIM(LEFT(ROUND(E14,2),FIND(",",ROUND(E14,2))-1)))*1,4),1)="1",LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E14,2), ",", ""))=LEN(ROUND(E14,2)),ROUND(E14,2),TRIM(LEFT(ROUND(E14,2),FIND(",",ROUND(E14,2))-1)))*1,6),2)&lt;&gt;"00"),"birbin","bin"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E14,2), ",", ""))=LEN(ROUND(E14,2)),ROUND(E14,2),TRIM(LEFT(ROUND(E14,2),FIND(",",ROUND(E14,2))-1)))*1&gt;=100,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E14,2), ",", ""))=LEN(ROUND(E14,2)),ROUND(E14,2),TRIM(LEFT(ROUND(E14,2),FIND(",",ROUND(E14,2))-1)))*1,3),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E14,2), ",", ""))=LEN(ROUND(E14,2)),ROUND(E14,2),TRIM(LEFT(ROUND(E14,2),FIND(",",ROUND(E14,2))-1)))*1&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E14,2), ",", ""))=LEN(ROUND(E14,2)),ROUND(E14,2),TRIM(LEFT(ROUND(E14,2),FIND(",",ROUND(E14,2))-1)))*1,2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(SUBSTITUTE(ROUND(E14,2), ",", ""))=LEN(ROUND(E14,2)),ROUND(E14,2),TRIM(LEFT(ROUND(E14,2),FIND(",",ROUND(E14,2))-1)))*1,10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " TL " &amp; IF(OR(LEN(SUBSTITUTE(E14, ",", ""))=LEN(E14),LEN(SUBSTITUTE(ROUND(E14,2), ",", ""))=LEN(ROUND(E14,2))),"", PROPER(IF(IF(LEN(TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2)))))&lt;2,TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2))))*10,TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2))))*1)&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2)))))&lt;2,TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2))))*10,TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2))))*1),6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2)))))&lt;2,TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2))))*10,TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2))))*1)&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2)))))&lt;2,TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2))))*10,TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2))))*1),5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2)))))&lt;2,TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2))))*10,TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2))))*1)&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2)))))&lt;2,TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2))))*10,TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2))))*1),4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2)))))&lt;2,TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2))))*10,TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2))))*1)&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2)))))&lt;2,TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2))))*10,TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2))))*1),2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2)))))&lt;2,TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2))))*10,TRIM(RIGHT(ROUND(E14,2),LEN(ROUND(E14,2))-FIND(",",ROUND(E14,2))))*1),10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " Kr")</f>
-        <v>TL</v>
-      </c>
-      <c r="H14" s="10" t="str">
-        <f aca="false">H13</f>
-        <v>Nakden</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>38</v>
+        <v>İkibin TL </v>
+      </c>
+      <c r="G14" s="10" t="str">
+        <f aca="false">G13</f>
+        <v>NAKDEN</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="12"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="12"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="22"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="12"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16"/>
@@ -1563,15 +2015,13 @@
       <c r="C18" s="14"/>
       <c r="D18" s="12"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="22"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="12"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
@@ -1579,7 +2029,6 @@
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
@@ -1587,7 +2036,6 @@
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
@@ -1595,7 +2043,6 @@
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1604,12 +2051,8 @@
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C11" type="list">
-      <formula1>"Gerçek Kişi,Tüzel Kişi"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3" type="list">
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G3" type="list">
       <formula1>"Malen,Nakden"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1629,95 +2072,93 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:P104"/>
+  <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A85" activeCellId="0" sqref="A85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G181" activeCellId="0" sqref="G181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="23.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="1.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="3.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="1.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="21.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="23" width="4.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="27.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="23" width="6.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="23" width="21.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="23" width="5.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="23" width="15.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="23" width="7.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="23" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="23" width="7.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="23" width="35.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="23" width="1.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="17" style="23" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="1.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="3.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="1.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="21.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="22" width="27.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="22" width="6.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="22" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="22" width="25.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="22" width="10.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="22" width="7.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="22" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="22" width="2.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="22" width="28.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="22" width="1.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="17" style="22" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="27"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="26"/>
     </row>
     <row r="2" s="34" customFormat="true" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="30" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="30" t="str">
+        <f aca="false">$D9 &amp;"    - Taksit No: " &amp; $D4&amp;"  "</f>
+        <v>Bursa Fabrika Satış Mağazası – Adem Duman    - Taksit No: # 1 #  </v>
+      </c>
+      <c r="F2" s="27"/>
+      <c r="G2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="31" t="str">
-        <f aca="false">$D9 &amp;"    - Taksit No: " &amp; $D4&amp;"  "</f>
-        <v>BURSA    - Taksit No: # 1 #</v>
-      </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="32" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="32" t="s">
+      <c r="K2" s="0"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="0"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="31" t="s">
         <v>19</v>
       </c>
       <c r="P2" s="33"/>
     </row>
     <row r="3" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="35"/>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="24"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="38" t="n">
         <f aca="false">D17</f>
         <v>44285</v>
@@ -1727,17 +2168,17 @@
         <f aca="false">D6</f>
         <v># 2.000 TL #</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="41" t="str">
+      <c r="J3" s="41" t="str">
         <f aca="false">D7</f>
         <v>#   Krş #</v>
       </c>
+      <c r="K3" s="0"/>
       <c r="L3" s="39"/>
       <c r="M3" s="42" t="str">
         <f aca="false">D4</f>
         <v># 1 #</v>
       </c>
-      <c r="N3" s="0"/>
+      <c r="N3" s="32"/>
       <c r="O3" s="43" t="n">
         <f aca="false">D19</f>
         <v>44252</v>
@@ -1745,37 +2186,37 @@
       <c r="P3" s="44"/>
     </row>
     <row r="4" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="35"/>
       <c r="C4" s="36"/>
       <c r="D4" s="45" t="str">
         <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!B3),"##.##0")&amp;" #"</f>
         <v># 1 #</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
       <c r="P4" s="44"/>
     </row>
     <row r="5" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
       <c r="D5" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="31"/>
+        <v>44</v>
+      </c>
+      <c r="E5" s="30"/>
       <c r="F5" s="47" t="str">
-        <f aca="false">"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G3,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!G3&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!H3&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
-        <v>   İş bu emre muharrer senedimizin mükabilinde 30 Mart 2021 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # İkibin TL  # ödeyeceğiz. Bedeli Nakden ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eyleriz.</v>
+        <f aca="false">"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G3,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F3&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G3&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
+        <v>   İş bu emre muharrer senedimizin mükabilinde 30 Mart 2021 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # İkibin TL # ödeyeceğiz. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eyleriz.</v>
       </c>
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
@@ -1789,16 +2230,14 @@
       <c r="P5" s="44"/>
     </row>
     <row r="6" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="36" t="s">
-        <v>43</v>
-      </c>
+      <c r="C6" s="36"/>
       <c r="D6" s="48" t="str">
         <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!E3),"##.##0")&amp;" TL #"</f>
         <v># 2.000 TL #</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
       <c r="H6" s="47"/>
@@ -1812,14 +2251,14 @@
       <c r="P6" s="44"/>
     </row>
     <row r="7" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="24"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="49" t="str">
         <f aca="false">"# "&amp;TEXT(('Senet Taksit Giriş'!E3-INT('Senet Taksit Giriş'!E3))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
       <c r="H7" s="47"/>
@@ -1833,13 +2272,13 @@
       <c r="P7" s="44"/>
     </row>
     <row r="8" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="35"/>
-      <c r="C8" s="24"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="31"/>
+        <v>45</v>
+      </c>
+      <c r="E8" s="30"/>
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
       <c r="H8" s="47"/>
@@ -1853,351 +2292,344 @@
       <c r="P8" s="44"/>
     </row>
     <row r="9" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="51"/>
-      <c r="C9" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="54" t="str">
-        <f aca="false">"İsim Unvan : "&amp;$D9</f>
-        <v>İsim Unvan : BURSA</v>
-      </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="27"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="52" t="str">
+        <f aca="false">'Senet Borçlu Alacaklı Giriş'!C5</f>
+        <v>Bursa Fabrika Satış Mağazası – Adem Duman</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
       <c r="P9" s="44"/>
     </row>
     <row r="10" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="35"/>
-      <c r="C10" s="24"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="52"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="56" t="str">
+      <c r="E10" s="30"/>
+      <c r="F10" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="54" t="str">
+        <f aca="false">"İsim : "&amp;$D9</f>
+        <v>İsim : Bursa Fabrika Satış Mağazası – Adem Duman</v>
+      </c>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="44"/>
+    </row>
+    <row r="11" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="23"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="57" t="str">
         <f aca="false">"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-    </row>
-    <row r="11" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="36"/>
-      <c r="N11" s="59"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
       <c r="O11" s="44"/>
       <c r="P11" s="44"/>
     </row>
     <row r="12" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="52"/>
-      <c r="E12" s="31"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="53"/>
-      <c r="G12" s="60" t="str">
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="36"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+    </row>
+    <row r="13" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="23"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="58" t="str">
         <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-    </row>
-    <row r="13" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="61" t="str">
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+    </row>
+    <row r="14" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="23"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="59" t="str">
         <f aca="false">"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
-        <v>Vergi No / TC Kimlik No :</v>
-      </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="44"/>
-    </row>
-    <row r="14" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
+        <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
+      </c>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="61"/>
       <c r="P14" s="44"/>
     </row>
     <row r="15" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="51"/>
-      <c r="C15" s="24" t="s">
-        <v>43</v>
-      </c>
+      <c r="C15" s="23"/>
       <c r="D15" s="52"/>
-      <c r="E15" s="31"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="54" t="str">
+        <v>15</v>
+      </c>
+      <c r="G15" s="62" t="str">
         <f aca="false">"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="27"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="26"/>
       <c r="P15" s="44"/>
     </row>
     <row r="16" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="35"/>
-      <c r="C16" s="24"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="31"/>
+        <v>48</v>
+      </c>
+      <c r="E16" s="30"/>
       <c r="F16" s="53"/>
-      <c r="G16" s="56" t="str">
+      <c r="G16" s="57" t="str">
         <f aca="false">"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
       <c r="O16" s="44"/>
       <c r="P16" s="44"/>
     </row>
     <row r="17" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="51"/>
-      <c r="C17" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="65" t="n">
+      <c r="C17" s="23"/>
+      <c r="D17" s="64" t="n">
         <f aca="false">'Senet Taksit Giriş'!D3</f>
         <v>44285</v>
       </c>
-      <c r="E17" s="31"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="53"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="24"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="23"/>
       <c r="L17" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
+        <v>47</v>
+      </c>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
       <c r="O17" s="44"/>
       <c r="P17" s="44"/>
     </row>
     <row r="18" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="35"/>
-      <c r="C18" s="24"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="31"/>
+        <v>49</v>
+      </c>
+      <c r="E18" s="30"/>
       <c r="F18" s="53"/>
-      <c r="G18" s="60" t="str">
+      <c r="G18" s="58" t="str">
         <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
       <c r="O18" s="44"/>
       <c r="P18" s="44"/>
     </row>
     <row r="19" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="35"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="65" t="n">
+      <c r="C19" s="23"/>
+      <c r="D19" s="64" t="n">
         <f aca="false">'Senet Taksit Giriş'!C3</f>
         <v>44252</v>
       </c>
-      <c r="E19" s="31"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="53"/>
-      <c r="G19" s="61" t="str">
+      <c r="G19" s="59" t="str">
         <f aca="false">"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="63"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
       <c r="P19" s="44"/>
     </row>
     <row r="20" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="63"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="61"/>
     </row>
     <row r="21" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="27"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="26"/>
     </row>
     <row r="23" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="30" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="30" t="str">
+        <f aca="false">$D30 &amp;"    - Taksit No: " &amp; $D25&amp;"  "</f>
+        <v>Bursa Fabrika Satış Mağazası – Adem Duman    - Taksit No: # 2 #  </v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="31" t="str">
-        <f aca="false">$D30 &amp;"    - Taksit No: " &amp; $D25&amp;"  "</f>
-        <v>BURSA    - Taksit No: # 2 #  </v>
-      </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="32" t="s">
+      <c r="H23" s="27"/>
+      <c r="I23" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="32" t="s">
+      <c r="J23" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J23" s="28"/>
-      <c r="K23" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="28"/>
-      <c r="M23" s="32" t="s">
+      <c r="K23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="N23" s="0"/>
-      <c r="O23" s="32" t="s">
+      <c r="L23" s="27"/>
+      <c r="M23" s="0"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="31" t="s">
         <v>19</v>
       </c>
       <c r="P23" s="33"/>
     </row>
     <row r="24" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="35"/>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="24"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="38" t="n">
         <f aca="false">D38</f>
         <v>44316</v>
@@ -2207,17 +2639,17 @@
         <f aca="false">D27</f>
         <v># 2.000 TL #</v>
       </c>
-      <c r="J24" s="39"/>
-      <c r="K24" s="41" t="str">
+      <c r="J24" s="41" t="str">
         <f aca="false">D28</f>
         <v>#   Krş #</v>
       </c>
-      <c r="L24" s="39"/>
-      <c r="M24" s="42" t="str">
+      <c r="K24" s="42" t="str">
         <f aca="false">D25</f>
         <v># 2 #</v>
       </c>
-      <c r="N24" s="0"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="0"/>
+      <c r="N24" s="32"/>
       <c r="O24" s="43" t="n">
         <f aca="false">D40</f>
         <v>44252</v>
@@ -2225,37 +2657,37 @@
       <c r="P24" s="44"/>
     </row>
     <row r="25" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="45" t="str">
         <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!B4),"##.##0")&amp;" #"</f>
         <v># 2 #</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
       <c r="P25" s="44"/>
     </row>
     <row r="26" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="31"/>
+        <v>44</v>
+      </c>
+      <c r="E26" s="30"/>
       <c r="F26" s="47" t="str">
-        <f aca="false">"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G24,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!G4&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!H4&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
-        <v>   İş bu emre muharrer senedimizin mükabilinde 30 Nisan 2021 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # İkibin TL # ödeyeceğiz. Bedeli Nakden ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eyleriz.</v>
+        <f aca="false">"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G24,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F4&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G4&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
+        <v>   İş bu emre muharrer senedimizin mükabilinde 30 Nisan 2021 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # İkibin TL # ödeyeceğiz. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eyleriz.</v>
       </c>
       <c r="G26" s="47"/>
       <c r="H26" s="47"/>
@@ -2269,16 +2701,14 @@
       <c r="P26" s="44"/>
     </row>
     <row r="27" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="35"/>
-      <c r="C27" s="36" t="s">
-        <v>43</v>
-      </c>
+      <c r="C27" s="36"/>
       <c r="D27" s="48" t="str">
         <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!E4),"##.##0")&amp;" TL #"</f>
         <v># 2.000 TL #</v>
       </c>
-      <c r="E27" s="31"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="47"/>
       <c r="G27" s="47"/>
       <c r="H27" s="47"/>
@@ -2292,14 +2722,14 @@
       <c r="P27" s="44"/>
     </row>
     <row r="28" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="35"/>
-      <c r="C28" s="24"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="49" t="str">
         <f aca="false">"# "&amp;TEXT(('Senet Taksit Giriş'!E24-INT('Senet Taksit Giriş'!E24))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E28" s="31"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="47"/>
       <c r="G28" s="47"/>
       <c r="H28" s="47"/>
@@ -2313,13 +2743,13 @@
       <c r="P28" s="44"/>
     </row>
     <row r="29" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="35"/>
-      <c r="C29" s="24"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="31"/>
+        <v>45</v>
+      </c>
+      <c r="E29" s="30"/>
       <c r="F29" s="47"/>
       <c r="G29" s="47"/>
       <c r="H29" s="47"/>
@@ -2333,333 +2763,326 @@
       <c r="P29" s="44"/>
     </row>
     <row r="30" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="51"/>
-      <c r="C30" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="54" t="str">
-        <f aca="false">"İsim Unvan : "&amp;$D30</f>
-        <v>İsim Unvan : BURSA</v>
-      </c>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="27"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="52" t="str">
+        <f aca="false">$D$9</f>
+        <v>Bursa Fabrika Satış Mağazası – Adem Duman</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
       <c r="P30" s="44"/>
     </row>
     <row r="31" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="35"/>
-      <c r="C31" s="24"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="52"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="56" t="str">
+      <c r="E31" s="30"/>
+      <c r="F31" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="62" t="str">
+        <f aca="false">"İsim : "&amp;$D30</f>
+        <v>İsim : Bursa Fabrika Satış Mağazası – Adem Duman</v>
+      </c>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="44"/>
+    </row>
+    <row r="32" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="23"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="57" t="str">
         <f aca="false">"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-    </row>
-    <row r="32" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="M32" s="36"/>
-      <c r="N32" s="59"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
       <c r="O32" s="44"/>
       <c r="P32" s="44"/>
     </row>
     <row r="33" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="58"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="52"/>
-      <c r="E33" s="31"/>
+      <c r="E33" s="30"/>
       <c r="F33" s="53"/>
-      <c r="G33" s="60" t="str">
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M33" s="36"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+    </row>
+    <row r="34" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="23"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="58" t="str">
         <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-    </row>
-    <row r="34" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="61" t="str">
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+    </row>
+    <row r="35" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="23"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="59" t="str">
         <f aca="false">"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
-        <v>Vergi No / TC Kimlik No : </v>
-      </c>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="44"/>
-    </row>
-    <row r="35" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
+        <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
+      </c>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="61"/>
       <c r="P35" s="44"/>
     </row>
     <row r="36" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="51"/>
-      <c r="C36" s="24" t="s">
-        <v>43</v>
-      </c>
+      <c r="C36" s="23"/>
       <c r="D36" s="52"/>
-      <c r="E36" s="31"/>
+      <c r="E36" s="30"/>
       <c r="F36" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="54" t="str">
+        <v>15</v>
+      </c>
+      <c r="G36" s="62" t="str">
         <f aca="false">"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="27"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="26"/>
       <c r="P36" s="44"/>
     </row>
     <row r="37" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="24"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="35"/>
-      <c r="C37" s="24"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="31"/>
+        <v>48</v>
+      </c>
+      <c r="E37" s="30"/>
       <c r="F37" s="53"/>
-      <c r="G37" s="56" t="str">
+      <c r="G37" s="57" t="str">
         <f aca="false">"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
       <c r="O37" s="44"/>
       <c r="P37" s="44"/>
     </row>
     <row r="38" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="24"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="51"/>
-      <c r="C38" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="65" t="n">
+      <c r="C38" s="23"/>
+      <c r="D38" s="64" t="n">
         <f aca="false">'Senet Taksit Giriş'!D4</f>
         <v>44316</v>
       </c>
-      <c r="E38" s="31"/>
+      <c r="E38" s="30"/>
       <c r="F38" s="53"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="24"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="23"/>
       <c r="L38" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
+        <v>47</v>
+      </c>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
       <c r="O38" s="44"/>
       <c r="P38" s="44"/>
     </row>
     <row r="39" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="24"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="35"/>
-      <c r="C39" s="24"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="31"/>
+        <v>49</v>
+      </c>
+      <c r="E39" s="30"/>
       <c r="F39" s="53"/>
-      <c r="G39" s="60" t="str">
+      <c r="G39" s="58" t="str">
         <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
       <c r="O39" s="44"/>
       <c r="P39" s="44"/>
     </row>
     <row r="40" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="24"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="35"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="65" t="n">
+      <c r="C40" s="23"/>
+      <c r="D40" s="64" t="n">
         <f aca="false">'Senet Taksit Giriş'!C4</f>
         <v>44252</v>
       </c>
-      <c r="E40" s="31"/>
+      <c r="E40" s="30"/>
       <c r="F40" s="53"/>
-      <c r="G40" s="61" t="str">
+      <c r="G40" s="59" t="str">
         <f aca="false">"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="63"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="61"/>
       <c r="P40" s="44"/>
     </row>
     <row r="41" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="24"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="63"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="61"/>
     </row>
     <row r="43" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="24"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="27"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="26"/>
     </row>
     <row r="44" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="28"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="30" t="s">
+      <c r="A44" s="27"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="30" t="str">
+        <f aca="false">$D51 &amp;"    - Taksit No: " &amp; $D46&amp;"  "</f>
+        <v>Bursa Fabrika Satış Mağazası – Adem Duman    - Taksit No: # 3 #  </v>
+      </c>
+      <c r="F44" s="27"/>
+      <c r="G44" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="31" t="str">
-        <f aca="false">$D51 &amp;"    - Taksit No: " &amp; $D46&amp;"  "</f>
-        <v>BURSA    - Taksit No: # 3 #  </v>
-      </c>
-      <c r="F44" s="28"/>
-      <c r="G44" s="32" t="s">
+      <c r="H44" s="27"/>
+      <c r="I44" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="H44" s="28"/>
-      <c r="I44" s="32" t="s">
+      <c r="J44" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J44" s="28"/>
-      <c r="K44" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="L44" s="28"/>
-      <c r="M44" s="32" t="s">
+      <c r="K44" s="0"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="N44" s="0"/>
-      <c r="O44" s="32" t="s">
+      <c r="N44" s="32"/>
+      <c r="O44" s="31" t="s">
         <v>19</v>
       </c>
       <c r="P44" s="33"/>
     </row>
     <row r="45" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="24"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="35"/>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="36"/>
+      <c r="D45" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="24"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="23"/>
       <c r="G45" s="38" t="n">
         <f aca="false">D59</f>
         <v>44346</v>
@@ -2669,17 +3092,17 @@
         <f aca="false">D48</f>
         <v># 2.000 TL #</v>
       </c>
-      <c r="J45" s="39"/>
-      <c r="K45" s="41" t="str">
+      <c r="J45" s="41" t="str">
         <f aca="false">D49</f>
         <v>#   Krş #</v>
       </c>
+      <c r="K45" s="0"/>
       <c r="L45" s="39"/>
       <c r="M45" s="42" t="str">
         <f aca="false">D46</f>
         <v># 3 #</v>
       </c>
-      <c r="N45" s="0"/>
+      <c r="N45" s="32"/>
       <c r="O45" s="43" t="n">
         <f aca="false">D61</f>
         <v>44252</v>
@@ -2687,37 +3110,37 @@
       <c r="P45" s="44"/>
     </row>
     <row r="46" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="24"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="35"/>
       <c r="C46" s="36"/>
       <c r="D46" s="45" t="str">
         <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!B5),"##.##0")&amp;" #"</f>
         <v># 3 #</v>
       </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
       <c r="P46" s="44"/>
     </row>
     <row r="47" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="24"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="35"/>
       <c r="C47" s="36"/>
       <c r="D47" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47" s="31"/>
+        <v>44</v>
+      </c>
+      <c r="E47" s="30"/>
       <c r="F47" s="47" t="str">
-        <f aca="false">"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G45,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!G5&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!H5&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
-        <v>   İş bu emre muharrer senedimizin mükabilinde 30 Mayıs 2021 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # İkibin TL # ödeyeceğiz. Bedeli Nakden ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eyleriz.</v>
+        <f aca="false">"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G45,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F5&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G5&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
+        <v>   İş bu emre muharrer senedimizin mükabilinde 30 Mayıs 2021 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # İkibin TL # ödeyeceğiz. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eyleriz.</v>
       </c>
       <c r="G47" s="47"/>
       <c r="H47" s="47"/>
@@ -2731,16 +3154,14 @@
       <c r="P47" s="44"/>
     </row>
     <row r="48" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="24"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="35"/>
-      <c r="C48" s="36" t="s">
-        <v>43</v>
-      </c>
+      <c r="C48" s="36"/>
       <c r="D48" s="48" t="str">
         <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!E5),"##.##0")&amp;" TL #"</f>
         <v># 2.000 TL #</v>
       </c>
-      <c r="E48" s="31"/>
+      <c r="E48" s="30"/>
       <c r="F48" s="47"/>
       <c r="G48" s="47"/>
       <c r="H48" s="47"/>
@@ -2754,14 +3175,14 @@
       <c r="P48" s="44"/>
     </row>
     <row r="49" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="24"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="35"/>
-      <c r="C49" s="24"/>
+      <c r="C49" s="23"/>
       <c r="D49" s="49" t="str">
         <f aca="false">"# "&amp;TEXT(('Senet Taksit Giriş'!E46-INT('Senet Taksit Giriş'!E46))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E49" s="31"/>
+      <c r="E49" s="30"/>
       <c r="F49" s="47"/>
       <c r="G49" s="47"/>
       <c r="H49" s="47"/>
@@ -2775,13 +3196,13 @@
       <c r="P49" s="44"/>
     </row>
     <row r="50" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="24"/>
+      <c r="A50" s="23"/>
       <c r="B50" s="35"/>
-      <c r="C50" s="24"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="31"/>
+        <v>45</v>
+      </c>
+      <c r="E50" s="30"/>
       <c r="F50" s="47"/>
       <c r="G50" s="47"/>
       <c r="H50" s="47"/>
@@ -2795,392 +3216,406 @@
       <c r="P50" s="44"/>
     </row>
     <row r="51" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="24"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="51"/>
-      <c r="C51" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="31"/>
-      <c r="F51" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="G51" s="54" t="str">
-        <f aca="false">"İsim Unvan : "&amp;$D51</f>
-        <v>İsim Unvan : BURSA</v>
-      </c>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="55"/>
-      <c r="N51" s="55"/>
-      <c r="O51" s="27"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="52" t="str">
+        <f aca="false">$D$9</f>
+        <v>Bursa Fabrika Satış Mağazası – Adem Duman</v>
+      </c>
+      <c r="E51" s="30"/>
+      <c r="F51" s="0"/>
+      <c r="G51" s="0"/>
+      <c r="H51" s="0"/>
+      <c r="I51" s="0"/>
+      <c r="J51" s="0"/>
+      <c r="K51" s="0"/>
+      <c r="L51" s="0"/>
+      <c r="M51" s="0"/>
+      <c r="N51" s="0"/>
+      <c r="O51" s="0"/>
       <c r="P51" s="44"/>
     </row>
     <row r="52" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="24"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="35"/>
-      <c r="C52" s="24"/>
+      <c r="C52" s="23"/>
       <c r="D52" s="52"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="56" t="str">
+      <c r="E52" s="30"/>
+      <c r="F52" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52" s="62" t="str">
+        <f aca="false">"İsim : "&amp;$D51</f>
+        <v>İsim : Bursa Fabrika Satış Mağazası – Adem Duman</v>
+      </c>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="66"/>
+      <c r="N52" s="66"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="44"/>
+    </row>
+    <row r="53" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="23"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="57" t="str">
         <f aca="false">"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="44"/>
-      <c r="P52" s="44"/>
-    </row>
-    <row r="53" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="24"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="M53" s="36"/>
-      <c r="N53" s="59"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
       <c r="O53" s="44"/>
       <c r="P53" s="44"/>
     </row>
     <row r="54" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="24"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="58"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="56"/>
       <c r="D54" s="52"/>
-      <c r="E54" s="31"/>
+      <c r="E54" s="30"/>
       <c r="F54" s="53"/>
-      <c r="G54" s="60" t="str">
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M54" s="36"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
+    </row>
+    <row r="55" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="23"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="58" t="str">
         <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="44"/>
-      <c r="P54" s="44"/>
-    </row>
-    <row r="55" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="24"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="61" t="str">
+      <c r="H55" s="58"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+    </row>
+    <row r="56" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="23"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="59" t="str">
         <f aca="false">"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
-        <v>Vergi No / TC Kimlik No : </v>
-      </c>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="62"/>
-      <c r="O55" s="63"/>
-      <c r="P55" s="44"/>
-    </row>
-    <row r="56" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="24"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
+        <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
+      </c>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="60"/>
+      <c r="L56" s="60"/>
+      <c r="M56" s="60"/>
+      <c r="N56" s="60"/>
+      <c r="O56" s="61"/>
       <c r="P56" s="44"/>
     </row>
     <row r="57" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="24"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="51"/>
-      <c r="C57" s="24" t="s">
-        <v>43</v>
-      </c>
+      <c r="C57" s="23"/>
       <c r="D57" s="52"/>
-      <c r="E57" s="31"/>
+      <c r="E57" s="30"/>
       <c r="F57" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="54" t="str">
+        <v>15</v>
+      </c>
+      <c r="G57" s="62" t="str">
         <f aca="false">"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="64"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="27"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="26"/>
       <c r="P57" s="44"/>
     </row>
     <row r="58" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="24"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="35"/>
-      <c r="C58" s="24"/>
+      <c r="C58" s="23"/>
       <c r="D58" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="E58" s="31"/>
+        <v>48</v>
+      </c>
+      <c r="E58" s="30"/>
       <c r="F58" s="53"/>
-      <c r="G58" s="56" t="str">
+      <c r="G58" s="57" t="str">
         <f aca="false">"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
       <c r="O58" s="44"/>
       <c r="P58" s="44"/>
     </row>
     <row r="59" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="24"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="51"/>
-      <c r="C59" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D59" s="65" t="n">
+      <c r="C59" s="23"/>
+      <c r="D59" s="64" t="n">
         <f aca="false">'Senet Taksit Giriş'!D5</f>
         <v>44346</v>
       </c>
-      <c r="E59" s="31"/>
+      <c r="E59" s="30"/>
       <c r="F59" s="53"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="56"/>
-      <c r="K59" s="24"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="23"/>
       <c r="L59" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="M59" s="24"/>
-      <c r="N59" s="24"/>
+        <v>47</v>
+      </c>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
       <c r="O59" s="44"/>
       <c r="P59" s="44"/>
     </row>
     <row r="60" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="24"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="35"/>
-      <c r="C60" s="24"/>
+      <c r="C60" s="23"/>
       <c r="D60" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="E60" s="31"/>
+        <v>49</v>
+      </c>
+      <c r="E60" s="30"/>
       <c r="F60" s="53"/>
-      <c r="G60" s="60" t="str">
+      <c r="G60" s="58" t="str">
         <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H60" s="60"/>
-      <c r="I60" s="60"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="24"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
       <c r="O60" s="44"/>
       <c r="P60" s="44"/>
     </row>
     <row r="61" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="24"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="35"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="65" t="n">
+      <c r="C61" s="23"/>
+      <c r="D61" s="64" t="n">
         <f aca="false">'Senet Taksit Giriş'!C5</f>
         <v>44252</v>
       </c>
-      <c r="E61" s="31"/>
+      <c r="E61" s="30"/>
       <c r="F61" s="53"/>
-      <c r="G61" s="61" t="str">
+      <c r="G61" s="59" t="str">
         <f aca="false">"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="62"/>
-      <c r="L61" s="62"/>
-      <c r="M61" s="62"/>
-      <c r="N61" s="62"/>
-      <c r="O61" s="63"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="61"/>
       <c r="P61" s="44"/>
     </row>
     <row r="62" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="24"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="62"/>
-      <c r="H62" s="62"/>
-      <c r="I62" s="62"/>
-      <c r="J62" s="62"/>
-      <c r="K62" s="62"/>
-      <c r="L62" s="62"/>
-      <c r="M62" s="62"/>
-      <c r="N62" s="62"/>
-      <c r="O62" s="62"/>
-      <c r="P62" s="63"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="60"/>
+      <c r="K62" s="60"/>
+      <c r="L62" s="60"/>
+      <c r="M62" s="60"/>
+      <c r="N62" s="60"/>
+      <c r="O62" s="60"/>
+      <c r="P62" s="61"/>
+    </row>
+    <row r="63" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="23"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
+      <c r="P63" s="26"/>
     </row>
     <row r="64" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="24"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="26"/>
-      <c r="P64" s="27"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="30" t="str">
+        <f aca="false">$D71 &amp;"    - Taksit No: " &amp; $D66&amp;"  "</f>
+        <v>Bursa Fabrika Satış Mağazası – Adem Duman    - Taksit No: # 4 #  </v>
+      </c>
+      <c r="F64" s="27"/>
+      <c r="G64" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H64" s="27"/>
+      <c r="I64" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J64" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K64" s="0"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="N64" s="32"/>
+      <c r="O64" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="P64" s="33"/>
     </row>
     <row r="65" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="28"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E65" s="31" t="str">
-        <f aca="false">$D72 &amp;"    - Taksit No: " &amp; $D67&amp;"  "</f>
-        <v>BURSA    - Taksit No: # 4 #  </v>
-      </c>
-      <c r="F65" s="28"/>
-      <c r="G65" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H65" s="28"/>
-      <c r="I65" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="J65" s="28"/>
-      <c r="K65" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="L65" s="28"/>
-      <c r="M65" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="N65" s="0"/>
-      <c r="O65" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="P65" s="33"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" s="30"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="38" t="n">
+        <f aca="false">D79</f>
+        <v>44377</v>
+      </c>
+      <c r="H65" s="39"/>
+      <c r="I65" s="40" t="str">
+        <f aca="false">D68</f>
+        <v># 2.000 TL #</v>
+      </c>
+      <c r="J65" s="41" t="str">
+        <f aca="false">D69</f>
+        <v>#   Krş #</v>
+      </c>
+      <c r="K65" s="0"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="42" t="str">
+        <f aca="false">D66</f>
+        <v># 4 #</v>
+      </c>
+      <c r="N65" s="32"/>
+      <c r="O65" s="43" t="n">
+        <f aca="false">D81</f>
+        <v>44252</v>
+      </c>
+      <c r="P65" s="44"/>
     </row>
     <row r="66" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="24"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="35"/>
-      <c r="C66" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D66" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E66" s="31"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="38" t="n">
-        <f aca="false">D80</f>
-        <v>44377</v>
-      </c>
-      <c r="H66" s="39"/>
-      <c r="I66" s="40" t="str">
-        <f aca="false">D69</f>
-        <v># 2.000 TL #</v>
-      </c>
-      <c r="J66" s="39"/>
-      <c r="K66" s="41" t="str">
-        <f aca="false">D70</f>
-        <v>#   Krş #</v>
-      </c>
-      <c r="L66" s="39"/>
-      <c r="M66" s="42" t="str">
-        <f aca="false">D67</f>
+      <c r="C66" s="36"/>
+      <c r="D66" s="45" t="str">
+        <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!B6),"##.##0")&amp;" #"</f>
         <v># 4 #</v>
       </c>
-      <c r="N66" s="0"/>
-      <c r="O66" s="43" t="n">
-        <f aca="false">D82</f>
-        <v>44252</v>
-      </c>
+      <c r="E66" s="30"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
       <c r="P66" s="44"/>
     </row>
     <row r="67" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="24"/>
+      <c r="A67" s="23"/>
       <c r="B67" s="35"/>
       <c r="C67" s="36"/>
-      <c r="D67" s="45" t="str">
-        <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!B6),"##.##0")&amp;" #"</f>
-        <v># 4 #</v>
-      </c>
-      <c r="E67" s="31"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="24"/>
+      <c r="D67" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" s="30"/>
+      <c r="F67" s="47" t="str">
+        <f aca="false">"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G65,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F6&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G6&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
+        <v>   İş bu emre muharrer senedimizin mükabilinde 30 Haziran 2021 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # İkibin TL # ödeyeceğiz. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eyleriz.</v>
+      </c>
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="47"/>
+      <c r="N67" s="47"/>
+      <c r="O67" s="47"/>
       <c r="P67" s="44"/>
     </row>
     <row r="68" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="24"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="35"/>
       <c r="C68" s="36"/>
-      <c r="D68" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="E68" s="31"/>
-      <c r="F68" s="47" t="str">
-        <f aca="false">"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G66,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!G6&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!H6&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
-        <v>   İş bu emre muharrer senedimizin mükabilinde 30 Haziran 2021 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # İkibin TL # ödeyeceğiz. Bedeli Nakden ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eyleriz.</v>
-      </c>
+      <c r="D68" s="48" t="str">
+        <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!E6),"##.##0")&amp;" TL #"</f>
+        <v># 2.000 TL #</v>
+      </c>
+      <c r="E68" s="30"/>
+      <c r="F68" s="47"/>
       <c r="G68" s="47"/>
       <c r="H68" s="47"/>
       <c r="I68" s="47"/>
@@ -3193,16 +3628,14 @@
       <c r="P68" s="44"/>
     </row>
     <row r="69" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="24"/>
+      <c r="A69" s="23"/>
       <c r="B69" s="35"/>
-      <c r="C69" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D69" s="48" t="str">
-        <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!E6),"##.##0")&amp;" TL #"</f>
-        <v># 2.000 TL #</v>
-      </c>
-      <c r="E69" s="31"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="49" t="str">
+        <f aca="false">"# "&amp;TEXT(('Senet Taksit Giriş'!E68-INT('Senet Taksit Giriş'!E68))*100,"##.##")&amp;"  Krş #"</f>
+        <v>#   Krş #</v>
+      </c>
+      <c r="E69" s="30"/>
       <c r="F69" s="47"/>
       <c r="G69" s="47"/>
       <c r="H69" s="47"/>
@@ -3216,14 +3649,13 @@
       <c r="P69" s="44"/>
     </row>
     <row r="70" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="24"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="35"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="49" t="str">
-        <f aca="false">"# "&amp;TEXT(('Senet Taksit Giriş'!E68-INT('Senet Taksit Giriş'!E68))*100,"##.##")&amp;"  Krş #"</f>
-        <v>#   Krş #</v>
-      </c>
-      <c r="E70" s="31"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="30"/>
       <c r="F70" s="47"/>
       <c r="G70" s="47"/>
       <c r="H70" s="47"/>
@@ -3237,412 +3669,406 @@
       <c r="P70" s="44"/>
     </row>
     <row r="71" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="24"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="50" t="s">
+      <c r="A71" s="23"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="52" t="str">
+        <f aca="false">$D$9</f>
+        <v>Bursa Fabrika Satış Mağazası – Adem Duman</v>
+      </c>
+      <c r="E71" s="30"/>
+      <c r="F71" s="0"/>
+      <c r="G71" s="0"/>
+      <c r="H71" s="0"/>
+      <c r="I71" s="0"/>
+      <c r="J71" s="0"/>
+      <c r="K71" s="0"/>
+      <c r="L71" s="0"/>
+      <c r="M71" s="0"/>
+      <c r="N71" s="0"/>
+      <c r="O71" s="0"/>
+      <c r="P71" s="44"/>
+    </row>
+    <row r="72" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="23"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E71" s="31"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="47"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="47"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="47"/>
-      <c r="P71" s="44"/>
-    </row>
-    <row r="72" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="24"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D72" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="31"/>
-      <c r="F72" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="G72" s="54" t="str">
-        <f aca="false">"İsim Unvan : "&amp;$D72</f>
-        <v>İsim Unvan : BURSA</v>
-      </c>
-      <c r="H72" s="54"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="26"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="55"/>
-      <c r="N72" s="55"/>
-      <c r="O72" s="27"/>
+      <c r="G72" s="62" t="str">
+        <f aca="false">"İsim : "&amp;$D71</f>
+        <v>İsim : Bursa Fabrika Satış Mağazası – Adem Duman</v>
+      </c>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="66"/>
+      <c r="N72" s="66"/>
+      <c r="O72" s="26"/>
       <c r="P72" s="44"/>
     </row>
     <row r="73" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="24"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="24"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="56"/>
       <c r="D73" s="52"/>
-      <c r="E73" s="31"/>
+      <c r="E73" s="30"/>
       <c r="F73" s="53"/>
-      <c r="G73" s="56" t="str">
+      <c r="G73" s="57" t="str">
         <f aca="false">"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="56"/>
-      <c r="K73" s="56"/>
-      <c r="L73" s="24"/>
-      <c r="M73" s="24"/>
-      <c r="N73" s="24"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="57"/>
+      <c r="K73" s="57"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="23"/>
       <c r="O73" s="44"/>
       <c r="P73" s="44"/>
     </row>
     <row r="74" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="24"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="58"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="56"/>
       <c r="D74" s="52"/>
-      <c r="E74" s="31"/>
+      <c r="E74" s="30"/>
       <c r="F74" s="53"/>
-      <c r="G74" s="56"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="56"/>
-      <c r="K74" s="56"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="57"/>
+      <c r="K74" s="57"/>
       <c r="L74" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M74" s="36"/>
-      <c r="N74" s="59"/>
+      <c r="N74" s="32"/>
       <c r="O74" s="44"/>
       <c r="P74" s="44"/>
     </row>
     <row r="75" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="24"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="58"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="56"/>
       <c r="D75" s="52"/>
-      <c r="E75" s="31"/>
+      <c r="E75" s="30"/>
       <c r="F75" s="53"/>
-      <c r="G75" s="60" t="str">
+      <c r="G75" s="58" t="str">
         <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="60"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="24"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="24"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="58"/>
+      <c r="J75" s="58"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="23"/>
       <c r="O75" s="44"/>
       <c r="P75" s="44"/>
     </row>
     <row r="76" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="24"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="58"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="23"/>
       <c r="D76" s="52"/>
-      <c r="E76" s="31"/>
+      <c r="E76" s="30"/>
       <c r="F76" s="53"/>
-      <c r="G76" s="61" t="str">
+      <c r="G76" s="59" t="str">
         <f aca="false">"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
-        <v>Vergi No / TC Kimlik No : </v>
-      </c>
-      <c r="H76" s="61"/>
-      <c r="I76" s="61"/>
-      <c r="J76" s="61"/>
-      <c r="K76" s="62"/>
-      <c r="L76" s="62"/>
-      <c r="M76" s="62"/>
-      <c r="N76" s="62"/>
-      <c r="O76" s="63"/>
+        <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
+      </c>
+      <c r="H76" s="59"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="59"/>
+      <c r="K76" s="60"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="60"/>
+      <c r="N76" s="60"/>
+      <c r="O76" s="61"/>
       <c r="P76" s="44"/>
     </row>
     <row r="77" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="24"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="24"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="23"/>
       <c r="D77" s="52"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="24"/>
-      <c r="M77" s="24"/>
-      <c r="N77" s="24"/>
-      <c r="O77" s="24"/>
-      <c r="P77" s="44"/>
-    </row>
-    <row r="78" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="24"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D78" s="52"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" s="54" t="str">
+      <c r="E77" s="30"/>
+      <c r="F77" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="62" t="str">
         <f aca="false">"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H78" s="54"/>
-      <c r="I78" s="54"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="26"/>
-      <c r="L78" s="64"/>
-      <c r="M78" s="26"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="27"/>
-      <c r="P78" s="44"/>
-    </row>
-    <row r="79" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="24"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="E79" s="31"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="56" t="str">
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="63"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="25"/>
+      <c r="O77" s="26"/>
+      <c r="P77" s="44"/>
+    </row>
+    <row r="78" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="23"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78" s="30"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="57" t="str">
         <f aca="false">"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="56"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="24"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="57"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="44"/>
+      <c r="P78" s="44"/>
+    </row>
+    <row r="79" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="23"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="64" t="n">
+        <f aca="false">'Senet Taksit Giriş'!D6</f>
+        <v>44377</v>
+      </c>
+      <c r="E79" s="30"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
       <c r="O79" s="44"/>
       <c r="P79" s="44"/>
     </row>
     <row r="80" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="24"/>
-      <c r="B80" s="51"/>
-      <c r="C80" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D80" s="65" t="n">
-        <f aca="false">'Senet Taksit Giriş'!D6</f>
-        <v>44377</v>
-      </c>
-      <c r="E80" s="31"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E80" s="30"/>
       <c r="F80" s="53"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="56"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="M80" s="24"/>
-      <c r="N80" s="24"/>
+      <c r="G80" s="58" t="str">
+        <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
+        <v>Vergi Dairesi : Tokat</v>
+      </c>
+      <c r="H80" s="58"/>
+      <c r="I80" s="58"/>
+      <c r="J80" s="58"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="23"/>
       <c r="O80" s="44"/>
       <c r="P80" s="44"/>
     </row>
     <row r="81" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="24"/>
+      <c r="A81" s="23"/>
       <c r="B81" s="35"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="E81" s="31"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="60" t="str">
-        <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
-        <v>Vergi Dairesi : Tokat</v>
-      </c>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="60"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="24"/>
-      <c r="N81" s="24"/>
-      <c r="O81" s="44"/>
-      <c r="P81" s="44"/>
-    </row>
-    <row r="82" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="24"/>
-      <c r="B82" s="35"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="65" t="n">
+      <c r="C81" s="23"/>
+      <c r="D81" s="64" t="n">
         <f aca="false">'Senet Taksit Giriş'!C6</f>
         <v>44252</v>
       </c>
-      <c r="E82" s="31"/>
-      <c r="F82" s="53"/>
-      <c r="G82" s="61" t="str">
+      <c r="E81" s="30"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="59" t="str">
         <f aca="false">"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H82" s="61"/>
-      <c r="I82" s="61"/>
-      <c r="J82" s="61"/>
-      <c r="K82" s="62"/>
-      <c r="L82" s="62"/>
-      <c r="M82" s="62"/>
-      <c r="N82" s="62"/>
-      <c r="O82" s="63"/>
-      <c r="P82" s="44"/>
-    </row>
-    <row r="83" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="24"/>
-      <c r="B83" s="66"/>
-      <c r="C83" s="62"/>
-      <c r="D83" s="62"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="62"/>
-      <c r="H83" s="62"/>
-      <c r="I83" s="62"/>
-      <c r="J83" s="62"/>
-      <c r="K83" s="62"/>
-      <c r="L83" s="62"/>
-      <c r="M83" s="62"/>
-      <c r="N83" s="62"/>
-      <c r="O83" s="62"/>
-      <c r="P83" s="63"/>
+      <c r="H81" s="59"/>
+      <c r="I81" s="59"/>
+      <c r="J81" s="59"/>
+      <c r="K81" s="60"/>
+      <c r="L81" s="60"/>
+      <c r="M81" s="60"/>
+      <c r="N81" s="60"/>
+      <c r="O81" s="61"/>
+      <c r="P81" s="44"/>
+    </row>
+    <row r="82" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="23"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="60"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="60"/>
+      <c r="G82" s="60"/>
+      <c r="H82" s="60"/>
+      <c r="I82" s="60"/>
+      <c r="J82" s="60"/>
+      <c r="K82" s="60"/>
+      <c r="L82" s="60"/>
+      <c r="M82" s="60"/>
+      <c r="N82" s="60"/>
+      <c r="O82" s="60"/>
+      <c r="P82" s="61"/>
+    </row>
+    <row r="84" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="23"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="26"/>
     </row>
     <row r="85" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="24"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="26"/>
-      <c r="L85" s="26"/>
-      <c r="M85" s="26"/>
-      <c r="N85" s="26"/>
-      <c r="O85" s="26"/>
-      <c r="P85" s="27"/>
+      <c r="A85" s="27"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E85" s="30" t="str">
+        <f aca="false">$D92 &amp;"    - Taksit No: " &amp; $D87&amp;"  "</f>
+        <v>Bursa Fabrika Satış Mağazası – Adem Duman    - Taksit No: # 5 #  </v>
+      </c>
+      <c r="F85" s="27"/>
+      <c r="G85" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H85" s="27"/>
+      <c r="I85" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J85" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K85" s="0"/>
+      <c r="L85" s="27"/>
+      <c r="M85" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="N85" s="32"/>
+      <c r="O85" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="P85" s="33"/>
     </row>
     <row r="86" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="28"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E86" s="31" t="str">
-        <f aca="false">$D93 &amp;"    - Taksit No: " &amp; $D88&amp;"  "</f>
-        <v>BURSA    - Taksit No: # 5 #  </v>
-      </c>
-      <c r="F86" s="28"/>
-      <c r="G86" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H86" s="28"/>
-      <c r="I86" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="J86" s="28"/>
-      <c r="K86" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="L86" s="28"/>
-      <c r="M86" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="N86" s="0"/>
-      <c r="O86" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="P86" s="33"/>
+      <c r="A86" s="23"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" s="30"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="38" t="n">
+        <f aca="false">D100</f>
+        <v>44407</v>
+      </c>
+      <c r="H86" s="39"/>
+      <c r="I86" s="40" t="str">
+        <f aca="false">D89</f>
+        <v># 14.000 TL #</v>
+      </c>
+      <c r="J86" s="41" t="str">
+        <f aca="false">D90</f>
+        <v>#   Krş #</v>
+      </c>
+      <c r="K86" s="0"/>
+      <c r="L86" s="39"/>
+      <c r="M86" s="42" t="str">
+        <f aca="false">D87</f>
+        <v># 5 #</v>
+      </c>
+      <c r="N86" s="32"/>
+      <c r="O86" s="43" t="n">
+        <f aca="false">D102</f>
+        <v>44252</v>
+      </c>
+      <c r="P86" s="44"/>
     </row>
     <row r="87" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="24"/>
+      <c r="A87" s="23"/>
       <c r="B87" s="35"/>
-      <c r="C87" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D87" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E87" s="31"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="38" t="n">
-        <f aca="false">D101</f>
-        <v>44407</v>
-      </c>
-      <c r="H87" s="39"/>
-      <c r="I87" s="40" t="str">
-        <f aca="false">D90</f>
-        <v># 14.000 TL #</v>
-      </c>
-      <c r="J87" s="39"/>
-      <c r="K87" s="41" t="str">
-        <f aca="false">D91</f>
-        <v>#   Krş #</v>
-      </c>
-      <c r="L87" s="39"/>
-      <c r="M87" s="42" t="str">
-        <f aca="false">D88</f>
+      <c r="C87" s="36"/>
+      <c r="D87" s="45" t="str">
+        <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!B7),"##.##0")&amp;" #"</f>
         <v># 5 #</v>
       </c>
-      <c r="N87" s="0"/>
-      <c r="O87" s="43" t="n">
-        <f aca="false">D103</f>
-        <v>44252</v>
-      </c>
+      <c r="E87" s="30"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="23"/>
+      <c r="N87" s="23"/>
+      <c r="O87" s="23"/>
       <c r="P87" s="44"/>
     </row>
     <row r="88" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="24"/>
+      <c r="A88" s="23"/>
       <c r="B88" s="35"/>
       <c r="C88" s="36"/>
-      <c r="D88" s="45" t="str">
-        <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!B7),"##.##0")&amp;" #"</f>
-        <v># 5 #</v>
-      </c>
-      <c r="E88" s="31"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="24"/>
-      <c r="L88" s="24"/>
-      <c r="M88" s="24"/>
-      <c r="N88" s="24"/>
-      <c r="O88" s="24"/>
+      <c r="D88" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" s="30"/>
+      <c r="F88" s="47" t="str">
+        <f aca="false">"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G86,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F7&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G7&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
+        <v>   İş bu emre muharrer senedimizin mükabilinde 30 Temmuz 2021 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Ondörtbin TL # ödeyeceğiz. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eyleriz.</v>
+      </c>
+      <c r="G88" s="47"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="47"/>
+      <c r="K88" s="47"/>
+      <c r="L88" s="47"/>
+      <c r="M88" s="47"/>
+      <c r="N88" s="47"/>
+      <c r="O88" s="47"/>
       <c r="P88" s="44"/>
     </row>
     <row r="89" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="24"/>
+      <c r="A89" s="23"/>
       <c r="B89" s="35"/>
       <c r="C89" s="36"/>
-      <c r="D89" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="E89" s="31"/>
-      <c r="F89" s="47" t="str">
-        <f aca="false">"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G87,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!G7&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!H7&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
-        <v>   İş bu emre muharrer senedimizin mükabilinde 30 Temmuz 2021 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Ondörtbin TL # ödeyeceğiz. Bedeli Nakden ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eyleriz.</v>
-      </c>
+      <c r="D89" s="48" t="str">
+        <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!E7),"##.##0")&amp;" TL #"</f>
+        <v># 14.000 TL #</v>
+      </c>
+      <c r="E89" s="30"/>
+      <c r="F89" s="47"/>
       <c r="G89" s="47"/>
       <c r="H89" s="47"/>
       <c r="I89" s="47"/>
@@ -3655,16 +4081,14 @@
       <c r="P89" s="44"/>
     </row>
     <row r="90" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="24"/>
+      <c r="A90" s="23"/>
       <c r="B90" s="35"/>
-      <c r="C90" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D90" s="48" t="str">
-        <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!E7),"##.##0")&amp;" TL #"</f>
-        <v># 14.000 TL #</v>
-      </c>
-      <c r="E90" s="31"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="49" t="str">
+        <f aca="false">"# "&amp;TEXT(('Senet Taksit Giriş'!E90-INT('Senet Taksit Giriş'!E90))*100,"##.##")&amp;"  Krş #"</f>
+        <v>#   Krş #</v>
+      </c>
+      <c r="E90" s="30"/>
       <c r="F90" s="47"/>
       <c r="G90" s="47"/>
       <c r="H90" s="47"/>
@@ -3678,14 +4102,13 @@
       <c r="P90" s="44"/>
     </row>
     <row r="91" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="24"/>
+      <c r="A91" s="23"/>
       <c r="B91" s="35"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="49" t="str">
-        <f aca="false">"# "&amp;TEXT(('Senet Taksit Giriş'!E90-INT('Senet Taksit Giriş'!E90))*100,"##.##")&amp;"  Krş #"</f>
-        <v>#   Krş #</v>
-      </c>
-      <c r="E91" s="31"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E91" s="30"/>
       <c r="F91" s="47"/>
       <c r="G91" s="47"/>
       <c r="H91" s="47"/>
@@ -3699,363 +4122,3636 @@
       <c r="P91" s="44"/>
     </row>
     <row r="92" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="24"/>
-      <c r="B92" s="35"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="50" t="s">
+      <c r="A92" s="23"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="52" t="str">
+        <f aca="false">$D$9</f>
+        <v>Bursa Fabrika Satış Mağazası – Adem Duman</v>
+      </c>
+      <c r="E92" s="30"/>
+      <c r="F92" s="0"/>
+      <c r="G92" s="0"/>
+      <c r="H92" s="0"/>
+      <c r="I92" s="0"/>
+      <c r="J92" s="0"/>
+      <c r="K92" s="0"/>
+      <c r="L92" s="0"/>
+      <c r="M92" s="0"/>
+      <c r="N92" s="0"/>
+      <c r="O92" s="0"/>
+      <c r="P92" s="44"/>
+    </row>
+    <row r="93" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="23"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="52"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E92" s="31"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="47"/>
-      <c r="N92" s="47"/>
-      <c r="O92" s="47"/>
-      <c r="P92" s="44"/>
-    </row>
-    <row r="93" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="24"/>
-      <c r="B93" s="51"/>
-      <c r="C93" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D93" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="31"/>
-      <c r="F93" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="G93" s="54" t="str">
-        <f aca="false">"İsim Unvan : "&amp;$D93</f>
-        <v>İsim Unvan : BURSA</v>
-      </c>
-      <c r="H93" s="54"/>
-      <c r="I93" s="54"/>
-      <c r="J93" s="54"/>
-      <c r="K93" s="26"/>
-      <c r="L93" s="26"/>
-      <c r="M93" s="55"/>
-      <c r="N93" s="55"/>
-      <c r="O93" s="27"/>
+      <c r="G93" s="62" t="str">
+        <f aca="false">"İsim : "&amp;$D92</f>
+        <v>İsim : Bursa Fabrika Satış Mağazası – Adem Duman</v>
+      </c>
+      <c r="H93" s="62"/>
+      <c r="I93" s="62"/>
+      <c r="J93" s="62"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="66"/>
+      <c r="N93" s="66"/>
+      <c r="O93" s="26"/>
       <c r="P93" s="44"/>
     </row>
     <row r="94" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="24"/>
-      <c r="B94" s="35"/>
-      <c r="C94" s="24"/>
+      <c r="A94" s="23"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="56"/>
       <c r="D94" s="52"/>
-      <c r="E94" s="31"/>
+      <c r="E94" s="30"/>
       <c r="F94" s="53"/>
-      <c r="G94" s="56" t="str">
+      <c r="G94" s="57" t="str">
         <f aca="false">"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H94" s="56"/>
-      <c r="I94" s="56"/>
-      <c r="J94" s="56"/>
-      <c r="K94" s="56"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="24"/>
-      <c r="N94" s="24"/>
+      <c r="H94" s="57"/>
+      <c r="I94" s="57"/>
+      <c r="J94" s="57"/>
+      <c r="K94" s="57"/>
+      <c r="L94" s="23"/>
+      <c r="M94" s="23"/>
+      <c r="N94" s="23"/>
       <c r="O94" s="44"/>
       <c r="P94" s="44"/>
     </row>
     <row r="95" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="24"/>
-      <c r="B95" s="57"/>
-      <c r="C95" s="58"/>
+      <c r="A95" s="23"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="56"/>
       <c r="D95" s="52"/>
-      <c r="E95" s="31"/>
+      <c r="E95" s="30"/>
       <c r="F95" s="53"/>
-      <c r="G95" s="56"/>
-      <c r="H95" s="56"/>
-      <c r="I95" s="56"/>
-      <c r="J95" s="56"/>
-      <c r="K95" s="56"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="57"/>
+      <c r="J95" s="57"/>
+      <c r="K95" s="57"/>
       <c r="L95" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M95" s="36"/>
-      <c r="N95" s="59"/>
+      <c r="N95" s="32"/>
       <c r="O95" s="44"/>
       <c r="P95" s="44"/>
     </row>
     <row r="96" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="24"/>
-      <c r="B96" s="57"/>
-      <c r="C96" s="58"/>
+      <c r="A96" s="23"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="56"/>
       <c r="D96" s="52"/>
-      <c r="E96" s="31"/>
+      <c r="E96" s="30"/>
       <c r="F96" s="53"/>
-      <c r="G96" s="60" t="str">
+      <c r="G96" s="58" t="str">
         <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H96" s="60"/>
-      <c r="I96" s="60"/>
-      <c r="J96" s="60"/>
-      <c r="K96" s="24"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="24"/>
-      <c r="N96" s="24"/>
+      <c r="H96" s="58"/>
+      <c r="I96" s="58"/>
+      <c r="J96" s="58"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="23"/>
+      <c r="M96" s="23"/>
+      <c r="N96" s="23"/>
       <c r="O96" s="44"/>
       <c r="P96" s="44"/>
     </row>
     <row r="97" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="24"/>
-      <c r="B97" s="57"/>
-      <c r="C97" s="58"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="23"/>
       <c r="D97" s="52"/>
-      <c r="E97" s="31"/>
+      <c r="E97" s="30"/>
       <c r="F97" s="53"/>
-      <c r="G97" s="61" t="str">
+      <c r="G97" s="59" t="str">
         <f aca="false">"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
-        <v>Vergi No / TC Kimlik No : </v>
-      </c>
-      <c r="H97" s="61"/>
-      <c r="I97" s="61"/>
-      <c r="J97" s="61"/>
-      <c r="K97" s="62"/>
-      <c r="L97" s="62"/>
-      <c r="M97" s="62"/>
-      <c r="N97" s="62"/>
-      <c r="O97" s="63"/>
+        <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
+      </c>
+      <c r="H97" s="59"/>
+      <c r="I97" s="59"/>
+      <c r="J97" s="59"/>
+      <c r="K97" s="60"/>
+      <c r="L97" s="60"/>
+      <c r="M97" s="60"/>
+      <c r="N97" s="60"/>
+      <c r="O97" s="61"/>
       <c r="P97" s="44"/>
     </row>
     <row r="98" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="24"/>
-      <c r="B98" s="35"/>
-      <c r="C98" s="24"/>
+      <c r="A98" s="23"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="23"/>
       <c r="D98" s="52"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="24"/>
-      <c r="K98" s="24"/>
-      <c r="L98" s="24"/>
-      <c r="M98" s="24"/>
-      <c r="N98" s="24"/>
-      <c r="O98" s="24"/>
-      <c r="P98" s="44"/>
-    </row>
-    <row r="99" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="24"/>
-      <c r="B99" s="51"/>
-      <c r="C99" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D99" s="52"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" s="54" t="str">
+      <c r="E98" s="30"/>
+      <c r="F98" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="62" t="str">
         <f aca="false">"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H99" s="54"/>
-      <c r="I99" s="54"/>
-      <c r="J99" s="54"/>
-      <c r="K99" s="26"/>
-      <c r="L99" s="64"/>
-      <c r="M99" s="26"/>
-      <c r="N99" s="26"/>
-      <c r="O99" s="27"/>
-      <c r="P99" s="44"/>
-    </row>
-    <row r="100" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="24"/>
-      <c r="B100" s="35"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="E100" s="31"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="56" t="str">
+      <c r="H98" s="62"/>
+      <c r="I98" s="62"/>
+      <c r="J98" s="62"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="63"/>
+      <c r="M98" s="25"/>
+      <c r="N98" s="25"/>
+      <c r="O98" s="26"/>
+      <c r="P98" s="44"/>
+    </row>
+    <row r="99" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="23"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E99" s="30"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="57" t="str">
         <f aca="false">"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H100" s="56"/>
-      <c r="I100" s="56"/>
-      <c r="J100" s="56"/>
-      <c r="K100" s="24"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="24"/>
-      <c r="N100" s="24"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="57"/>
+      <c r="J99" s="57"/>
+      <c r="K99" s="23"/>
+      <c r="L99" s="23"/>
+      <c r="M99" s="23"/>
+      <c r="N99" s="23"/>
+      <c r="O99" s="44"/>
+      <c r="P99" s="44"/>
+    </row>
+    <row r="100" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="23"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="64" t="n">
+        <f aca="false">'Senet Taksit Giriş'!D7</f>
+        <v>44407</v>
+      </c>
+      <c r="E100" s="30"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="57"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="57"/>
+      <c r="J100" s="57"/>
+      <c r="K100" s="23"/>
+      <c r="L100" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M100" s="23"/>
+      <c r="N100" s="23"/>
       <c r="O100" s="44"/>
       <c r="P100" s="44"/>
     </row>
     <row r="101" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="24"/>
-      <c r="B101" s="51"/>
-      <c r="C101" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D101" s="65" t="n">
-        <f aca="false">'Senet Taksit Giriş'!D7</f>
-        <v>44407</v>
-      </c>
-      <c r="E101" s="31"/>
+      <c r="A101" s="23"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E101" s="30"/>
       <c r="F101" s="53"/>
-      <c r="G101" s="56"/>
-      <c r="H101" s="56"/>
-      <c r="I101" s="56"/>
-      <c r="J101" s="56"/>
-      <c r="K101" s="24"/>
-      <c r="L101" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="M101" s="24"/>
-      <c r="N101" s="24"/>
+      <c r="G101" s="58" t="str">
+        <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
+        <v>Vergi Dairesi : Tokat</v>
+      </c>
+      <c r="H101" s="58"/>
+      <c r="I101" s="58"/>
+      <c r="J101" s="58"/>
+      <c r="K101" s="23"/>
+      <c r="L101" s="23"/>
+      <c r="M101" s="23"/>
+      <c r="N101" s="23"/>
       <c r="O101" s="44"/>
       <c r="P101" s="44"/>
     </row>
     <row r="102" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="24"/>
+      <c r="A102" s="23"/>
       <c r="B102" s="35"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="E102" s="31"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="64" t="n">
+        <f aca="false">'Senet Taksit Giriş'!C7</f>
+        <v>44252</v>
+      </c>
+      <c r="E102" s="30"/>
       <c r="F102" s="53"/>
-      <c r="G102" s="60" t="str">
+      <c r="G102" s="59" t="str">
+        <f aca="false">"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
+        <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
+      </c>
+      <c r="H102" s="59"/>
+      <c r="I102" s="59"/>
+      <c r="J102" s="59"/>
+      <c r="K102" s="60"/>
+      <c r="L102" s="60"/>
+      <c r="M102" s="60"/>
+      <c r="N102" s="60"/>
+      <c r="O102" s="61"/>
+      <c r="P102" s="44"/>
+    </row>
+    <row r="103" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="23"/>
+      <c r="B103" s="65"/>
+      <c r="C103" s="60"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="60"/>
+      <c r="H103" s="60"/>
+      <c r="I103" s="60"/>
+      <c r="J103" s="60"/>
+      <c r="K103" s="60"/>
+      <c r="L103" s="60"/>
+      <c r="M103" s="60"/>
+      <c r="N103" s="60"/>
+      <c r="O103" s="60"/>
+      <c r="P103" s="61"/>
+    </row>
+    <row r="105" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="23"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="25"/>
+      <c r="K105" s="25"/>
+      <c r="L105" s="25"/>
+      <c r="M105" s="25"/>
+      <c r="N105" s="25"/>
+      <c r="O105" s="25"/>
+      <c r="P105" s="26"/>
+    </row>
+    <row r="106" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="27"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E106" s="30" t="str">
+        <f aca="false">$D113 &amp;"    - Taksit No: " &amp; $D108&amp;"  "</f>
+        <v>Bursa Fabrika Satış Mağazası – Adem Duman    - Taksit No: # 6 #  </v>
+      </c>
+      <c r="F106" s="27"/>
+      <c r="G106" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H106" s="27"/>
+      <c r="I106" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J106" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K106" s="0"/>
+      <c r="L106" s="27"/>
+      <c r="M106" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="N106" s="32"/>
+      <c r="O106" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="P106" s="33"/>
+    </row>
+    <row r="107" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="23"/>
+      <c r="B107" s="35"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E107" s="30"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="38" t="n">
+        <f aca="false">D121</f>
+        <v>44438</v>
+      </c>
+      <c r="H107" s="39"/>
+      <c r="I107" s="40" t="str">
+        <f aca="false">D110</f>
+        <v># 2.000 TL #</v>
+      </c>
+      <c r="J107" s="41" t="str">
+        <f aca="false">D111</f>
+        <v>#   Krş #</v>
+      </c>
+      <c r="K107" s="0"/>
+      <c r="L107" s="39"/>
+      <c r="M107" s="42" t="str">
+        <f aca="false">D108</f>
+        <v># 6 #</v>
+      </c>
+      <c r="N107" s="32"/>
+      <c r="O107" s="43" t="n">
+        <f aca="false">D123</f>
+        <v>44252</v>
+      </c>
+      <c r="P107" s="44"/>
+    </row>
+    <row r="108" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="23"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="45" t="str">
+        <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!B8),"##.##0")&amp;" #"</f>
+        <v># 6 #</v>
+      </c>
+      <c r="E108" s="30"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="23"/>
+      <c r="J108" s="23"/>
+      <c r="K108" s="23"/>
+      <c r="L108" s="23"/>
+      <c r="M108" s="23"/>
+      <c r="N108" s="23"/>
+      <c r="O108" s="23"/>
+      <c r="P108" s="44"/>
+    </row>
+    <row r="109" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="23"/>
+      <c r="B109" s="35"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E109" s="30"/>
+      <c r="F109" s="47" t="str">
+        <f aca="false">"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G107,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F8&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G8&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
+        <v>   İş bu emre muharrer senedimizin mükabilinde 30 Ağustos 2021 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # İkibin TL  # ödeyeceğiz. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eyleriz.</v>
+      </c>
+      <c r="G109" s="47"/>
+      <c r="H109" s="47"/>
+      <c r="I109" s="47"/>
+      <c r="J109" s="47"/>
+      <c r="K109" s="47"/>
+      <c r="L109" s="47"/>
+      <c r="M109" s="47"/>
+      <c r="N109" s="47"/>
+      <c r="O109" s="47"/>
+      <c r="P109" s="44"/>
+    </row>
+    <row r="110" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="23"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="48" t="str">
+        <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!E8),"##.##0")&amp;" TL #"</f>
+        <v># 2.000 TL #</v>
+      </c>
+      <c r="E110" s="30"/>
+      <c r="F110" s="47"/>
+      <c r="G110" s="47"/>
+      <c r="H110" s="47"/>
+      <c r="I110" s="47"/>
+      <c r="J110" s="47"/>
+      <c r="K110" s="47"/>
+      <c r="L110" s="47"/>
+      <c r="M110" s="47"/>
+      <c r="N110" s="47"/>
+      <c r="O110" s="47"/>
+      <c r="P110" s="44"/>
+    </row>
+    <row r="111" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="23"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="49" t="str">
+        <f aca="false">"# "&amp;TEXT(('Senet Taksit Giriş'!E111-INT('Senet Taksit Giriş'!E111))*100,"##.##")&amp;"  Krş #"</f>
+        <v>#   Krş #</v>
+      </c>
+      <c r="E111" s="30"/>
+      <c r="F111" s="47"/>
+      <c r="G111" s="47"/>
+      <c r="H111" s="47"/>
+      <c r="I111" s="47"/>
+      <c r="J111" s="47"/>
+      <c r="K111" s="47"/>
+      <c r="L111" s="47"/>
+      <c r="M111" s="47"/>
+      <c r="N111" s="47"/>
+      <c r="O111" s="47"/>
+      <c r="P111" s="44"/>
+    </row>
+    <row r="112" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="23"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E112" s="30"/>
+      <c r="F112" s="47"/>
+      <c r="G112" s="47"/>
+      <c r="H112" s="47"/>
+      <c r="I112" s="47"/>
+      <c r="J112" s="47"/>
+      <c r="K112" s="47"/>
+      <c r="L112" s="47"/>
+      <c r="M112" s="47"/>
+      <c r="N112" s="47"/>
+      <c r="O112" s="47"/>
+      <c r="P112" s="44"/>
+    </row>
+    <row r="113" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="23"/>
+      <c r="B113" s="51"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="52" t="str">
+        <f aca="false">$D$9</f>
+        <v>Bursa Fabrika Satış Mağazası – Adem Duman</v>
+      </c>
+      <c r="E113" s="30"/>
+      <c r="F113" s="0"/>
+      <c r="G113" s="0"/>
+      <c r="H113" s="0"/>
+      <c r="I113" s="0"/>
+      <c r="J113" s="0"/>
+      <c r="K113" s="0"/>
+      <c r="L113" s="0"/>
+      <c r="M113" s="0"/>
+      <c r="N113" s="0"/>
+      <c r="O113" s="0"/>
+      <c r="P113" s="44"/>
+    </row>
+    <row r="114" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="23"/>
+      <c r="B114" s="35"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="52"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G114" s="62" t="str">
+        <f aca="false">"İsim : "&amp;$D113</f>
+        <v>İsim : Bursa Fabrika Satış Mağazası – Adem Duman</v>
+      </c>
+      <c r="H114" s="62"/>
+      <c r="I114" s="62"/>
+      <c r="J114" s="62"/>
+      <c r="K114" s="25"/>
+      <c r="L114" s="25"/>
+      <c r="M114" s="66"/>
+      <c r="N114" s="66"/>
+      <c r="O114" s="26"/>
+      <c r="P114" s="44"/>
+    </row>
+    <row r="115" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="23"/>
+      <c r="B115" s="55"/>
+      <c r="C115" s="56"/>
+      <c r="D115" s="52"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="53"/>
+      <c r="G115" s="57" t="str">
+        <f aca="false">"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
+        <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
+      </c>
+      <c r="H115" s="57"/>
+      <c r="I115" s="57"/>
+      <c r="J115" s="57"/>
+      <c r="K115" s="57"/>
+      <c r="L115" s="23"/>
+      <c r="M115" s="23"/>
+      <c r="N115" s="23"/>
+      <c r="O115" s="44"/>
+      <c r="P115" s="44"/>
+    </row>
+    <row r="116" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="23"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="56"/>
+      <c r="D116" s="52"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="53"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="57"/>
+      <c r="J116" s="57"/>
+      <c r="K116" s="57"/>
+      <c r="L116" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M116" s="36"/>
+      <c r="N116" s="32"/>
+      <c r="O116" s="44"/>
+      <c r="P116" s="44"/>
+    </row>
+    <row r="117" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="23"/>
+      <c r="B117" s="55"/>
+      <c r="C117" s="56"/>
+      <c r="D117" s="52"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="53"/>
+      <c r="G117" s="58" t="str">
+        <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
+        <v>Vergi Dairesi : Tokat</v>
+      </c>
+      <c r="H117" s="58"/>
+      <c r="I117" s="58"/>
+      <c r="J117" s="58"/>
+      <c r="K117" s="23"/>
+      <c r="L117" s="23"/>
+      <c r="M117" s="23"/>
+      <c r="N117" s="23"/>
+      <c r="O117" s="44"/>
+      <c r="P117" s="44"/>
+    </row>
+    <row r="118" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="23"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="52"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="53"/>
+      <c r="G118" s="59" t="str">
+        <f aca="false">"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
+        <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
+      </c>
+      <c r="H118" s="59"/>
+      <c r="I118" s="59"/>
+      <c r="J118" s="59"/>
+      <c r="K118" s="60"/>
+      <c r="L118" s="60"/>
+      <c r="M118" s="60"/>
+      <c r="N118" s="60"/>
+      <c r="O118" s="61"/>
+      <c r="P118" s="44"/>
+    </row>
+    <row r="119" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="23"/>
+      <c r="B119" s="51"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="52"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" s="62" t="str">
+        <f aca="false">"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
+        <v>İsim Unvan : Adem Duman</v>
+      </c>
+      <c r="H119" s="62"/>
+      <c r="I119" s="62"/>
+      <c r="J119" s="62"/>
+      <c r="K119" s="25"/>
+      <c r="L119" s="63"/>
+      <c r="M119" s="25"/>
+      <c r="N119" s="25"/>
+      <c r="O119" s="26"/>
+      <c r="P119" s="44"/>
+    </row>
+    <row r="120" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="23"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E120" s="30"/>
+      <c r="F120" s="53"/>
+      <c r="G120" s="57" t="str">
+        <f aca="false">"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
+        <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
+      </c>
+      <c r="H120" s="57"/>
+      <c r="I120" s="57"/>
+      <c r="J120" s="57"/>
+      <c r="K120" s="23"/>
+      <c r="L120" s="23"/>
+      <c r="M120" s="23"/>
+      <c r="N120" s="23"/>
+      <c r="O120" s="44"/>
+      <c r="P120" s="44"/>
+    </row>
+    <row r="121" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="23"/>
+      <c r="B121" s="51"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="64" t="n">
+        <f aca="false">'Senet Taksit Giriş'!D8</f>
+        <v>44438</v>
+      </c>
+      <c r="E121" s="30"/>
+      <c r="F121" s="53"/>
+      <c r="G121" s="57"/>
+      <c r="H121" s="57"/>
+      <c r="I121" s="57"/>
+      <c r="J121" s="57"/>
+      <c r="K121" s="23"/>
+      <c r="L121" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M121" s="23"/>
+      <c r="N121" s="23"/>
+      <c r="O121" s="44"/>
+      <c r="P121" s="44"/>
+    </row>
+    <row r="122" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="23"/>
+      <c r="B122" s="35"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E122" s="30"/>
+      <c r="F122" s="53"/>
+      <c r="G122" s="58" t="str">
         <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H102" s="60"/>
-      <c r="I102" s="60"/>
-      <c r="J102" s="60"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="24"/>
-      <c r="N102" s="24"/>
-      <c r="O102" s="44"/>
-      <c r="P102" s="44"/>
-    </row>
-    <row r="103" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="24"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="65" t="n">
-        <f aca="false">'Senet Taksit Giriş'!C7</f>
+      <c r="H122" s="58"/>
+      <c r="I122" s="58"/>
+      <c r="J122" s="58"/>
+      <c r="K122" s="23"/>
+      <c r="L122" s="23"/>
+      <c r="M122" s="23"/>
+      <c r="N122" s="23"/>
+      <c r="O122" s="44"/>
+      <c r="P122" s="44"/>
+    </row>
+    <row r="123" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="23"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="64" t="n">
+        <f aca="false">'Senet Taksit Giriş'!C8</f>
         <v>44252</v>
       </c>
-      <c r="E103" s="31"/>
-      <c r="F103" s="53"/>
-      <c r="G103" s="61" t="str">
+      <c r="E123" s="30"/>
+      <c r="F123" s="53"/>
+      <c r="G123" s="59" t="str">
         <f aca="false">"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H103" s="61"/>
-      <c r="I103" s="61"/>
-      <c r="J103" s="61"/>
-      <c r="K103" s="62"/>
-      <c r="L103" s="62"/>
-      <c r="M103" s="62"/>
-      <c r="N103" s="62"/>
-      <c r="O103" s="63"/>
-      <c r="P103" s="44"/>
-    </row>
-    <row r="104" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="24"/>
-      <c r="B104" s="66"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="62"/>
-      <c r="E104" s="62"/>
-      <c r="F104" s="62"/>
-      <c r="G104" s="62"/>
-      <c r="H104" s="62"/>
-      <c r="I104" s="62"/>
-      <c r="J104" s="62"/>
-      <c r="K104" s="62"/>
-      <c r="L104" s="62"/>
-      <c r="M104" s="62"/>
-      <c r="N104" s="62"/>
-      <c r="O104" s="62"/>
-      <c r="P104" s="63"/>
-    </row>
+      <c r="H123" s="59"/>
+      <c r="I123" s="59"/>
+      <c r="J123" s="59"/>
+      <c r="K123" s="60"/>
+      <c r="L123" s="60"/>
+      <c r="M123" s="60"/>
+      <c r="N123" s="60"/>
+      <c r="O123" s="61"/>
+      <c r="P123" s="44"/>
+    </row>
+    <row r="124" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="23"/>
+      <c r="B124" s="65"/>
+      <c r="C124" s="60"/>
+      <c r="D124" s="60"/>
+      <c r="E124" s="60"/>
+      <c r="F124" s="60"/>
+      <c r="G124" s="60"/>
+      <c r="H124" s="60"/>
+      <c r="I124" s="60"/>
+      <c r="J124" s="60"/>
+      <c r="K124" s="60"/>
+      <c r="L124" s="60"/>
+      <c r="M124" s="60"/>
+      <c r="N124" s="60"/>
+      <c r="O124" s="60"/>
+      <c r="P124" s="61"/>
+    </row>
+    <row r="125" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="23"/>
+      <c r="B125" s="24"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="25"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="25"/>
+      <c r="H125" s="25"/>
+      <c r="I125" s="25"/>
+      <c r="J125" s="25"/>
+      <c r="K125" s="25"/>
+      <c r="L125" s="25"/>
+      <c r="M125" s="25"/>
+      <c r="N125" s="25"/>
+      <c r="O125" s="25"/>
+      <c r="P125" s="26"/>
+    </row>
+    <row r="126" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="27"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126" s="30" t="str">
+        <f aca="false">$D133 &amp;"    - Taksit No: " &amp; $D128&amp;"  "</f>
+        <v>Bursa Fabrika Satış Mağazası – Adem Duman    - Taksit No: # 7 #  </v>
+      </c>
+      <c r="F126" s="27"/>
+      <c r="G126" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H126" s="27"/>
+      <c r="I126" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J126" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K126" s="0"/>
+      <c r="L126" s="27"/>
+      <c r="M126" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="N126" s="32"/>
+      <c r="O126" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="P126" s="33"/>
+    </row>
+    <row r="127" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="23"/>
+      <c r="B127" s="35"/>
+      <c r="C127" s="36"/>
+      <c r="D127" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E127" s="30"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="38" t="n">
+        <f aca="false">D141</f>
+        <v>44469</v>
+      </c>
+      <c r="H127" s="39"/>
+      <c r="I127" s="40" t="str">
+        <f aca="false">D130</f>
+        <v># 2.000 TL #</v>
+      </c>
+      <c r="J127" s="41" t="str">
+        <f aca="false">D131</f>
+        <v>#   Krş #</v>
+      </c>
+      <c r="K127" s="0"/>
+      <c r="L127" s="39"/>
+      <c r="M127" s="42" t="str">
+        <f aca="false">D128</f>
+        <v># 7 #</v>
+      </c>
+      <c r="N127" s="32"/>
+      <c r="O127" s="43" t="n">
+        <f aca="false">D143</f>
+        <v>44252</v>
+      </c>
+      <c r="P127" s="44"/>
+    </row>
+    <row r="128" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="23"/>
+      <c r="B128" s="35"/>
+      <c r="C128" s="36"/>
+      <c r="D128" s="45" t="str">
+        <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!B9),"##.##0")&amp;" #"</f>
+        <v># 7 #</v>
+      </c>
+      <c r="E128" s="30"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="23"/>
+      <c r="H128" s="23"/>
+      <c r="I128" s="23"/>
+      <c r="J128" s="23"/>
+      <c r="K128" s="23"/>
+      <c r="L128" s="23"/>
+      <c r="M128" s="23"/>
+      <c r="N128" s="23"/>
+      <c r="O128" s="23"/>
+      <c r="P128" s="44"/>
+    </row>
+    <row r="129" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="23"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="36"/>
+      <c r="D129" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E129" s="30"/>
+      <c r="F129" s="47" t="str">
+        <f aca="false">"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G127,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F9&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G9&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
+        <v>   İş bu emre muharrer senedimizin mükabilinde 30 Eylül 2021 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # İkibin TL  # ödeyeceğiz. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eyleriz.</v>
+      </c>
+      <c r="G129" s="47"/>
+      <c r="H129" s="47"/>
+      <c r="I129" s="47"/>
+      <c r="J129" s="47"/>
+      <c r="K129" s="47"/>
+      <c r="L129" s="47"/>
+      <c r="M129" s="47"/>
+      <c r="N129" s="47"/>
+      <c r="O129" s="47"/>
+      <c r="P129" s="44"/>
+    </row>
+    <row r="130" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="23"/>
+      <c r="B130" s="35"/>
+      <c r="C130" s="36"/>
+      <c r="D130" s="48" t="str">
+        <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!E9),"##.##0")&amp;" TL #"</f>
+        <v># 2.000 TL #</v>
+      </c>
+      <c r="E130" s="30"/>
+      <c r="F130" s="47"/>
+      <c r="G130" s="47"/>
+      <c r="H130" s="47"/>
+      <c r="I130" s="47"/>
+      <c r="J130" s="47"/>
+      <c r="K130" s="47"/>
+      <c r="L130" s="47"/>
+      <c r="M130" s="47"/>
+      <c r="N130" s="47"/>
+      <c r="O130" s="47"/>
+      <c r="P130" s="44"/>
+    </row>
+    <row r="131" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="23"/>
+      <c r="B131" s="35"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="49" t="str">
+        <f aca="false">"# "&amp;TEXT(('Senet Taksit Giriş'!E132-INT('Senet Taksit Giriş'!E132))*100,"##.##")&amp;"  Krş #"</f>
+        <v>#   Krş #</v>
+      </c>
+      <c r="E131" s="30"/>
+      <c r="F131" s="47"/>
+      <c r="G131" s="47"/>
+      <c r="H131" s="47"/>
+      <c r="I131" s="47"/>
+      <c r="J131" s="47"/>
+      <c r="K131" s="47"/>
+      <c r="L131" s="47"/>
+      <c r="M131" s="47"/>
+      <c r="N131" s="47"/>
+      <c r="O131" s="47"/>
+      <c r="P131" s="44"/>
+    </row>
+    <row r="132" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="23"/>
+      <c r="B132" s="35"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E132" s="30"/>
+      <c r="F132" s="47"/>
+      <c r="G132" s="47"/>
+      <c r="H132" s="47"/>
+      <c r="I132" s="47"/>
+      <c r="J132" s="47"/>
+      <c r="K132" s="47"/>
+      <c r="L132" s="47"/>
+      <c r="M132" s="47"/>
+      <c r="N132" s="47"/>
+      <c r="O132" s="47"/>
+      <c r="P132" s="44"/>
+    </row>
+    <row r="133" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="23"/>
+      <c r="B133" s="51"/>
+      <c r="C133" s="23"/>
+      <c r="D133" s="52" t="str">
+        <f aca="false">$D$9</f>
+        <v>Bursa Fabrika Satış Mağazası – Adem Duman</v>
+      </c>
+      <c r="E133" s="30"/>
+      <c r="F133" s="0"/>
+      <c r="G133" s="0"/>
+      <c r="H133" s="0"/>
+      <c r="I133" s="0"/>
+      <c r="J133" s="0"/>
+      <c r="K133" s="0"/>
+      <c r="L133" s="0"/>
+      <c r="M133" s="0"/>
+      <c r="N133" s="0"/>
+      <c r="O133" s="0"/>
+      <c r="P133" s="44"/>
+    </row>
+    <row r="134" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="23"/>
+      <c r="B134" s="35"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="52"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G134" s="62" t="str">
+        <f aca="false">"İsim : "&amp;$D133</f>
+        <v>İsim : Bursa Fabrika Satış Mağazası – Adem Duman</v>
+      </c>
+      <c r="H134" s="62"/>
+      <c r="I134" s="62"/>
+      <c r="J134" s="62"/>
+      <c r="K134" s="25"/>
+      <c r="L134" s="25"/>
+      <c r="M134" s="66"/>
+      <c r="N134" s="66"/>
+      <c r="O134" s="26"/>
+      <c r="P134" s="44"/>
+    </row>
+    <row r="135" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="23"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="56"/>
+      <c r="D135" s="52"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="53"/>
+      <c r="G135" s="57" t="str">
+        <f aca="false">"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
+        <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
+      </c>
+      <c r="H135" s="57"/>
+      <c r="I135" s="57"/>
+      <c r="J135" s="57"/>
+      <c r="K135" s="57"/>
+      <c r="L135" s="23"/>
+      <c r="M135" s="23"/>
+      <c r="N135" s="23"/>
+      <c r="O135" s="44"/>
+      <c r="P135" s="44"/>
+    </row>
+    <row r="136" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="23"/>
+      <c r="B136" s="55"/>
+      <c r="C136" s="56"/>
+      <c r="D136" s="52"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="53"/>
+      <c r="G136" s="57"/>
+      <c r="H136" s="57"/>
+      <c r="I136" s="57"/>
+      <c r="J136" s="57"/>
+      <c r="K136" s="57"/>
+      <c r="L136" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M136" s="36"/>
+      <c r="N136" s="32"/>
+      <c r="O136" s="44"/>
+      <c r="P136" s="44"/>
+    </row>
+    <row r="137" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="23"/>
+      <c r="B137" s="55"/>
+      <c r="C137" s="56"/>
+      <c r="D137" s="52"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="53"/>
+      <c r="G137" s="58" t="str">
+        <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
+        <v>Vergi Dairesi : Tokat</v>
+      </c>
+      <c r="H137" s="58"/>
+      <c r="I137" s="58"/>
+      <c r="J137" s="58"/>
+      <c r="K137" s="23"/>
+      <c r="L137" s="23"/>
+      <c r="M137" s="23"/>
+      <c r="N137" s="23"/>
+      <c r="O137" s="44"/>
+      <c r="P137" s="44"/>
+    </row>
+    <row r="138" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="23"/>
+      <c r="B138" s="35"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="52"/>
+      <c r="E138" s="30"/>
+      <c r="F138" s="53"/>
+      <c r="G138" s="59" t="str">
+        <f aca="false">"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
+        <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
+      </c>
+      <c r="H138" s="59"/>
+      <c r="I138" s="59"/>
+      <c r="J138" s="59"/>
+      <c r="K138" s="60"/>
+      <c r="L138" s="60"/>
+      <c r="M138" s="60"/>
+      <c r="N138" s="60"/>
+      <c r="O138" s="61"/>
+      <c r="P138" s="44"/>
+    </row>
+    <row r="139" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="23"/>
+      <c r="B139" s="51"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="52"/>
+      <c r="E139" s="30"/>
+      <c r="F139" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" s="62" t="str">
+        <f aca="false">"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
+        <v>İsim Unvan : Adem Duman</v>
+      </c>
+      <c r="H139" s="62"/>
+      <c r="I139" s="62"/>
+      <c r="J139" s="62"/>
+      <c r="K139" s="25"/>
+      <c r="L139" s="63"/>
+      <c r="M139" s="25"/>
+      <c r="N139" s="25"/>
+      <c r="O139" s="26"/>
+      <c r="P139" s="44"/>
+    </row>
+    <row r="140" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="23"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="23"/>
+      <c r="D140" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E140" s="30"/>
+      <c r="F140" s="53"/>
+      <c r="G140" s="57" t="str">
+        <f aca="false">"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
+        <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
+      </c>
+      <c r="H140" s="57"/>
+      <c r="I140" s="57"/>
+      <c r="J140" s="57"/>
+      <c r="K140" s="23"/>
+      <c r="L140" s="23"/>
+      <c r="M140" s="23"/>
+      <c r="N140" s="23"/>
+      <c r="O140" s="44"/>
+      <c r="P140" s="44"/>
+    </row>
+    <row r="141" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="23"/>
+      <c r="B141" s="51"/>
+      <c r="C141" s="23"/>
+      <c r="D141" s="64" t="n">
+        <f aca="false">'Senet Taksit Giriş'!D9</f>
+        <v>44469</v>
+      </c>
+      <c r="E141" s="30"/>
+      <c r="F141" s="53"/>
+      <c r="G141" s="57"/>
+      <c r="H141" s="57"/>
+      <c r="I141" s="57"/>
+      <c r="J141" s="57"/>
+      <c r="K141" s="23"/>
+      <c r="L141" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M141" s="23"/>
+      <c r="N141" s="23"/>
+      <c r="O141" s="44"/>
+      <c r="P141" s="44"/>
+    </row>
+    <row r="142" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="23"/>
+      <c r="B142" s="35"/>
+      <c r="C142" s="23"/>
+      <c r="D142" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E142" s="30"/>
+      <c r="F142" s="53"/>
+      <c r="G142" s="58" t="str">
+        <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
+        <v>Vergi Dairesi : Tokat</v>
+      </c>
+      <c r="H142" s="58"/>
+      <c r="I142" s="58"/>
+      <c r="J142" s="58"/>
+      <c r="K142" s="23"/>
+      <c r="L142" s="23"/>
+      <c r="M142" s="23"/>
+      <c r="N142" s="23"/>
+      <c r="O142" s="44"/>
+      <c r="P142" s="44"/>
+    </row>
+    <row r="143" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="23"/>
+      <c r="B143" s="35"/>
+      <c r="C143" s="23"/>
+      <c r="D143" s="64" t="n">
+        <f aca="false">'Senet Taksit Giriş'!C9</f>
+        <v>44252</v>
+      </c>
+      <c r="E143" s="30"/>
+      <c r="F143" s="53"/>
+      <c r="G143" s="59" t="str">
+        <f aca="false">"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
+        <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
+      </c>
+      <c r="H143" s="59"/>
+      <c r="I143" s="59"/>
+      <c r="J143" s="59"/>
+      <c r="K143" s="60"/>
+      <c r="L143" s="60"/>
+      <c r="M143" s="60"/>
+      <c r="N143" s="60"/>
+      <c r="O143" s="61"/>
+      <c r="P143" s="44"/>
+    </row>
+    <row r="144" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="23"/>
+      <c r="B144" s="65"/>
+      <c r="C144" s="60"/>
+      <c r="D144" s="60"/>
+      <c r="E144" s="60"/>
+      <c r="F144" s="60"/>
+      <c r="G144" s="60"/>
+      <c r="H144" s="60"/>
+      <c r="I144" s="60"/>
+      <c r="J144" s="60"/>
+      <c r="K144" s="60"/>
+      <c r="L144" s="60"/>
+      <c r="M144" s="60"/>
+      <c r="N144" s="60"/>
+      <c r="O144" s="60"/>
+      <c r="P144" s="61"/>
+    </row>
+    <row r="146" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="23"/>
+      <c r="B146" s="24"/>
+      <c r="C146" s="25"/>
+      <c r="D146" s="25"/>
+      <c r="E146" s="25"/>
+      <c r="F146" s="25"/>
+      <c r="G146" s="25"/>
+      <c r="H146" s="25"/>
+      <c r="I146" s="25"/>
+      <c r="J146" s="25"/>
+      <c r="K146" s="25"/>
+      <c r="L146" s="25"/>
+      <c r="M146" s="25"/>
+      <c r="N146" s="25"/>
+      <c r="O146" s="25"/>
+      <c r="P146" s="26"/>
+    </row>
+    <row r="147" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="27"/>
+      <c r="B147" s="28"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E147" s="30" t="str">
+        <f aca="false">$D154 &amp;"    - Taksit No: " &amp; $D149&amp;"  "</f>
+        <v>Bursa Fabrika Satış Mağazası – Adem Duman    - Taksit No: # 8 #  </v>
+      </c>
+      <c r="F147" s="27"/>
+      <c r="G147" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H147" s="27"/>
+      <c r="I147" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J147" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K147" s="0"/>
+      <c r="L147" s="27"/>
+      <c r="M147" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="N147" s="32"/>
+      <c r="O147" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="P147" s="33"/>
+    </row>
+    <row r="148" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="23"/>
+      <c r="B148" s="35"/>
+      <c r="C148" s="36"/>
+      <c r="D148" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E148" s="30"/>
+      <c r="F148" s="23"/>
+      <c r="G148" s="38" t="n">
+        <f aca="false">D162</f>
+        <v>44499</v>
+      </c>
+      <c r="H148" s="39"/>
+      <c r="I148" s="40" t="str">
+        <f aca="false">D151</f>
+        <v># 2.000 TL #</v>
+      </c>
+      <c r="J148" s="41" t="str">
+        <f aca="false">D152</f>
+        <v>#   Krş #</v>
+      </c>
+      <c r="K148" s="0"/>
+      <c r="L148" s="39"/>
+      <c r="M148" s="42" t="str">
+        <f aca="false">D149</f>
+        <v># 8 #</v>
+      </c>
+      <c r="N148" s="32"/>
+      <c r="O148" s="43" t="n">
+        <f aca="false">D164</f>
+        <v>44252</v>
+      </c>
+      <c r="P148" s="44"/>
+    </row>
+    <row r="149" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="23"/>
+      <c r="B149" s="35"/>
+      <c r="C149" s="36"/>
+      <c r="D149" s="45" t="str">
+        <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!B10),"##.##0")&amp;" #"</f>
+        <v># 8 #</v>
+      </c>
+      <c r="E149" s="30"/>
+      <c r="F149" s="23"/>
+      <c r="G149" s="23"/>
+      <c r="H149" s="23"/>
+      <c r="I149" s="23"/>
+      <c r="J149" s="23"/>
+      <c r="K149" s="23"/>
+      <c r="L149" s="23"/>
+      <c r="M149" s="23"/>
+      <c r="N149" s="23"/>
+      <c r="O149" s="23"/>
+      <c r="P149" s="44"/>
+    </row>
+    <row r="150" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="23"/>
+      <c r="B150" s="35"/>
+      <c r="C150" s="36"/>
+      <c r="D150" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E150" s="30"/>
+      <c r="F150" s="47" t="str">
+        <f aca="false">"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G148,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F10&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G10&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
+        <v>   İş bu emre muharrer senedimizin mükabilinde 30 Ekim 2021 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # İkibin TL  # ödeyeceğiz. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eyleriz.</v>
+      </c>
+      <c r="G150" s="47"/>
+      <c r="H150" s="47"/>
+      <c r="I150" s="47"/>
+      <c r="J150" s="47"/>
+      <c r="K150" s="47"/>
+      <c r="L150" s="47"/>
+      <c r="M150" s="47"/>
+      <c r="N150" s="47"/>
+      <c r="O150" s="47"/>
+      <c r="P150" s="44"/>
+    </row>
+    <row r="151" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="23"/>
+      <c r="B151" s="35"/>
+      <c r="C151" s="36"/>
+      <c r="D151" s="48" t="str">
+        <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!E10),"##.##0")&amp;" TL #"</f>
+        <v># 2.000 TL #</v>
+      </c>
+      <c r="E151" s="30"/>
+      <c r="F151" s="47"/>
+      <c r="G151" s="47"/>
+      <c r="H151" s="47"/>
+      <c r="I151" s="47"/>
+      <c r="J151" s="47"/>
+      <c r="K151" s="47"/>
+      <c r="L151" s="47"/>
+      <c r="M151" s="47"/>
+      <c r="N151" s="47"/>
+      <c r="O151" s="47"/>
+      <c r="P151" s="44"/>
+    </row>
+    <row r="152" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="23"/>
+      <c r="B152" s="35"/>
+      <c r="C152" s="23"/>
+      <c r="D152" s="49" t="str">
+        <f aca="false">"# "&amp;TEXT(('Senet Taksit Giriş'!E153-INT('Senet Taksit Giriş'!E153))*100,"##.##")&amp;"  Krş #"</f>
+        <v>#   Krş #</v>
+      </c>
+      <c r="E152" s="30"/>
+      <c r="F152" s="47"/>
+      <c r="G152" s="47"/>
+      <c r="H152" s="47"/>
+      <c r="I152" s="47"/>
+      <c r="J152" s="47"/>
+      <c r="K152" s="47"/>
+      <c r="L152" s="47"/>
+      <c r="M152" s="47"/>
+      <c r="N152" s="47"/>
+      <c r="O152" s="47"/>
+      <c r="P152" s="44"/>
+    </row>
+    <row r="153" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="23"/>
+      <c r="B153" s="35"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E153" s="30"/>
+      <c r="F153" s="47"/>
+      <c r="G153" s="47"/>
+      <c r="H153" s="47"/>
+      <c r="I153" s="47"/>
+      <c r="J153" s="47"/>
+      <c r="K153" s="47"/>
+      <c r="L153" s="47"/>
+      <c r="M153" s="47"/>
+      <c r="N153" s="47"/>
+      <c r="O153" s="47"/>
+      <c r="P153" s="44"/>
+    </row>
+    <row r="154" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="23"/>
+      <c r="B154" s="51"/>
+      <c r="C154" s="23"/>
+      <c r="D154" s="52" t="str">
+        <f aca="false">$D$9</f>
+        <v>Bursa Fabrika Satış Mağazası – Adem Duman</v>
+      </c>
+      <c r="E154" s="30"/>
+      <c r="F154" s="0"/>
+      <c r="G154" s="0"/>
+      <c r="H154" s="0"/>
+      <c r="I154" s="0"/>
+      <c r="J154" s="0"/>
+      <c r="K154" s="0"/>
+      <c r="L154" s="0"/>
+      <c r="M154" s="0"/>
+      <c r="N154" s="0"/>
+      <c r="O154" s="0"/>
+      <c r="P154" s="44"/>
+    </row>
+    <row r="155" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="23"/>
+      <c r="B155" s="35"/>
+      <c r="C155" s="23"/>
+      <c r="D155" s="52"/>
+      <c r="E155" s="30"/>
+      <c r="F155" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G155" s="62" t="str">
+        <f aca="false">"İsim : "&amp;$D154</f>
+        <v>İsim : Bursa Fabrika Satış Mağazası – Adem Duman</v>
+      </c>
+      <c r="H155" s="62"/>
+      <c r="I155" s="62"/>
+      <c r="J155" s="62"/>
+      <c r="K155" s="25"/>
+      <c r="L155" s="25"/>
+      <c r="M155" s="66"/>
+      <c r="N155" s="66"/>
+      <c r="O155" s="26"/>
+      <c r="P155" s="44"/>
+    </row>
+    <row r="156" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="23"/>
+      <c r="B156" s="55"/>
+      <c r="C156" s="56"/>
+      <c r="D156" s="52"/>
+      <c r="E156" s="30"/>
+      <c r="F156" s="53"/>
+      <c r="G156" s="57" t="str">
+        <f aca="false">"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
+        <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
+      </c>
+      <c r="H156" s="57"/>
+      <c r="I156" s="57"/>
+      <c r="J156" s="57"/>
+      <c r="K156" s="57"/>
+      <c r="L156" s="23"/>
+      <c r="M156" s="23"/>
+      <c r="N156" s="23"/>
+      <c r="O156" s="44"/>
+      <c r="P156" s="44"/>
+    </row>
+    <row r="157" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="23"/>
+      <c r="B157" s="55"/>
+      <c r="C157" s="56"/>
+      <c r="D157" s="52"/>
+      <c r="E157" s="30"/>
+      <c r="F157" s="53"/>
+      <c r="G157" s="57"/>
+      <c r="H157" s="57"/>
+      <c r="I157" s="57"/>
+      <c r="J157" s="57"/>
+      <c r="K157" s="57"/>
+      <c r="L157" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M157" s="36"/>
+      <c r="N157" s="32"/>
+      <c r="O157" s="44"/>
+      <c r="P157" s="44"/>
+    </row>
+    <row r="158" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="23"/>
+      <c r="B158" s="55"/>
+      <c r="C158" s="56"/>
+      <c r="D158" s="52"/>
+      <c r="E158" s="30"/>
+      <c r="F158" s="53"/>
+      <c r="G158" s="58" t="str">
+        <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
+        <v>Vergi Dairesi : Tokat</v>
+      </c>
+      <c r="H158" s="58"/>
+      <c r="I158" s="58"/>
+      <c r="J158" s="58"/>
+      <c r="K158" s="23"/>
+      <c r="L158" s="23"/>
+      <c r="M158" s="23"/>
+      <c r="N158" s="23"/>
+      <c r="O158" s="44"/>
+      <c r="P158" s="44"/>
+    </row>
+    <row r="159" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="23"/>
+      <c r="B159" s="35"/>
+      <c r="C159" s="23"/>
+      <c r="D159" s="52"/>
+      <c r="E159" s="30"/>
+      <c r="F159" s="53"/>
+      <c r="G159" s="59" t="str">
+        <f aca="false">"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
+        <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
+      </c>
+      <c r="H159" s="59"/>
+      <c r="I159" s="59"/>
+      <c r="J159" s="59"/>
+      <c r="K159" s="60"/>
+      <c r="L159" s="60"/>
+      <c r="M159" s="60"/>
+      <c r="N159" s="60"/>
+      <c r="O159" s="61"/>
+      <c r="P159" s="44"/>
+    </row>
+    <row r="160" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="23"/>
+      <c r="B160" s="51"/>
+      <c r="C160" s="23"/>
+      <c r="D160" s="52"/>
+      <c r="E160" s="30"/>
+      <c r="F160" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G160" s="62" t="str">
+        <f aca="false">"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
+        <v>İsim Unvan : Adem Duman</v>
+      </c>
+      <c r="H160" s="62"/>
+      <c r="I160" s="62"/>
+      <c r="J160" s="62"/>
+      <c r="K160" s="25"/>
+      <c r="L160" s="63"/>
+      <c r="M160" s="25"/>
+      <c r="N160" s="25"/>
+      <c r="O160" s="26"/>
+      <c r="P160" s="44"/>
+    </row>
+    <row r="161" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="23"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="23"/>
+      <c r="D161" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E161" s="30"/>
+      <c r="F161" s="53"/>
+      <c r="G161" s="57" t="str">
+        <f aca="false">"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
+        <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
+      </c>
+      <c r="H161" s="57"/>
+      <c r="I161" s="57"/>
+      <c r="J161" s="57"/>
+      <c r="K161" s="23"/>
+      <c r="L161" s="23"/>
+      <c r="M161" s="23"/>
+      <c r="N161" s="23"/>
+      <c r="O161" s="44"/>
+      <c r="P161" s="44"/>
+    </row>
+    <row r="162" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A162" s="23"/>
+      <c r="B162" s="51"/>
+      <c r="C162" s="23"/>
+      <c r="D162" s="64" t="n">
+        <f aca="false">'Senet Taksit Giriş'!D10</f>
+        <v>44499</v>
+      </c>
+      <c r="E162" s="30"/>
+      <c r="F162" s="53"/>
+      <c r="G162" s="57"/>
+      <c r="H162" s="57"/>
+      <c r="I162" s="57"/>
+      <c r="J162" s="57"/>
+      <c r="K162" s="23"/>
+      <c r="L162" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M162" s="23"/>
+      <c r="N162" s="23"/>
+      <c r="O162" s="44"/>
+      <c r="P162" s="44"/>
+    </row>
+    <row r="163" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="23"/>
+      <c r="B163" s="35"/>
+      <c r="C163" s="23"/>
+      <c r="D163" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E163" s="30"/>
+      <c r="F163" s="53"/>
+      <c r="G163" s="58" t="str">
+        <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
+        <v>Vergi Dairesi : Tokat</v>
+      </c>
+      <c r="H163" s="58"/>
+      <c r="I163" s="58"/>
+      <c r="J163" s="58"/>
+      <c r="K163" s="23"/>
+      <c r="L163" s="23"/>
+      <c r="M163" s="23"/>
+      <c r="N163" s="23"/>
+      <c r="O163" s="44"/>
+      <c r="P163" s="44"/>
+    </row>
+    <row r="164" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A164" s="23"/>
+      <c r="B164" s="35"/>
+      <c r="C164" s="23"/>
+      <c r="D164" s="64" t="n">
+        <f aca="false">'Senet Taksit Giriş'!C10</f>
+        <v>44252</v>
+      </c>
+      <c r="E164" s="30"/>
+      <c r="F164" s="53"/>
+      <c r="G164" s="59" t="str">
+        <f aca="false">"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
+        <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
+      </c>
+      <c r="H164" s="59"/>
+      <c r="I164" s="59"/>
+      <c r="J164" s="59"/>
+      <c r="K164" s="60"/>
+      <c r="L164" s="60"/>
+      <c r="M164" s="60"/>
+      <c r="N164" s="60"/>
+      <c r="O164" s="61"/>
+      <c r="P164" s="44"/>
+    </row>
+    <row r="165" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A165" s="23"/>
+      <c r="B165" s="65"/>
+      <c r="C165" s="60"/>
+      <c r="D165" s="60"/>
+      <c r="E165" s="60"/>
+      <c r="F165" s="60"/>
+      <c r="G165" s="60"/>
+      <c r="H165" s="60"/>
+      <c r="I165" s="60"/>
+      <c r="J165" s="60"/>
+      <c r="K165" s="60"/>
+      <c r="L165" s="60"/>
+      <c r="M165" s="60"/>
+      <c r="N165" s="60"/>
+      <c r="O165" s="60"/>
+      <c r="P165" s="61"/>
+    </row>
+    <row r="167" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="23"/>
+      <c r="B167" s="24"/>
+      <c r="C167" s="25"/>
+      <c r="D167" s="25"/>
+      <c r="E167" s="25"/>
+      <c r="F167" s="25"/>
+      <c r="G167" s="25"/>
+      <c r="H167" s="25"/>
+      <c r="I167" s="25"/>
+      <c r="J167" s="25"/>
+      <c r="K167" s="25"/>
+      <c r="L167" s="25"/>
+      <c r="M167" s="25"/>
+      <c r="N167" s="25"/>
+      <c r="O167" s="25"/>
+      <c r="P167" s="26"/>
+    </row>
+    <row r="168" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="27"/>
+      <c r="B168" s="28"/>
+      <c r="C168" s="27"/>
+      <c r="D168" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E168" s="30" t="str">
+        <f aca="false">$D175 &amp;"    - Taksit No: " &amp; $D170&amp;"  "</f>
+        <v>Bursa Fabrika Satış Mağazası – Adem Duman    - Taksit No: # 9 #  </v>
+      </c>
+      <c r="F168" s="27"/>
+      <c r="G168" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H168" s="27"/>
+      <c r="I168" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J168" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K168" s="0"/>
+      <c r="L168" s="27"/>
+      <c r="M168" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="N168" s="32"/>
+      <c r="O168" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="P168" s="33"/>
+    </row>
+    <row r="169" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A169" s="23"/>
+      <c r="B169" s="35"/>
+      <c r="C169" s="36"/>
+      <c r="D169" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E169" s="30"/>
+      <c r="F169" s="23"/>
+      <c r="G169" s="38" t="n">
+        <f aca="false">D183</f>
+        <v>44530</v>
+      </c>
+      <c r="H169" s="39"/>
+      <c r="I169" s="40" t="str">
+        <f aca="false">D172</f>
+        <v># 2.000 TL #</v>
+      </c>
+      <c r="J169" s="41" t="str">
+        <f aca="false">D173</f>
+        <v>#   Krş #</v>
+      </c>
+      <c r="K169" s="0"/>
+      <c r="L169" s="39"/>
+      <c r="M169" s="42" t="str">
+        <f aca="false">D170</f>
+        <v># 9 #</v>
+      </c>
+      <c r="N169" s="32"/>
+      <c r="O169" s="43" t="n">
+        <f aca="false">D185</f>
+        <v>44252</v>
+      </c>
+      <c r="P169" s="44"/>
+    </row>
+    <row r="170" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="23"/>
+      <c r="B170" s="35"/>
+      <c r="C170" s="36"/>
+      <c r="D170" s="45" t="str">
+        <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!B11),"##.##0")&amp;" #"</f>
+        <v># 9 #</v>
+      </c>
+      <c r="E170" s="30"/>
+      <c r="F170" s="23"/>
+      <c r="G170" s="23"/>
+      <c r="H170" s="23"/>
+      <c r="I170" s="23"/>
+      <c r="J170" s="23"/>
+      <c r="K170" s="23"/>
+      <c r="L170" s="23"/>
+      <c r="M170" s="23"/>
+      <c r="N170" s="23"/>
+      <c r="O170" s="23"/>
+      <c r="P170" s="44"/>
+    </row>
+    <row r="171" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A171" s="23"/>
+      <c r="B171" s="35"/>
+      <c r="C171" s="36"/>
+      <c r="D171" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E171" s="30"/>
+      <c r="F171" s="47" t="str">
+        <f aca="false">"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G169,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F11&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G11&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
+        <v>   İş bu emre muharrer senedimizin mükabilinde 30 Kasım 2021 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # İkibin TL  # ödeyeceğiz. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eyleriz.</v>
+      </c>
+      <c r="G171" s="47"/>
+      <c r="H171" s="47"/>
+      <c r="I171" s="47"/>
+      <c r="J171" s="47"/>
+      <c r="K171" s="47"/>
+      <c r="L171" s="47"/>
+      <c r="M171" s="47"/>
+      <c r="N171" s="47"/>
+      <c r="O171" s="47"/>
+      <c r="P171" s="44"/>
+    </row>
+    <row r="172" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A172" s="23"/>
+      <c r="B172" s="35"/>
+      <c r="C172" s="36"/>
+      <c r="D172" s="48" t="str">
+        <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!E11),"##.##0")&amp;" TL #"</f>
+        <v># 2.000 TL #</v>
+      </c>
+      <c r="E172" s="30"/>
+      <c r="F172" s="47"/>
+      <c r="G172" s="47"/>
+      <c r="H172" s="47"/>
+      <c r="I172" s="47"/>
+      <c r="J172" s="47"/>
+      <c r="K172" s="47"/>
+      <c r="L172" s="47"/>
+      <c r="M172" s="47"/>
+      <c r="N172" s="47"/>
+      <c r="O172" s="47"/>
+      <c r="P172" s="44"/>
+    </row>
+    <row r="173" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A173" s="23"/>
+      <c r="B173" s="35"/>
+      <c r="C173" s="23"/>
+      <c r="D173" s="49" t="str">
+        <f aca="false">"# "&amp;TEXT(('Senet Taksit Giriş'!E174-INT('Senet Taksit Giriş'!E174))*100,"##.##")&amp;"  Krş #"</f>
+        <v>#   Krş #</v>
+      </c>
+      <c r="E173" s="30"/>
+      <c r="F173" s="47"/>
+      <c r="G173" s="47"/>
+      <c r="H173" s="47"/>
+      <c r="I173" s="47"/>
+      <c r="J173" s="47"/>
+      <c r="K173" s="47"/>
+      <c r="L173" s="47"/>
+      <c r="M173" s="47"/>
+      <c r="N173" s="47"/>
+      <c r="O173" s="47"/>
+      <c r="P173" s="44"/>
+    </row>
+    <row r="174" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="23"/>
+      <c r="B174" s="35"/>
+      <c r="C174" s="23"/>
+      <c r="D174" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E174" s="30"/>
+      <c r="F174" s="47"/>
+      <c r="G174" s="47"/>
+      <c r="H174" s="47"/>
+      <c r="I174" s="47"/>
+      <c r="J174" s="47"/>
+      <c r="K174" s="47"/>
+      <c r="L174" s="47"/>
+      <c r="M174" s="47"/>
+      <c r="N174" s="47"/>
+      <c r="O174" s="47"/>
+      <c r="P174" s="44"/>
+    </row>
+    <row r="175" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="23"/>
+      <c r="B175" s="51"/>
+      <c r="C175" s="23"/>
+      <c r="D175" s="52" t="str">
+        <f aca="false">$D$9</f>
+        <v>Bursa Fabrika Satış Mağazası – Adem Duman</v>
+      </c>
+      <c r="E175" s="30"/>
+      <c r="F175" s="0"/>
+      <c r="G175" s="0"/>
+      <c r="H175" s="0"/>
+      <c r="I175" s="0"/>
+      <c r="J175" s="0"/>
+      <c r="K175" s="0"/>
+      <c r="L175" s="0"/>
+      <c r="M175" s="0"/>
+      <c r="N175" s="0"/>
+      <c r="O175" s="0"/>
+      <c r="P175" s="44"/>
+    </row>
+    <row r="176" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="23"/>
+      <c r="B176" s="35"/>
+      <c r="C176" s="23"/>
+      <c r="D176" s="52"/>
+      <c r="E176" s="30"/>
+      <c r="F176" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G176" s="62" t="str">
+        <f aca="false">"İsim : "&amp;$D175</f>
+        <v>İsim : Bursa Fabrika Satış Mağazası – Adem Duman</v>
+      </c>
+      <c r="H176" s="62"/>
+      <c r="I176" s="62"/>
+      <c r="J176" s="62"/>
+      <c r="K176" s="25"/>
+      <c r="L176" s="25"/>
+      <c r="M176" s="66"/>
+      <c r="N176" s="66"/>
+      <c r="O176" s="26"/>
+      <c r="P176" s="44"/>
+    </row>
+    <row r="177" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="23"/>
+      <c r="B177" s="55"/>
+      <c r="C177" s="56"/>
+      <c r="D177" s="52"/>
+      <c r="E177" s="30"/>
+      <c r="F177" s="53"/>
+      <c r="G177" s="57" t="str">
+        <f aca="false">"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
+        <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
+      </c>
+      <c r="H177" s="57"/>
+      <c r="I177" s="57"/>
+      <c r="J177" s="57"/>
+      <c r="K177" s="57"/>
+      <c r="L177" s="23"/>
+      <c r="M177" s="23"/>
+      <c r="N177" s="23"/>
+      <c r="O177" s="44"/>
+      <c r="P177" s="44"/>
+    </row>
+    <row r="178" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A178" s="23"/>
+      <c r="B178" s="55"/>
+      <c r="C178" s="56"/>
+      <c r="D178" s="52"/>
+      <c r="E178" s="30"/>
+      <c r="F178" s="53"/>
+      <c r="G178" s="57"/>
+      <c r="H178" s="57"/>
+      <c r="I178" s="57"/>
+      <c r="J178" s="57"/>
+      <c r="K178" s="57"/>
+      <c r="L178" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M178" s="36"/>
+      <c r="N178" s="32"/>
+      <c r="O178" s="44"/>
+      <c r="P178" s="44"/>
+    </row>
+    <row r="179" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A179" s="23"/>
+      <c r="B179" s="55"/>
+      <c r="C179" s="56"/>
+      <c r="D179" s="52"/>
+      <c r="E179" s="30"/>
+      <c r="F179" s="53"/>
+      <c r="G179" s="58" t="str">
+        <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
+        <v>Vergi Dairesi : Tokat</v>
+      </c>
+      <c r="H179" s="58"/>
+      <c r="I179" s="58"/>
+      <c r="J179" s="58"/>
+      <c r="K179" s="23"/>
+      <c r="L179" s="23"/>
+      <c r="M179" s="23"/>
+      <c r="N179" s="23"/>
+      <c r="O179" s="44"/>
+      <c r="P179" s="44"/>
+    </row>
+    <row r="180" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="23"/>
+      <c r="B180" s="35"/>
+      <c r="C180" s="23"/>
+      <c r="D180" s="52"/>
+      <c r="E180" s="30"/>
+      <c r="F180" s="53"/>
+      <c r="G180" s="59" t="str">
+        <f aca="false">"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
+        <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
+      </c>
+      <c r="H180" s="59"/>
+      <c r="I180" s="59"/>
+      <c r="J180" s="59"/>
+      <c r="K180" s="60"/>
+      <c r="L180" s="60"/>
+      <c r="M180" s="60"/>
+      <c r="N180" s="60"/>
+      <c r="O180" s="61"/>
+      <c r="P180" s="44"/>
+    </row>
+    <row r="181" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="23"/>
+      <c r="B181" s="51"/>
+      <c r="C181" s="23"/>
+      <c r="D181" s="52"/>
+      <c r="E181" s="30"/>
+      <c r="F181" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G181" s="62" t="str">
+        <f aca="false">"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
+        <v>İsim Unvan : Adem Duman</v>
+      </c>
+      <c r="H181" s="62"/>
+      <c r="I181" s="62"/>
+      <c r="J181" s="62"/>
+      <c r="K181" s="25"/>
+      <c r="L181" s="63"/>
+      <c r="M181" s="25"/>
+      <c r="N181" s="25"/>
+      <c r="O181" s="26"/>
+      <c r="P181" s="44"/>
+    </row>
+    <row r="182" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="23"/>
+      <c r="B182" s="35"/>
+      <c r="C182" s="23"/>
+      <c r="D182" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E182" s="30"/>
+      <c r="F182" s="53"/>
+      <c r="G182" s="57" t="str">
+        <f aca="false">"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
+        <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
+      </c>
+      <c r="H182" s="57"/>
+      <c r="I182" s="57"/>
+      <c r="J182" s="57"/>
+      <c r="K182" s="23"/>
+      <c r="L182" s="23"/>
+      <c r="M182" s="23"/>
+      <c r="N182" s="23"/>
+      <c r="O182" s="44"/>
+      <c r="P182" s="44"/>
+    </row>
+    <row r="183" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="23"/>
+      <c r="B183" s="51"/>
+      <c r="C183" s="23"/>
+      <c r="D183" s="64" t="n">
+        <f aca="false">'Senet Taksit Giriş'!D11</f>
+        <v>44530</v>
+      </c>
+      <c r="E183" s="30"/>
+      <c r="F183" s="53"/>
+      <c r="G183" s="57"/>
+      <c r="H183" s="57"/>
+      <c r="I183" s="57"/>
+      <c r="J183" s="57"/>
+      <c r="K183" s="23"/>
+      <c r="L183" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M183" s="23"/>
+      <c r="N183" s="23"/>
+      <c r="O183" s="44"/>
+      <c r="P183" s="44"/>
+    </row>
+    <row r="184" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A184" s="23"/>
+      <c r="B184" s="35"/>
+      <c r="C184" s="23"/>
+      <c r="D184" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E184" s="30"/>
+      <c r="F184" s="53"/>
+      <c r="G184" s="58" t="str">
+        <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
+        <v>Vergi Dairesi : Tokat</v>
+      </c>
+      <c r="H184" s="58"/>
+      <c r="I184" s="58"/>
+      <c r="J184" s="58"/>
+      <c r="K184" s="23"/>
+      <c r="L184" s="23"/>
+      <c r="M184" s="23"/>
+      <c r="N184" s="23"/>
+      <c r="O184" s="44"/>
+      <c r="P184" s="44"/>
+    </row>
+    <row r="185" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A185" s="23"/>
+      <c r="B185" s="35"/>
+      <c r="C185" s="23"/>
+      <c r="D185" s="64" t="n">
+        <f aca="false">'Senet Taksit Giriş'!C11</f>
+        <v>44252</v>
+      </c>
+      <c r="E185" s="30"/>
+      <c r="F185" s="53"/>
+      <c r="G185" s="59" t="str">
+        <f aca="false">"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
+        <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
+      </c>
+      <c r="H185" s="59"/>
+      <c r="I185" s="59"/>
+      <c r="J185" s="59"/>
+      <c r="K185" s="60"/>
+      <c r="L185" s="60"/>
+      <c r="M185" s="60"/>
+      <c r="N185" s="60"/>
+      <c r="O185" s="61"/>
+      <c r="P185" s="44"/>
+    </row>
+    <row r="186" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A186" s="23"/>
+      <c r="B186" s="65"/>
+      <c r="C186" s="60"/>
+      <c r="D186" s="60"/>
+      <c r="E186" s="60"/>
+      <c r="F186" s="60"/>
+      <c r="G186" s="60"/>
+      <c r="H186" s="60"/>
+      <c r="I186" s="60"/>
+      <c r="J186" s="60"/>
+      <c r="K186" s="60"/>
+      <c r="L186" s="60"/>
+      <c r="M186" s="60"/>
+      <c r="N186" s="60"/>
+      <c r="O186" s="60"/>
+      <c r="P186" s="61"/>
+    </row>
+    <row r="187" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A187" s="23"/>
+      <c r="B187" s="24"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="25"/>
+      <c r="E187" s="25"/>
+      <c r="F187" s="25"/>
+      <c r="G187" s="25"/>
+      <c r="H187" s="25"/>
+      <c r="I187" s="25"/>
+      <c r="J187" s="25"/>
+      <c r="K187" s="25"/>
+      <c r="L187" s="25"/>
+      <c r="M187" s="25"/>
+      <c r="N187" s="25"/>
+      <c r="O187" s="25"/>
+      <c r="P187" s="26"/>
+    </row>
+    <row r="188" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A188" s="27"/>
+      <c r="B188" s="28"/>
+      <c r="C188" s="27"/>
+      <c r="D188" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E188" s="30" t="str">
+        <f aca="false">$D195 &amp;"    - Taksit No: " &amp; $D190&amp;"  "</f>
+        <v>Bursa Fabrika Satış Mağazası – Adem Duman    - Taksit No: # 10 #  </v>
+      </c>
+      <c r="F188" s="27"/>
+      <c r="G188" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H188" s="27"/>
+      <c r="I188" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J188" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K188" s="0"/>
+      <c r="L188" s="27"/>
+      <c r="M188" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="N188" s="32"/>
+      <c r="O188" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="P188" s="33"/>
+    </row>
+    <row r="189" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A189" s="23"/>
+      <c r="B189" s="35"/>
+      <c r="C189" s="36"/>
+      <c r="D189" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E189" s="30"/>
+      <c r="F189" s="23"/>
+      <c r="G189" s="38" t="n">
+        <f aca="false">D203</f>
+        <v>44560</v>
+      </c>
+      <c r="H189" s="39"/>
+      <c r="I189" s="40" t="str">
+        <f aca="false">D192</f>
+        <v># 2.000 TL #</v>
+      </c>
+      <c r="J189" s="41" t="str">
+        <f aca="false">D193</f>
+        <v>#   Krş #</v>
+      </c>
+      <c r="K189" s="0"/>
+      <c r="L189" s="39"/>
+      <c r="M189" s="42" t="str">
+        <f aca="false">D190</f>
+        <v># 10 #</v>
+      </c>
+      <c r="N189" s="32"/>
+      <c r="O189" s="43" t="n">
+        <f aca="false">D205</f>
+        <v>44252</v>
+      </c>
+      <c r="P189" s="44"/>
+    </row>
+    <row r="190" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A190" s="23"/>
+      <c r="B190" s="35"/>
+      <c r="C190" s="36"/>
+      <c r="D190" s="45" t="str">
+        <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!B12),"##.##0")&amp;" #"</f>
+        <v># 10 #</v>
+      </c>
+      <c r="E190" s="30"/>
+      <c r="F190" s="23"/>
+      <c r="G190" s="23"/>
+      <c r="H190" s="23"/>
+      <c r="I190" s="23"/>
+      <c r="J190" s="23"/>
+      <c r="K190" s="23"/>
+      <c r="L190" s="23"/>
+      <c r="M190" s="23"/>
+      <c r="N190" s="23"/>
+      <c r="O190" s="23"/>
+      <c r="P190" s="44"/>
+    </row>
+    <row r="191" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A191" s="23"/>
+      <c r="B191" s="35"/>
+      <c r="C191" s="36"/>
+      <c r="D191" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E191" s="30"/>
+      <c r="F191" s="47" t="str">
+        <f aca="false">"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G189,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F12&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G12&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
+        <v>   İş bu emre muharrer senedimizin mükabilinde 30 Aralık 2021 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # İkibin TL  # ödeyeceğiz. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eyleriz.</v>
+      </c>
+      <c r="G191" s="47"/>
+      <c r="H191" s="47"/>
+      <c r="I191" s="47"/>
+      <c r="J191" s="47"/>
+      <c r="K191" s="47"/>
+      <c r="L191" s="47"/>
+      <c r="M191" s="47"/>
+      <c r="N191" s="47"/>
+      <c r="O191" s="47"/>
+      <c r="P191" s="44"/>
+    </row>
+    <row r="192" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A192" s="23"/>
+      <c r="B192" s="35"/>
+      <c r="C192" s="36"/>
+      <c r="D192" s="48" t="str">
+        <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!E12),"##.##0")&amp;" TL #"</f>
+        <v># 2.000 TL #</v>
+      </c>
+      <c r="E192" s="30"/>
+      <c r="F192" s="47"/>
+      <c r="G192" s="47"/>
+      <c r="H192" s="47"/>
+      <c r="I192" s="47"/>
+      <c r="J192" s="47"/>
+      <c r="K192" s="47"/>
+      <c r="L192" s="47"/>
+      <c r="M192" s="47"/>
+      <c r="N192" s="47"/>
+      <c r="O192" s="47"/>
+      <c r="P192" s="44"/>
+    </row>
+    <row r="193" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A193" s="23"/>
+      <c r="B193" s="35"/>
+      <c r="C193" s="23"/>
+      <c r="D193" s="49" t="str">
+        <f aca="false">"# "&amp;TEXT(('Senet Taksit Giriş'!E195-INT('Senet Taksit Giriş'!E195))*100,"##.##")&amp;"  Krş #"</f>
+        <v>#   Krş #</v>
+      </c>
+      <c r="E193" s="30"/>
+      <c r="F193" s="47"/>
+      <c r="G193" s="47"/>
+      <c r="H193" s="47"/>
+      <c r="I193" s="47"/>
+      <c r="J193" s="47"/>
+      <c r="K193" s="47"/>
+      <c r="L193" s="47"/>
+      <c r="M193" s="47"/>
+      <c r="N193" s="47"/>
+      <c r="O193" s="47"/>
+      <c r="P193" s="44"/>
+    </row>
+    <row r="194" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A194" s="23"/>
+      <c r="B194" s="35"/>
+      <c r="C194" s="23"/>
+      <c r="D194" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E194" s="30"/>
+      <c r="F194" s="47"/>
+      <c r="G194" s="47"/>
+      <c r="H194" s="47"/>
+      <c r="I194" s="47"/>
+      <c r="J194" s="47"/>
+      <c r="K194" s="47"/>
+      <c r="L194" s="47"/>
+      <c r="M194" s="47"/>
+      <c r="N194" s="47"/>
+      <c r="O194" s="47"/>
+      <c r="P194" s="44"/>
+    </row>
+    <row r="195" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A195" s="23"/>
+      <c r="B195" s="51"/>
+      <c r="C195" s="23"/>
+      <c r="D195" s="52" t="str">
+        <f aca="false">$D$9</f>
+        <v>Bursa Fabrika Satış Mağazası – Adem Duman</v>
+      </c>
+      <c r="E195" s="30"/>
+      <c r="F195" s="0"/>
+      <c r="G195" s="0"/>
+      <c r="H195" s="0"/>
+      <c r="I195" s="0"/>
+      <c r="J195" s="0"/>
+      <c r="K195" s="0"/>
+      <c r="L195" s="0"/>
+      <c r="M195" s="0"/>
+      <c r="N195" s="0"/>
+      <c r="O195" s="0"/>
+      <c r="P195" s="44"/>
+    </row>
+    <row r="196" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A196" s="23"/>
+      <c r="B196" s="35"/>
+      <c r="C196" s="23"/>
+      <c r="D196" s="52"/>
+      <c r="E196" s="30"/>
+      <c r="F196" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G196" s="62" t="str">
+        <f aca="false">"İsim : "&amp;$D195</f>
+        <v>İsim : Bursa Fabrika Satış Mağazası – Adem Duman</v>
+      </c>
+      <c r="H196" s="62"/>
+      <c r="I196" s="62"/>
+      <c r="J196" s="62"/>
+      <c r="K196" s="25"/>
+      <c r="L196" s="25"/>
+      <c r="M196" s="66"/>
+      <c r="N196" s="66"/>
+      <c r="O196" s="26"/>
+      <c r="P196" s="44"/>
+    </row>
+    <row r="197" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A197" s="23"/>
+      <c r="B197" s="55"/>
+      <c r="C197" s="56"/>
+      <c r="D197" s="52"/>
+      <c r="E197" s="30"/>
+      <c r="F197" s="53"/>
+      <c r="G197" s="57" t="str">
+        <f aca="false">"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
+        <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
+      </c>
+      <c r="H197" s="57"/>
+      <c r="I197" s="57"/>
+      <c r="J197" s="57"/>
+      <c r="K197" s="57"/>
+      <c r="L197" s="23"/>
+      <c r="M197" s="23"/>
+      <c r="N197" s="23"/>
+      <c r="O197" s="44"/>
+      <c r="P197" s="44"/>
+    </row>
+    <row r="198" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A198" s="23"/>
+      <c r="B198" s="55"/>
+      <c r="C198" s="56"/>
+      <c r="D198" s="52"/>
+      <c r="E198" s="30"/>
+      <c r="F198" s="53"/>
+      <c r="G198" s="57"/>
+      <c r="H198" s="57"/>
+      <c r="I198" s="57"/>
+      <c r="J198" s="57"/>
+      <c r="K198" s="57"/>
+      <c r="L198" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M198" s="36"/>
+      <c r="N198" s="32"/>
+      <c r="O198" s="44"/>
+      <c r="P198" s="44"/>
+    </row>
+    <row r="199" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A199" s="23"/>
+      <c r="B199" s="55"/>
+      <c r="C199" s="56"/>
+      <c r="D199" s="52"/>
+      <c r="E199" s="30"/>
+      <c r="F199" s="53"/>
+      <c r="G199" s="58" t="str">
+        <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
+        <v>Vergi Dairesi : Tokat</v>
+      </c>
+      <c r="H199" s="58"/>
+      <c r="I199" s="58"/>
+      <c r="J199" s="58"/>
+      <c r="K199" s="23"/>
+      <c r="L199" s="23"/>
+      <c r="M199" s="23"/>
+      <c r="N199" s="23"/>
+      <c r="O199" s="44"/>
+      <c r="P199" s="44"/>
+    </row>
+    <row r="200" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="23"/>
+      <c r="B200" s="35"/>
+      <c r="C200" s="23"/>
+      <c r="D200" s="52"/>
+      <c r="E200" s="30"/>
+      <c r="F200" s="53"/>
+      <c r="G200" s="59" t="str">
+        <f aca="false">"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
+        <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
+      </c>
+      <c r="H200" s="59"/>
+      <c r="I200" s="59"/>
+      <c r="J200" s="59"/>
+      <c r="K200" s="60"/>
+      <c r="L200" s="60"/>
+      <c r="M200" s="60"/>
+      <c r="N200" s="60"/>
+      <c r="O200" s="61"/>
+      <c r="P200" s="44"/>
+    </row>
+    <row r="201" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A201" s="23"/>
+      <c r="B201" s="51"/>
+      <c r="C201" s="23"/>
+      <c r="D201" s="52"/>
+      <c r="E201" s="30"/>
+      <c r="F201" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G201" s="62" t="str">
+        <f aca="false">"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
+        <v>İsim Unvan : Adem Duman</v>
+      </c>
+      <c r="H201" s="62"/>
+      <c r="I201" s="62"/>
+      <c r="J201" s="62"/>
+      <c r="K201" s="25"/>
+      <c r="L201" s="63"/>
+      <c r="M201" s="25"/>
+      <c r="N201" s="25"/>
+      <c r="O201" s="26"/>
+      <c r="P201" s="44"/>
+    </row>
+    <row r="202" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A202" s="23"/>
+      <c r="B202" s="35"/>
+      <c r="C202" s="23"/>
+      <c r="D202" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E202" s="30"/>
+      <c r="F202" s="53"/>
+      <c r="G202" s="57" t="str">
+        <f aca="false">"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
+        <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
+      </c>
+      <c r="H202" s="57"/>
+      <c r="I202" s="57"/>
+      <c r="J202" s="57"/>
+      <c r="K202" s="23"/>
+      <c r="L202" s="23"/>
+      <c r="M202" s="23"/>
+      <c r="N202" s="23"/>
+      <c r="O202" s="44"/>
+      <c r="P202" s="44"/>
+    </row>
+    <row r="203" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A203" s="23"/>
+      <c r="B203" s="51"/>
+      <c r="C203" s="23"/>
+      <c r="D203" s="64" t="n">
+        <f aca="false">'Senet Taksit Giriş'!D12</f>
+        <v>44560</v>
+      </c>
+      <c r="E203" s="30"/>
+      <c r="F203" s="53"/>
+      <c r="G203" s="57"/>
+      <c r="H203" s="57"/>
+      <c r="I203" s="57"/>
+      <c r="J203" s="57"/>
+      <c r="K203" s="23"/>
+      <c r="L203" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M203" s="23"/>
+      <c r="N203" s="23"/>
+      <c r="O203" s="44"/>
+      <c r="P203" s="44"/>
+    </row>
+    <row r="204" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A204" s="23"/>
+      <c r="B204" s="35"/>
+      <c r="C204" s="23"/>
+      <c r="D204" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E204" s="30"/>
+      <c r="F204" s="53"/>
+      <c r="G204" s="58" t="str">
+        <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
+        <v>Vergi Dairesi : Tokat</v>
+      </c>
+      <c r="H204" s="58"/>
+      <c r="I204" s="58"/>
+      <c r="J204" s="58"/>
+      <c r="K204" s="23"/>
+      <c r="L204" s="23"/>
+      <c r="M204" s="23"/>
+      <c r="N204" s="23"/>
+      <c r="O204" s="44"/>
+      <c r="P204" s="44"/>
+    </row>
+    <row r="205" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A205" s="23"/>
+      <c r="B205" s="35"/>
+      <c r="C205" s="23"/>
+      <c r="D205" s="64" t="n">
+        <f aca="false">'Senet Taksit Giriş'!C12</f>
+        <v>44252</v>
+      </c>
+      <c r="E205" s="30"/>
+      <c r="F205" s="53"/>
+      <c r="G205" s="59" t="str">
+        <f aca="false">"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
+        <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
+      </c>
+      <c r="H205" s="59"/>
+      <c r="I205" s="59"/>
+      <c r="J205" s="59"/>
+      <c r="K205" s="60"/>
+      <c r="L205" s="60"/>
+      <c r="M205" s="60"/>
+      <c r="N205" s="60"/>
+      <c r="O205" s="61"/>
+      <c r="P205" s="44"/>
+    </row>
+    <row r="206" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A206" s="23"/>
+      <c r="B206" s="65"/>
+      <c r="C206" s="60"/>
+      <c r="D206" s="60"/>
+      <c r="E206" s="60"/>
+      <c r="F206" s="60"/>
+      <c r="G206" s="60"/>
+      <c r="H206" s="60"/>
+      <c r="I206" s="60"/>
+      <c r="J206" s="60"/>
+      <c r="K206" s="60"/>
+      <c r="L206" s="60"/>
+      <c r="M206" s="60"/>
+      <c r="N206" s="60"/>
+      <c r="O206" s="60"/>
+      <c r="P206" s="61"/>
+    </row>
+    <row r="208" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A208" s="23"/>
+      <c r="B208" s="24"/>
+      <c r="C208" s="25"/>
+      <c r="D208" s="25"/>
+      <c r="E208" s="25"/>
+      <c r="F208" s="25"/>
+      <c r="G208" s="25"/>
+      <c r="H208" s="25"/>
+      <c r="I208" s="25"/>
+      <c r="J208" s="25"/>
+      <c r="K208" s="25"/>
+      <c r="L208" s="25"/>
+      <c r="M208" s="25"/>
+      <c r="N208" s="25"/>
+      <c r="O208" s="25"/>
+      <c r="P208" s="26"/>
+    </row>
+    <row r="209" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A209" s="27"/>
+      <c r="B209" s="28"/>
+      <c r="C209" s="27"/>
+      <c r="D209" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E209" s="30" t="str">
+        <f aca="false">$D216 &amp;"    - Taksit No: " &amp; $D211&amp;"  "</f>
+        <v>Bursa Fabrika Satış Mağazası – Adem Duman    - Taksit No: # 11 #  </v>
+      </c>
+      <c r="F209" s="27"/>
+      <c r="G209" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H209" s="27"/>
+      <c r="I209" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J209" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K209" s="0"/>
+      <c r="L209" s="27"/>
+      <c r="M209" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="N209" s="32"/>
+      <c r="O209" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="P209" s="33"/>
+    </row>
+    <row r="210" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A210" s="23"/>
+      <c r="B210" s="35"/>
+      <c r="C210" s="36"/>
+      <c r="D210" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E210" s="30"/>
+      <c r="F210" s="23"/>
+      <c r="G210" s="38" t="n">
+        <f aca="false">D224</f>
+        <v>44591</v>
+      </c>
+      <c r="H210" s="39"/>
+      <c r="I210" s="40" t="str">
+        <f aca="false">D213</f>
+        <v># 2.000 TL #</v>
+      </c>
+      <c r="J210" s="41" t="str">
+        <f aca="false">D214</f>
+        <v>#   Krş #</v>
+      </c>
+      <c r="K210" s="0"/>
+      <c r="L210" s="39"/>
+      <c r="M210" s="42" t="str">
+        <f aca="false">D211</f>
+        <v># 11 #</v>
+      </c>
+      <c r="N210" s="32"/>
+      <c r="O210" s="43" t="n">
+        <f aca="false">D226</f>
+        <v>44252</v>
+      </c>
+      <c r="P210" s="44"/>
+    </row>
+    <row r="211" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A211" s="23"/>
+      <c r="B211" s="35"/>
+      <c r="C211" s="36"/>
+      <c r="D211" s="45" t="str">
+        <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!B13),"##.##0")&amp;" #"</f>
+        <v># 11 #</v>
+      </c>
+      <c r="E211" s="30"/>
+      <c r="F211" s="23"/>
+      <c r="G211" s="23"/>
+      <c r="H211" s="23"/>
+      <c r="I211" s="23"/>
+      <c r="J211" s="23"/>
+      <c r="K211" s="23"/>
+      <c r="L211" s="23"/>
+      <c r="M211" s="23"/>
+      <c r="N211" s="23"/>
+      <c r="O211" s="23"/>
+      <c r="P211" s="44"/>
+    </row>
+    <row r="212" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A212" s="23"/>
+      <c r="B212" s="35"/>
+      <c r="C212" s="36"/>
+      <c r="D212" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E212" s="30"/>
+      <c r="F212" s="47" t="str">
+        <f aca="false">"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G210,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F13&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G13&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
+        <v>   İş bu emre muharrer senedimizin mükabilinde 30 Ocak 2022 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # İkibin TL  # ödeyeceğiz. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eyleriz.</v>
+      </c>
+      <c r="G212" s="47"/>
+      <c r="H212" s="47"/>
+      <c r="I212" s="47"/>
+      <c r="J212" s="47"/>
+      <c r="K212" s="47"/>
+      <c r="L212" s="47"/>
+      <c r="M212" s="47"/>
+      <c r="N212" s="47"/>
+      <c r="O212" s="47"/>
+      <c r="P212" s="44"/>
+    </row>
+    <row r="213" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A213" s="23"/>
+      <c r="B213" s="35"/>
+      <c r="C213" s="36"/>
+      <c r="D213" s="48" t="str">
+        <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!E13),"##.##0")&amp;" TL #"</f>
+        <v># 2.000 TL #</v>
+      </c>
+      <c r="E213" s="30"/>
+      <c r="F213" s="47"/>
+      <c r="G213" s="47"/>
+      <c r="H213" s="47"/>
+      <c r="I213" s="47"/>
+      <c r="J213" s="47"/>
+      <c r="K213" s="47"/>
+      <c r="L213" s="47"/>
+      <c r="M213" s="47"/>
+      <c r="N213" s="47"/>
+      <c r="O213" s="47"/>
+      <c r="P213" s="44"/>
+    </row>
+    <row r="214" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A214" s="23"/>
+      <c r="B214" s="35"/>
+      <c r="C214" s="23"/>
+      <c r="D214" s="49" t="str">
+        <f aca="false">"# "&amp;TEXT(('Senet Taksit Giriş'!E216-INT('Senet Taksit Giriş'!E216))*100,"##.##")&amp;"  Krş #"</f>
+        <v>#   Krş #</v>
+      </c>
+      <c r="E214" s="30"/>
+      <c r="F214" s="47"/>
+      <c r="G214" s="47"/>
+      <c r="H214" s="47"/>
+      <c r="I214" s="47"/>
+      <c r="J214" s="47"/>
+      <c r="K214" s="47"/>
+      <c r="L214" s="47"/>
+      <c r="M214" s="47"/>
+      <c r="N214" s="47"/>
+      <c r="O214" s="47"/>
+      <c r="P214" s="44"/>
+    </row>
+    <row r="215" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A215" s="23"/>
+      <c r="B215" s="35"/>
+      <c r="C215" s="23"/>
+      <c r="D215" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E215" s="30"/>
+      <c r="F215" s="47"/>
+      <c r="G215" s="47"/>
+      <c r="H215" s="47"/>
+      <c r="I215" s="47"/>
+      <c r="J215" s="47"/>
+      <c r="K215" s="47"/>
+      <c r="L215" s="47"/>
+      <c r="M215" s="47"/>
+      <c r="N215" s="47"/>
+      <c r="O215" s="47"/>
+      <c r="P215" s="44"/>
+    </row>
+    <row r="216" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A216" s="23"/>
+      <c r="B216" s="51"/>
+      <c r="C216" s="23"/>
+      <c r="D216" s="52" t="str">
+        <f aca="false">$D$9</f>
+        <v>Bursa Fabrika Satış Mağazası – Adem Duman</v>
+      </c>
+      <c r="E216" s="30"/>
+      <c r="F216" s="0"/>
+      <c r="G216" s="0"/>
+      <c r="H216" s="0"/>
+      <c r="I216" s="0"/>
+      <c r="J216" s="0"/>
+      <c r="K216" s="0"/>
+      <c r="L216" s="0"/>
+      <c r="M216" s="0"/>
+      <c r="N216" s="0"/>
+      <c r="O216" s="0"/>
+      <c r="P216" s="44"/>
+    </row>
+    <row r="217" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A217" s="23"/>
+      <c r="B217" s="35"/>
+      <c r="C217" s="23"/>
+      <c r="D217" s="52"/>
+      <c r="E217" s="30"/>
+      <c r="F217" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G217" s="62" t="str">
+        <f aca="false">"İsim : "&amp;$D216</f>
+        <v>İsim : Bursa Fabrika Satış Mağazası – Adem Duman</v>
+      </c>
+      <c r="H217" s="62"/>
+      <c r="I217" s="62"/>
+      <c r="J217" s="62"/>
+      <c r="K217" s="25"/>
+      <c r="L217" s="25"/>
+      <c r="M217" s="66"/>
+      <c r="N217" s="66"/>
+      <c r="O217" s="26"/>
+      <c r="P217" s="44"/>
+    </row>
+    <row r="218" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A218" s="23"/>
+      <c r="B218" s="55"/>
+      <c r="C218" s="56"/>
+      <c r="D218" s="52"/>
+      <c r="E218" s="30"/>
+      <c r="F218" s="53"/>
+      <c r="G218" s="57" t="str">
+        <f aca="false">"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
+        <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
+      </c>
+      <c r="H218" s="57"/>
+      <c r="I218" s="57"/>
+      <c r="J218" s="57"/>
+      <c r="K218" s="57"/>
+      <c r="L218" s="23"/>
+      <c r="M218" s="23"/>
+      <c r="N218" s="23"/>
+      <c r="O218" s="44"/>
+      <c r="P218" s="44"/>
+    </row>
+    <row r="219" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A219" s="23"/>
+      <c r="B219" s="55"/>
+      <c r="C219" s="56"/>
+      <c r="D219" s="52"/>
+      <c r="E219" s="30"/>
+      <c r="F219" s="53"/>
+      <c r="G219" s="57"/>
+      <c r="H219" s="57"/>
+      <c r="I219" s="57"/>
+      <c r="J219" s="57"/>
+      <c r="K219" s="57"/>
+      <c r="L219" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M219" s="36"/>
+      <c r="N219" s="32"/>
+      <c r="O219" s="44"/>
+      <c r="P219" s="44"/>
+    </row>
+    <row r="220" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A220" s="23"/>
+      <c r="B220" s="55"/>
+      <c r="C220" s="56"/>
+      <c r="D220" s="52"/>
+      <c r="E220" s="30"/>
+      <c r="F220" s="53"/>
+      <c r="G220" s="58" t="str">
+        <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
+        <v>Vergi Dairesi : Tokat</v>
+      </c>
+      <c r="H220" s="58"/>
+      <c r="I220" s="58"/>
+      <c r="J220" s="58"/>
+      <c r="K220" s="23"/>
+      <c r="L220" s="23"/>
+      <c r="M220" s="23"/>
+      <c r="N220" s="23"/>
+      <c r="O220" s="44"/>
+      <c r="P220" s="44"/>
+    </row>
+    <row r="221" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A221" s="23"/>
+      <c r="B221" s="35"/>
+      <c r="C221" s="23"/>
+      <c r="D221" s="52"/>
+      <c r="E221" s="30"/>
+      <c r="F221" s="53"/>
+      <c r="G221" s="59" t="str">
+        <f aca="false">"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
+        <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
+      </c>
+      <c r="H221" s="59"/>
+      <c r="I221" s="59"/>
+      <c r="J221" s="59"/>
+      <c r="K221" s="60"/>
+      <c r="L221" s="60"/>
+      <c r="M221" s="60"/>
+      <c r="N221" s="60"/>
+      <c r="O221" s="61"/>
+      <c r="P221" s="44"/>
+    </row>
+    <row r="222" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A222" s="23"/>
+      <c r="B222" s="51"/>
+      <c r="C222" s="23"/>
+      <c r="D222" s="52"/>
+      <c r="E222" s="30"/>
+      <c r="F222" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G222" s="62" t="str">
+        <f aca="false">"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
+        <v>İsim Unvan : Adem Duman</v>
+      </c>
+      <c r="H222" s="62"/>
+      <c r="I222" s="62"/>
+      <c r="J222" s="62"/>
+      <c r="K222" s="25"/>
+      <c r="L222" s="63"/>
+      <c r="M222" s="25"/>
+      <c r="N222" s="25"/>
+      <c r="O222" s="26"/>
+      <c r="P222" s="44"/>
+    </row>
+    <row r="223" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A223" s="23"/>
+      <c r="B223" s="35"/>
+      <c r="C223" s="23"/>
+      <c r="D223" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E223" s="30"/>
+      <c r="F223" s="53"/>
+      <c r="G223" s="57" t="str">
+        <f aca="false">"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
+        <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
+      </c>
+      <c r="H223" s="57"/>
+      <c r="I223" s="57"/>
+      <c r="J223" s="57"/>
+      <c r="K223" s="23"/>
+      <c r="L223" s="23"/>
+      <c r="M223" s="23"/>
+      <c r="N223" s="23"/>
+      <c r="O223" s="44"/>
+      <c r="P223" s="44"/>
+    </row>
+    <row r="224" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A224" s="23"/>
+      <c r="B224" s="51"/>
+      <c r="C224" s="23"/>
+      <c r="D224" s="64" t="n">
+        <f aca="false">'Senet Taksit Giriş'!D13</f>
+        <v>44591</v>
+      </c>
+      <c r="E224" s="30"/>
+      <c r="F224" s="53"/>
+      <c r="G224" s="57"/>
+      <c r="H224" s="57"/>
+      <c r="I224" s="57"/>
+      <c r="J224" s="57"/>
+      <c r="K224" s="23"/>
+      <c r="L224" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M224" s="23"/>
+      <c r="N224" s="23"/>
+      <c r="O224" s="44"/>
+      <c r="P224" s="44"/>
+    </row>
+    <row r="225" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A225" s="23"/>
+      <c r="B225" s="35"/>
+      <c r="C225" s="23"/>
+      <c r="D225" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E225" s="30"/>
+      <c r="F225" s="53"/>
+      <c r="G225" s="58" t="str">
+        <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
+        <v>Vergi Dairesi : Tokat</v>
+      </c>
+      <c r="H225" s="58"/>
+      <c r="I225" s="58"/>
+      <c r="J225" s="58"/>
+      <c r="K225" s="23"/>
+      <c r="L225" s="23"/>
+      <c r="M225" s="23"/>
+      <c r="N225" s="23"/>
+      <c r="O225" s="44"/>
+      <c r="P225" s="44"/>
+    </row>
+    <row r="226" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A226" s="23"/>
+      <c r="B226" s="35"/>
+      <c r="C226" s="23"/>
+      <c r="D226" s="64" t="n">
+        <f aca="false">'Senet Taksit Giriş'!C13</f>
+        <v>44252</v>
+      </c>
+      <c r="E226" s="30"/>
+      <c r="F226" s="53"/>
+      <c r="G226" s="59" t="str">
+        <f aca="false">"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
+        <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
+      </c>
+      <c r="H226" s="59"/>
+      <c r="I226" s="59"/>
+      <c r="J226" s="59"/>
+      <c r="K226" s="60"/>
+      <c r="L226" s="60"/>
+      <c r="M226" s="60"/>
+      <c r="N226" s="60"/>
+      <c r="O226" s="61"/>
+      <c r="P226" s="44"/>
+    </row>
+    <row r="227" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A227" s="23"/>
+      <c r="B227" s="65"/>
+      <c r="C227" s="60"/>
+      <c r="D227" s="60"/>
+      <c r="E227" s="60"/>
+      <c r="F227" s="60"/>
+      <c r="G227" s="60"/>
+      <c r="H227" s="60"/>
+      <c r="I227" s="60"/>
+      <c r="J227" s="60"/>
+      <c r="K227" s="60"/>
+      <c r="L227" s="60"/>
+      <c r="M227" s="60"/>
+      <c r="N227" s="60"/>
+      <c r="O227" s="60"/>
+      <c r="P227" s="61"/>
+    </row>
+    <row r="229" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A229" s="23"/>
+      <c r="B229" s="24"/>
+      <c r="C229" s="25"/>
+      <c r="D229" s="25"/>
+      <c r="E229" s="25"/>
+      <c r="F229" s="25"/>
+      <c r="G229" s="25"/>
+      <c r="H229" s="25"/>
+      <c r="I229" s="25"/>
+      <c r="J229" s="25"/>
+      <c r="K229" s="25"/>
+      <c r="L229" s="25"/>
+      <c r="M229" s="25"/>
+      <c r="N229" s="25"/>
+      <c r="O229" s="25"/>
+      <c r="P229" s="26"/>
+    </row>
+    <row r="230" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A230" s="27"/>
+      <c r="B230" s="28"/>
+      <c r="C230" s="27"/>
+      <c r="D230" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E230" s="30" t="str">
+        <f aca="false">$D237 &amp;"    - Taksit No: " &amp; $D232&amp;"  "</f>
+        <v>Bursa Fabrika Satış Mağazası – Adem Duman    - Taksit No: # 12 #  </v>
+      </c>
+      <c r="F230" s="27"/>
+      <c r="G230" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H230" s="27"/>
+      <c r="I230" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J230" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K230" s="0"/>
+      <c r="L230" s="27"/>
+      <c r="M230" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="N230" s="32"/>
+      <c r="O230" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="P230" s="33"/>
+    </row>
+    <row r="231" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A231" s="23"/>
+      <c r="B231" s="35"/>
+      <c r="C231" s="36"/>
+      <c r="D231" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E231" s="30"/>
+      <c r="F231" s="23"/>
+      <c r="G231" s="38" t="n">
+        <f aca="false">D245</f>
+        <v>44620</v>
+      </c>
+      <c r="H231" s="39"/>
+      <c r="I231" s="40" t="str">
+        <f aca="false">D234</f>
+        <v># 2.000 TL #</v>
+      </c>
+      <c r="J231" s="41" t="str">
+        <f aca="false">D235</f>
+        <v>#   Krş #</v>
+      </c>
+      <c r="K231" s="0"/>
+      <c r="L231" s="39"/>
+      <c r="M231" s="42" t="str">
+        <f aca="false">D232</f>
+        <v># 12 #</v>
+      </c>
+      <c r="N231" s="32"/>
+      <c r="O231" s="43" t="n">
+        <f aca="false">D247</f>
+        <v>44252</v>
+      </c>
+      <c r="P231" s="44"/>
+    </row>
+    <row r="232" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A232" s="23"/>
+      <c r="B232" s="35"/>
+      <c r="C232" s="36"/>
+      <c r="D232" s="45" t="str">
+        <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!B14),"##.##0")&amp;" #"</f>
+        <v># 12 #</v>
+      </c>
+      <c r="E232" s="30"/>
+      <c r="F232" s="23"/>
+      <c r="G232" s="23"/>
+      <c r="H232" s="23"/>
+      <c r="I232" s="23"/>
+      <c r="J232" s="23"/>
+      <c r="K232" s="23"/>
+      <c r="L232" s="23"/>
+      <c r="M232" s="23"/>
+      <c r="N232" s="23"/>
+      <c r="O232" s="23"/>
+      <c r="P232" s="44"/>
+    </row>
+    <row r="233" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A233" s="23"/>
+      <c r="B233" s="35"/>
+      <c r="C233" s="36"/>
+      <c r="D233" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E233" s="30"/>
+      <c r="F233" s="47" t="str">
+        <f aca="false">"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G231,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F14&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G14&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
+        <v>   İş bu emre muharrer senedimizin mükabilinde 28 Şubat 2022 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # İkibin TL  # ödeyeceğiz. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eyleriz.</v>
+      </c>
+      <c r="G233" s="47"/>
+      <c r="H233" s="47"/>
+      <c r="I233" s="47"/>
+      <c r="J233" s="47"/>
+      <c r="K233" s="47"/>
+      <c r="L233" s="47"/>
+      <c r="M233" s="47"/>
+      <c r="N233" s="47"/>
+      <c r="O233" s="47"/>
+      <c r="P233" s="44"/>
+    </row>
+    <row r="234" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A234" s="23"/>
+      <c r="B234" s="35"/>
+      <c r="C234" s="36"/>
+      <c r="D234" s="48" t="str">
+        <f aca="false">"# "&amp;TEXT(INT('Senet Taksit Giriş'!E14),"##.##0")&amp;" TL #"</f>
+        <v># 2.000 TL #</v>
+      </c>
+      <c r="E234" s="30"/>
+      <c r="F234" s="47"/>
+      <c r="G234" s="47"/>
+      <c r="H234" s="47"/>
+      <c r="I234" s="47"/>
+      <c r="J234" s="47"/>
+      <c r="K234" s="47"/>
+      <c r="L234" s="47"/>
+      <c r="M234" s="47"/>
+      <c r="N234" s="47"/>
+      <c r="O234" s="47"/>
+      <c r="P234" s="44"/>
+    </row>
+    <row r="235" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A235" s="23"/>
+      <c r="B235" s="35"/>
+      <c r="C235" s="23"/>
+      <c r="D235" s="49" t="str">
+        <f aca="false">"# "&amp;TEXT(('Senet Taksit Giriş'!E237-INT('Senet Taksit Giriş'!E237))*100,"##.##")&amp;"  Krş #"</f>
+        <v>#   Krş #</v>
+      </c>
+      <c r="E235" s="30"/>
+      <c r="F235" s="47"/>
+      <c r="G235" s="47"/>
+      <c r="H235" s="47"/>
+      <c r="I235" s="47"/>
+      <c r="J235" s="47"/>
+      <c r="K235" s="47"/>
+      <c r="L235" s="47"/>
+      <c r="M235" s="47"/>
+      <c r="N235" s="47"/>
+      <c r="O235" s="47"/>
+      <c r="P235" s="44"/>
+    </row>
+    <row r="236" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A236" s="23"/>
+      <c r="B236" s="35"/>
+      <c r="C236" s="23"/>
+      <c r="D236" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E236" s="30"/>
+      <c r="F236" s="47"/>
+      <c r="G236" s="47"/>
+      <c r="H236" s="47"/>
+      <c r="I236" s="47"/>
+      <c r="J236" s="47"/>
+      <c r="K236" s="47"/>
+      <c r="L236" s="47"/>
+      <c r="M236" s="47"/>
+      <c r="N236" s="47"/>
+      <c r="O236" s="47"/>
+      <c r="P236" s="44"/>
+    </row>
+    <row r="237" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A237" s="23"/>
+      <c r="B237" s="51"/>
+      <c r="C237" s="23"/>
+      <c r="D237" s="52" t="str">
+        <f aca="false">$D$9</f>
+        <v>Bursa Fabrika Satış Mağazası – Adem Duman</v>
+      </c>
+      <c r="E237" s="30"/>
+      <c r="F237" s="0"/>
+      <c r="G237" s="0"/>
+      <c r="H237" s="0"/>
+      <c r="I237" s="0"/>
+      <c r="J237" s="0"/>
+      <c r="K237" s="0"/>
+      <c r="L237" s="0"/>
+      <c r="M237" s="0"/>
+      <c r="N237" s="0"/>
+      <c r="O237" s="0"/>
+      <c r="P237" s="44"/>
+    </row>
+    <row r="238" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A238" s="23"/>
+      <c r="B238" s="35"/>
+      <c r="C238" s="23"/>
+      <c r="D238" s="52"/>
+      <c r="E238" s="30"/>
+      <c r="F238" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G238" s="62" t="str">
+        <f aca="false">"İsim : "&amp;$D237</f>
+        <v>İsim : Bursa Fabrika Satış Mağazası – Adem Duman</v>
+      </c>
+      <c r="H238" s="62"/>
+      <c r="I238" s="62"/>
+      <c r="J238" s="62"/>
+      <c r="K238" s="25"/>
+      <c r="L238" s="25"/>
+      <c r="M238" s="66"/>
+      <c r="N238" s="66"/>
+      <c r="O238" s="26"/>
+      <c r="P238" s="44"/>
+    </row>
+    <row r="239" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A239" s="23"/>
+      <c r="B239" s="55"/>
+      <c r="C239" s="56"/>
+      <c r="D239" s="52"/>
+      <c r="E239" s="30"/>
+      <c r="F239" s="53"/>
+      <c r="G239" s="57" t="str">
+        <f aca="false">"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
+        <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
+      </c>
+      <c r="H239" s="57"/>
+      <c r="I239" s="57"/>
+      <c r="J239" s="57"/>
+      <c r="K239" s="57"/>
+      <c r="L239" s="23"/>
+      <c r="M239" s="23"/>
+      <c r="N239" s="23"/>
+      <c r="O239" s="44"/>
+      <c r="P239" s="44"/>
+    </row>
+    <row r="240" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A240" s="23"/>
+      <c r="B240" s="55"/>
+      <c r="C240" s="56"/>
+      <c r="D240" s="52"/>
+      <c r="E240" s="30"/>
+      <c r="F240" s="53"/>
+      <c r="G240" s="57"/>
+      <c r="H240" s="57"/>
+      <c r="I240" s="57"/>
+      <c r="J240" s="57"/>
+      <c r="K240" s="57"/>
+      <c r="L240" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M240" s="36"/>
+      <c r="N240" s="32"/>
+      <c r="O240" s="44"/>
+      <c r="P240" s="44"/>
+    </row>
+    <row r="241" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A241" s="23"/>
+      <c r="B241" s="55"/>
+      <c r="C241" s="56"/>
+      <c r="D241" s="52"/>
+      <c r="E241" s="30"/>
+      <c r="F241" s="53"/>
+      <c r="G241" s="58" t="str">
+        <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
+        <v>Vergi Dairesi : Tokat</v>
+      </c>
+      <c r="H241" s="58"/>
+      <c r="I241" s="58"/>
+      <c r="J241" s="58"/>
+      <c r="K241" s="23"/>
+      <c r="L241" s="23"/>
+      <c r="M241" s="23"/>
+      <c r="N241" s="23"/>
+      <c r="O241" s="44"/>
+      <c r="P241" s="44"/>
+    </row>
+    <row r="242" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A242" s="23"/>
+      <c r="B242" s="35"/>
+      <c r="C242" s="23"/>
+      <c r="D242" s="52"/>
+      <c r="E242" s="30"/>
+      <c r="F242" s="53"/>
+      <c r="G242" s="59" t="str">
+        <f aca="false">"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
+        <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
+      </c>
+      <c r="H242" s="59"/>
+      <c r="I242" s="59"/>
+      <c r="J242" s="59"/>
+      <c r="K242" s="60"/>
+      <c r="L242" s="60"/>
+      <c r="M242" s="60"/>
+      <c r="N242" s="60"/>
+      <c r="O242" s="61"/>
+      <c r="P242" s="44"/>
+    </row>
+    <row r="243" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A243" s="23"/>
+      <c r="B243" s="51"/>
+      <c r="C243" s="23"/>
+      <c r="D243" s="52"/>
+      <c r="E243" s="30"/>
+      <c r="F243" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G243" s="62" t="str">
+        <f aca="false">"İsim : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
+        <v>İsim : Adem Duman</v>
+      </c>
+      <c r="H243" s="62"/>
+      <c r="I243" s="62"/>
+      <c r="J243" s="62"/>
+      <c r="K243" s="25"/>
+      <c r="L243" s="63"/>
+      <c r="M243" s="25"/>
+      <c r="N243" s="25"/>
+      <c r="O243" s="26"/>
+      <c r="P243" s="44"/>
+    </row>
+    <row r="244" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A244" s="23"/>
+      <c r="B244" s="35"/>
+      <c r="C244" s="23"/>
+      <c r="D244" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E244" s="30"/>
+      <c r="F244" s="53"/>
+      <c r="G244" s="57" t="str">
+        <f aca="false">"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
+        <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
+      </c>
+      <c r="H244" s="57"/>
+      <c r="I244" s="57"/>
+      <c r="J244" s="57"/>
+      <c r="K244" s="23"/>
+      <c r="L244" s="23"/>
+      <c r="M244" s="23"/>
+      <c r="N244" s="23"/>
+      <c r="O244" s="44"/>
+      <c r="P244" s="44"/>
+    </row>
+    <row r="245" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A245" s="23"/>
+      <c r="B245" s="51"/>
+      <c r="C245" s="23"/>
+      <c r="D245" s="64" t="n">
+        <f aca="false">'Senet Taksit Giriş'!D14</f>
+        <v>44620</v>
+      </c>
+      <c r="E245" s="30"/>
+      <c r="F245" s="53"/>
+      <c r="G245" s="57"/>
+      <c r="H245" s="57"/>
+      <c r="I245" s="57"/>
+      <c r="J245" s="57"/>
+      <c r="K245" s="23"/>
+      <c r="L245" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M245" s="23"/>
+      <c r="N245" s="23"/>
+      <c r="O245" s="44"/>
+      <c r="P245" s="44"/>
+    </row>
+    <row r="246" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A246" s="23"/>
+      <c r="B246" s="35"/>
+      <c r="C246" s="23"/>
+      <c r="D246" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E246" s="30"/>
+      <c r="F246" s="53"/>
+      <c r="G246" s="58" t="str">
+        <f aca="false">"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
+        <v>Vergi Dairesi : Tokat</v>
+      </c>
+      <c r="H246" s="58"/>
+      <c r="I246" s="58"/>
+      <c r="J246" s="58"/>
+      <c r="K246" s="23"/>
+      <c r="L246" s="23"/>
+      <c r="M246" s="23"/>
+      <c r="N246" s="23"/>
+      <c r="O246" s="44"/>
+      <c r="P246" s="44"/>
+    </row>
+    <row r="247" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A247" s="23"/>
+      <c r="B247" s="35"/>
+      <c r="C247" s="23"/>
+      <c r="D247" s="64" t="n">
+        <f aca="false">'Senet Taksit Giriş'!C14</f>
+        <v>44252</v>
+      </c>
+      <c r="E247" s="30"/>
+      <c r="F247" s="53"/>
+      <c r="G247" s="59" t="str">
+        <f aca="false">"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
+        <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
+      </c>
+      <c r="H247" s="59"/>
+      <c r="I247" s="59"/>
+      <c r="J247" s="59"/>
+      <c r="K247" s="60"/>
+      <c r="L247" s="60"/>
+      <c r="M247" s="60"/>
+      <c r="N247" s="60"/>
+      <c r="O247" s="61"/>
+      <c r="P247" s="44"/>
+    </row>
+    <row r="248" customFormat="false" ht="23.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A248" s="23"/>
+      <c r="B248" s="65"/>
+      <c r="C248" s="60"/>
+      <c r="D248" s="60"/>
+      <c r="E248" s="60"/>
+      <c r="F248" s="60"/>
+      <c r="G248" s="60"/>
+      <c r="H248" s="60"/>
+      <c r="I248" s="60"/>
+      <c r="J248" s="60"/>
+      <c r="K248" s="60"/>
+      <c r="L248" s="60"/>
+      <c r="M248" s="60"/>
+      <c r="N248" s="60"/>
+      <c r="O248" s="60"/>
+      <c r="P248" s="61"/>
+    </row>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="168">
     <mergeCell ref="E2:E19"/>
-    <mergeCell ref="F5:O7"/>
+    <mergeCell ref="F5:O8"/>
     <mergeCell ref="D9:D15"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="G10:K11"/>
-    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="G11:K12"/>
     <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
     <mergeCell ref="F15:F19"/>
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="G16:J17"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="E23:E40"/>
-    <mergeCell ref="F26:O28"/>
+    <mergeCell ref="F26:O29"/>
     <mergeCell ref="D30:D36"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="G31:K32"/>
-    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="G32:K33"/>
     <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
     <mergeCell ref="F36:F40"/>
     <mergeCell ref="G36:J36"/>
     <mergeCell ref="G37:J38"/>
     <mergeCell ref="G39:J39"/>
     <mergeCell ref="G40:J40"/>
     <mergeCell ref="E44:E61"/>
-    <mergeCell ref="F47:O49"/>
+    <mergeCell ref="F47:O50"/>
     <mergeCell ref="D51:D57"/>
-    <mergeCell ref="F51:F55"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="G52:K53"/>
-    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="G53:K54"/>
     <mergeCell ref="G55:J55"/>
+    <mergeCell ref="G56:J56"/>
     <mergeCell ref="F57:F61"/>
     <mergeCell ref="G57:J57"/>
     <mergeCell ref="G58:J59"/>
     <mergeCell ref="G60:J60"/>
     <mergeCell ref="G61:J61"/>
-    <mergeCell ref="E65:E82"/>
-    <mergeCell ref="F68:O70"/>
-    <mergeCell ref="D72:D78"/>
+    <mergeCell ref="E64:E81"/>
+    <mergeCell ref="F67:O70"/>
+    <mergeCell ref="D71:D77"/>
     <mergeCell ref="F72:F76"/>
     <mergeCell ref="G72:J72"/>
     <mergeCell ref="M72:N72"/>
     <mergeCell ref="G73:K74"/>
     <mergeCell ref="G75:J75"/>
     <mergeCell ref="G76:J76"/>
-    <mergeCell ref="F78:F82"/>
-    <mergeCell ref="G78:J78"/>
-    <mergeCell ref="G79:J80"/>
+    <mergeCell ref="F77:F81"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="G78:J79"/>
+    <mergeCell ref="G80:J80"/>
     <mergeCell ref="G81:J81"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="E86:E103"/>
-    <mergeCell ref="F89:O91"/>
-    <mergeCell ref="D93:D99"/>
+    <mergeCell ref="E85:E102"/>
+    <mergeCell ref="F88:O91"/>
+    <mergeCell ref="D92:D98"/>
     <mergeCell ref="F93:F97"/>
     <mergeCell ref="G93:J93"/>
     <mergeCell ref="M93:N93"/>
     <mergeCell ref="G94:K95"/>
     <mergeCell ref="G96:J96"/>
     <mergeCell ref="G97:J97"/>
-    <mergeCell ref="F99:F103"/>
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="G100:J101"/>
+    <mergeCell ref="F98:F102"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="G99:J100"/>
+    <mergeCell ref="G101:J101"/>
     <mergeCell ref="G102:J102"/>
-    <mergeCell ref="G103:J103"/>
+    <mergeCell ref="E106:E123"/>
+    <mergeCell ref="F109:O112"/>
+    <mergeCell ref="D113:D119"/>
+    <mergeCell ref="F114:F118"/>
+    <mergeCell ref="G114:J114"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="G115:K116"/>
+    <mergeCell ref="G117:J117"/>
+    <mergeCell ref="G118:J118"/>
+    <mergeCell ref="F119:F123"/>
+    <mergeCell ref="G119:J119"/>
+    <mergeCell ref="G120:J121"/>
+    <mergeCell ref="G122:J122"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="E126:E143"/>
+    <mergeCell ref="F129:O132"/>
+    <mergeCell ref="D133:D139"/>
+    <mergeCell ref="F134:F138"/>
+    <mergeCell ref="G134:J134"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="G135:K136"/>
+    <mergeCell ref="G137:J137"/>
+    <mergeCell ref="G138:J138"/>
+    <mergeCell ref="F139:F143"/>
+    <mergeCell ref="G139:J139"/>
+    <mergeCell ref="G140:J141"/>
+    <mergeCell ref="G142:J142"/>
+    <mergeCell ref="G143:J143"/>
+    <mergeCell ref="E147:E164"/>
+    <mergeCell ref="F150:O153"/>
+    <mergeCell ref="D154:D160"/>
+    <mergeCell ref="F155:F159"/>
+    <mergeCell ref="G155:J155"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="G156:K157"/>
+    <mergeCell ref="G158:J158"/>
+    <mergeCell ref="G159:J159"/>
+    <mergeCell ref="F160:F164"/>
+    <mergeCell ref="G160:J160"/>
+    <mergeCell ref="G161:J162"/>
+    <mergeCell ref="G163:J163"/>
+    <mergeCell ref="G164:J164"/>
+    <mergeCell ref="E168:E185"/>
+    <mergeCell ref="F171:O174"/>
+    <mergeCell ref="D175:D181"/>
+    <mergeCell ref="F176:F180"/>
+    <mergeCell ref="G176:J176"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="G177:K178"/>
+    <mergeCell ref="G179:J179"/>
+    <mergeCell ref="G180:J180"/>
+    <mergeCell ref="F181:F185"/>
+    <mergeCell ref="G181:J181"/>
+    <mergeCell ref="G182:J183"/>
+    <mergeCell ref="G184:J184"/>
+    <mergeCell ref="G185:J185"/>
+    <mergeCell ref="E188:E205"/>
+    <mergeCell ref="F191:O194"/>
+    <mergeCell ref="D195:D201"/>
+    <mergeCell ref="F196:F200"/>
+    <mergeCell ref="G196:J196"/>
+    <mergeCell ref="M196:N196"/>
+    <mergeCell ref="G197:K198"/>
+    <mergeCell ref="G199:J199"/>
+    <mergeCell ref="G200:J200"/>
+    <mergeCell ref="F201:F205"/>
+    <mergeCell ref="G201:J201"/>
+    <mergeCell ref="G202:J203"/>
+    <mergeCell ref="G204:J204"/>
+    <mergeCell ref="G205:J205"/>
+    <mergeCell ref="E209:E226"/>
+    <mergeCell ref="F212:O215"/>
+    <mergeCell ref="D216:D222"/>
+    <mergeCell ref="F217:F221"/>
+    <mergeCell ref="G217:J217"/>
+    <mergeCell ref="M217:N217"/>
+    <mergeCell ref="G218:K219"/>
+    <mergeCell ref="G220:J220"/>
+    <mergeCell ref="G221:J221"/>
+    <mergeCell ref="F222:F226"/>
+    <mergeCell ref="G222:J222"/>
+    <mergeCell ref="G223:J224"/>
+    <mergeCell ref="G225:J225"/>
+    <mergeCell ref="G226:J226"/>
+    <mergeCell ref="E230:E247"/>
+    <mergeCell ref="F233:O236"/>
+    <mergeCell ref="D237:D243"/>
+    <mergeCell ref="F238:F242"/>
+    <mergeCell ref="G238:J238"/>
+    <mergeCell ref="M238:N238"/>
+    <mergeCell ref="G239:K240"/>
+    <mergeCell ref="G241:J241"/>
+    <mergeCell ref="G242:J242"/>
+    <mergeCell ref="F243:F247"/>
+    <mergeCell ref="G243:J243"/>
+    <mergeCell ref="G244:J245"/>
+    <mergeCell ref="G246:J246"/>
+    <mergeCell ref="G247:J247"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.236111111111111" right="0.236111111111111" top="0.196527777777778" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
